--- a/GeoRef/Data_Places/DWA_places_JH.xlsx
+++ b/GeoRef/Data_Places/DWA_places_JH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DWA\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DWA_FSJ\Städtenamen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D6609C5-7EEB-4185-8308-8E64A8978E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E32175FF-70F2-404B-8F39-979E224289D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="910" windowWidth="14400" windowHeight="7250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DWA_places_study_area" sheetId="1" r:id="rId1"/>
@@ -8337,7 +8337,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -8358,7 +8358,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -8717,8 +8716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T2340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A228" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I250" sqref="I250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9856,7 +9855,7 @@
       <c r="B26" s="18">
         <v>1687</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D26" s="18">
@@ -12515,6316 +12514,6316 @@
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A91">
+      <c r="A91" s="18">
         <v>1813</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="18">
         <v>1820</v>
       </c>
-      <c r="C91" s="20" t="s">
+      <c r="C91" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="18">
         <v>128465</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="18">
         <v>8.5243199999999995</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="18">
         <v>49.367800000000003</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="18">
         <v>18</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I91" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J91">
+      <c r="J91" s="18">
         <v>60</v>
       </c>
-      <c r="K91">
+      <c r="K91" s="18">
         <v>9</v>
       </c>
-      <c r="L91">
-        <v>1</v>
-      </c>
-      <c r="M91">
+      <c r="L91" s="18">
+        <v>1</v>
+      </c>
+      <c r="M91" s="18">
         <v>128465</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A92">
+      <c r="A92" s="18">
         <v>1825</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="18">
         <v>1814</v>
       </c>
-      <c r="C92" s="20" t="s">
+      <c r="C92" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="18">
         <v>128407</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="18">
         <v>8.5348500000000005</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="18">
         <v>49.395099999999999</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="18">
         <v>18</v>
       </c>
-      <c r="I92" t="s">
+      <c r="I92" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J92">
+      <c r="J92" s="18">
         <v>60</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="18">
         <v>9</v>
       </c>
-      <c r="L92">
-        <v>1</v>
-      </c>
-      <c r="M92">
+      <c r="L92" s="18">
+        <v>1</v>
+      </c>
+      <c r="M92" s="18">
         <v>128407</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A93">
+      <c r="A93" s="18">
         <v>1853</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="18">
         <v>1815</v>
       </c>
-      <c r="C93" s="20" t="s">
+      <c r="C93" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="18">
         <v>130511</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="18">
         <v>8.5706399999999991</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="18">
         <v>49.385669999999998</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="18">
         <v>18</v>
       </c>
-      <c r="I93" t="s">
+      <c r="I93" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J93">
+      <c r="J93" s="18">
         <v>60</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="18">
         <v>9</v>
       </c>
-      <c r="L93">
-        <v>1</v>
-      </c>
-      <c r="M93">
+      <c r="L93" s="18">
+        <v>1</v>
+      </c>
+      <c r="M93" s="18">
         <v>130511</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A94">
+      <c r="A94" s="18">
         <v>1859</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="18">
         <v>1819</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="18">
         <v>128105</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="18">
         <v>8.5810700000000004</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="18">
         <v>49.368229999999997</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="18">
         <v>18</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I94" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J94">
+      <c r="J94" s="18">
         <v>60</v>
       </c>
-      <c r="K94">
+      <c r="K94" s="18">
         <v>9</v>
       </c>
-      <c r="L94">
-        <v>1</v>
-      </c>
-      <c r="M94">
+      <c r="L94" s="18">
+        <v>1</v>
+      </c>
+      <c r="M94" s="18">
         <v>128105</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A95">
+      <c r="A95" s="18">
         <v>1861</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="18">
         <v>1816</v>
       </c>
-      <c r="C95" s="20" t="s">
+      <c r="C95" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="18">
         <v>131403</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="18">
         <v>8.5927100000000003</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="18">
         <v>49.39179</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="18">
         <v>18</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I95" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J95">
+      <c r="J95" s="18">
         <v>60</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="18">
         <v>9</v>
       </c>
-      <c r="L95">
-        <v>1</v>
-      </c>
-      <c r="M95">
+      <c r="L95" s="18">
+        <v>1</v>
+      </c>
+      <c r="M95" s="18">
         <v>131403</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A96">
+      <c r="A96" s="18">
         <v>1882</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="18">
         <v>1817</v>
       </c>
-      <c r="C96" s="20" t="s">
+      <c r="C96" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="18">
         <v>130939</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="18">
         <v>8.6288499999999999</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="18">
         <v>49.40164</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="18">
         <v>18</v>
       </c>
-      <c r="I96" t="s">
+      <c r="I96" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J96">
+      <c r="J96" s="18">
         <v>60</v>
       </c>
-      <c r="K96">
+      <c r="K96" s="18">
         <v>9</v>
       </c>
-      <c r="L96">
-        <v>1</v>
-      </c>
-      <c r="M96">
+      <c r="L96" s="18">
+        <v>1</v>
+      </c>
+      <c r="M96" s="18">
         <v>130939</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A97">
+      <c r="A97" s="18">
         <v>1895</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="18">
         <v>1822</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="18">
         <v>129809</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="18">
         <v>8.6469799999999992</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="18">
         <v>49.402819999999998</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="18">
         <v>18</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I97" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J97">
+      <c r="J97" s="18">
         <v>60</v>
       </c>
-      <c r="K97">
+      <c r="K97" s="18">
         <v>9</v>
       </c>
-      <c r="L97">
-        <v>1</v>
-      </c>
-      <c r="M97">
+      <c r="L97" s="18">
+        <v>1</v>
+      </c>
+      <c r="M97" s="18">
         <v>129809</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A98">
+      <c r="A98" s="18">
         <v>1904</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="18">
         <v>1818</v>
       </c>
-      <c r="C98" s="20" t="s">
+      <c r="C98" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="18">
         <v>132572</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="18">
         <v>8.6583699999999997</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="18">
         <v>49.342359999999999</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="18">
         <v>18</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I98" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J98">
+      <c r="J98" s="18">
         <v>60</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="18">
         <v>9</v>
       </c>
-      <c r="L98">
-        <v>1</v>
-      </c>
-      <c r="M98">
+      <c r="L98" s="18">
+        <v>1</v>
+      </c>
+      <c r="M98" s="18">
         <v>132572</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A99">
+      <c r="A99" s="18">
         <v>1913</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="18">
         <v>1823</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="18">
         <v>129260</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="18">
         <v>8.6677300000000006</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="18">
         <v>49.378369999999997</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="18">
         <v>18</v>
       </c>
-      <c r="I99" t="s">
+      <c r="I99" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J99">
+      <c r="J99" s="18">
         <v>60</v>
       </c>
-      <c r="K99">
+      <c r="K99" s="18">
         <v>9</v>
       </c>
-      <c r="L99">
-        <v>1</v>
-      </c>
-      <c r="M99">
+      <c r="L99" s="18">
+        <v>1</v>
+      </c>
+      <c r="M99" s="18">
         <v>129260</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A100">
+      <c r="A100" s="18">
         <v>1934</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="C100" s="20" t="s">
+      <c r="C100" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="18">
         <v>8.6889099999999999</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="18">
         <v>49.349020000000003</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="18">
         <v>19</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I100" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="18">
         <v>60</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="18">
         <v>15</v>
       </c>
-      <c r="L100">
+      <c r="L100" s="18">
         <v>2</v>
       </c>
-      <c r="M100">
+      <c r="M100" s="18">
         <v>132342</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A101">
+      <c r="A101" s="18">
         <v>1937</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="18">
         <v>1824</v>
       </c>
-      <c r="C101" s="20" t="s">
+      <c r="C101" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="18">
         <v>130311</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="18">
         <v>8.69</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="18">
         <v>49.380049999999997</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="18">
         <v>19</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I101" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="18">
         <v>60</v>
       </c>
-      <c r="K101">
+      <c r="K101" s="18">
         <v>15</v>
       </c>
-      <c r="L101">
-        <v>1</v>
-      </c>
-      <c r="M101">
+      <c r="L101" s="18">
+        <v>1</v>
+      </c>
+      <c r="M101" s="18">
         <v>130311</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A102">
+      <c r="A102" s="18">
         <v>1953</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C102" s="20" t="s">
+      <c r="C102" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="18">
         <v>8.7081900000000001</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="18">
         <v>49.413490000000003</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="18">
         <v>19</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I102" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J102">
+      <c r="J102" s="18">
         <v>60</v>
       </c>
-      <c r="K102">
+      <c r="K102" s="18">
         <v>15</v>
       </c>
-      <c r="L102">
+      <c r="L102" s="18">
         <v>2</v>
       </c>
-      <c r="M102">
+      <c r="M102" s="18">
         <v>132828</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A103">
+      <c r="A103" s="18">
         <v>1981</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="18">
         <v>1827</v>
       </c>
-      <c r="C103" s="20" t="s">
+      <c r="C103" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="18">
         <v>128690</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="18">
         <v>8.7393199999999993</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="18">
         <v>49.337780000000002</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="18">
         <v>19</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I103" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J103">
+      <c r="J103" s="18">
         <v>60</v>
       </c>
-      <c r="K103">
+      <c r="K103" s="18">
         <v>15</v>
       </c>
-      <c r="L103">
-        <v>1</v>
-      </c>
-      <c r="M103">
+      <c r="L103" s="18">
+        <v>1</v>
+      </c>
+      <c r="M103" s="18">
         <v>128690</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A104">
+      <c r="A104" s="18">
         <v>1989</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="18">
         <v>1832</v>
       </c>
-      <c r="C104" s="20" t="s">
+      <c r="C104" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="18">
         <v>130625</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="18">
         <v>8.7501499999999997</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="18">
         <v>49.366059999999997</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="18">
         <v>19</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I104" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J104">
+      <c r="J104" s="18">
         <v>60</v>
       </c>
-      <c r="K104">
+      <c r="K104" s="18">
         <v>15</v>
       </c>
-      <c r="L104">
-        <v>1</v>
-      </c>
-      <c r="M104">
+      <c r="L104" s="18">
+        <v>1</v>
+      </c>
+      <c r="M104" s="18">
         <v>130625</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A105">
+      <c r="A105" s="18">
         <v>1996</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="18">
         <v>1828</v>
       </c>
-      <c r="C105" s="20" t="s">
+      <c r="C105" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="18">
         <v>132551</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="18">
         <v>8.7557899999999993</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="18">
         <v>49.340780000000002</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H105">
+      <c r="H105" s="18">
         <v>19</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I105" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J105">
+      <c r="J105" s="18">
         <v>60</v>
       </c>
-      <c r="K105">
+      <c r="K105" s="18">
         <v>15</v>
       </c>
-      <c r="L105">
-        <v>1</v>
-      </c>
-      <c r="M105">
+      <c r="L105" s="18">
+        <v>1</v>
+      </c>
+      <c r="M105" s="18">
         <v>132551</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A106">
+      <c r="A106" s="18">
         <v>2004</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="18">
         <v>1835</v>
       </c>
-      <c r="C106" s="20" t="s">
+      <c r="C106" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="18">
         <v>131545</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="18">
         <v>8.7606199999999994</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="18">
         <v>49.415010000000002</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H106">
+      <c r="H106" s="18">
         <v>19</v>
       </c>
-      <c r="I106" t="s">
+      <c r="I106" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J106">
+      <c r="J106" s="18">
         <v>60</v>
       </c>
-      <c r="K106">
+      <c r="K106" s="18">
         <v>15</v>
       </c>
-      <c r="L106">
-        <v>1</v>
-      </c>
-      <c r="M106">
+      <c r="L106" s="18">
+        <v>1</v>
+      </c>
+      <c r="M106" s="18">
         <v>131545</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A107">
+      <c r="A107" s="18">
         <v>2011</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="18">
         <v>1833</v>
       </c>
-      <c r="C107" s="20" t="s">
+      <c r="C107" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="18">
         <v>132952</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="18">
         <v>8.7717899999999993</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="18">
         <v>49.372100000000003</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H107">
+      <c r="H107" s="18">
         <v>19</v>
       </c>
-      <c r="I107" t="s">
+      <c r="I107" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J107">
+      <c r="J107" s="18">
         <v>60</v>
       </c>
-      <c r="K107">
+      <c r="K107" s="18">
         <v>15</v>
       </c>
-      <c r="L107">
-        <v>1</v>
-      </c>
-      <c r="M107">
+      <c r="L107" s="18">
+        <v>1</v>
+      </c>
+      <c r="M107" s="18">
         <v>132952</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A108">
+      <c r="A108" s="18">
         <v>2015</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="18">
         <v>1830</v>
       </c>
-      <c r="C108" s="20" t="s">
+      <c r="C108" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="18">
         <v>131379</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="18">
         <v>8.7760400000000001</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="18">
         <v>49.355110000000003</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H108">
+      <c r="H108" s="18">
         <v>19</v>
       </c>
-      <c r="I108" t="s">
+      <c r="I108" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J108">
+      <c r="J108" s="18">
         <v>60</v>
       </c>
-      <c r="K108">
+      <c r="K108" s="18">
         <v>15</v>
       </c>
-      <c r="L108">
-        <v>1</v>
-      </c>
-      <c r="M108">
+      <c r="L108" s="18">
+        <v>1</v>
+      </c>
+      <c r="M108" s="18">
         <v>131379</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A109">
+      <c r="A109" s="18">
         <v>2029</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="18">
         <v>1834</v>
       </c>
-      <c r="C109" s="20" t="s">
+      <c r="C109" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="18">
         <v>128152</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="18">
         <v>8.7975100000000008</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="18">
         <v>49.39508</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H109">
+      <c r="H109" s="18">
         <v>19</v>
       </c>
-      <c r="I109" t="s">
+      <c r="I109" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J109">
+      <c r="J109" s="18">
         <v>60</v>
       </c>
-      <c r="K109">
+      <c r="K109" s="18">
         <v>15</v>
       </c>
-      <c r="L109">
-        <v>1</v>
-      </c>
-      <c r="M109">
+      <c r="L109" s="18">
+        <v>1</v>
+      </c>
+      <c r="M109" s="18">
         <v>128152</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A110">
+      <c r="A110" s="18">
         <v>2030</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="18">
         <v>1829</v>
       </c>
-      <c r="C110" s="20" t="s">
+      <c r="C110" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="18">
         <v>127622</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="18">
         <v>8.7976700000000001</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="18">
         <v>49.341270000000002</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H110">
+      <c r="H110" s="18">
         <v>19</v>
       </c>
-      <c r="I110" t="s">
+      <c r="I110" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J110">
+      <c r="J110" s="18">
         <v>60</v>
       </c>
-      <c r="K110">
+      <c r="K110" s="18">
         <v>15</v>
       </c>
-      <c r="L110">
-        <v>1</v>
-      </c>
-      <c r="M110">
+      <c r="L110" s="18">
+        <v>1</v>
+      </c>
+      <c r="M110" s="18">
         <v>127622</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A111">
+      <c r="A111" s="18">
         <v>2033</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="18">
         <v>1831</v>
       </c>
-      <c r="C111" s="20" t="s">
+      <c r="C111" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="18">
         <v>130918</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="18">
         <v>8.8035399999999999</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="18">
         <v>49.36103</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H111">
+      <c r="H111" s="18">
         <v>19</v>
       </c>
-      <c r="I111" t="s">
+      <c r="I111" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J111">
+      <c r="J111" s="18">
         <v>60</v>
       </c>
-      <c r="K111">
+      <c r="K111" s="18">
         <v>15</v>
       </c>
-      <c r="L111">
-        <v>1</v>
-      </c>
-      <c r="M111">
+      <c r="L111" s="18">
+        <v>1</v>
+      </c>
+      <c r="M111" s="18">
         <v>130918</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A112">
+      <c r="A112" s="18">
         <v>2053</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="18">
         <v>1836</v>
       </c>
-      <c r="C112" s="20" t="s">
+      <c r="C112" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="18">
         <v>128743</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="18">
         <v>8.8361999999999998</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="18">
         <v>49.398319999999998</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="18">
         <v>19</v>
       </c>
-      <c r="I112" t="s">
+      <c r="I112" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J112">
+      <c r="J112" s="18">
         <v>60</v>
       </c>
-      <c r="K112">
+      <c r="K112" s="18">
         <v>15</v>
       </c>
-      <c r="L112">
-        <v>1</v>
-      </c>
-      <c r="M112">
+      <c r="L112" s="18">
+        <v>1</v>
+      </c>
+      <c r="M112" s="18">
         <v>128743</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A113">
+      <c r="A113" s="18">
         <v>2060</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="18">
         <v>1841</v>
       </c>
-      <c r="C113" s="20" t="s">
+      <c r="C113" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="18">
         <v>127914</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="18">
         <v>8.8532700000000002</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="18">
         <v>49.336120000000001</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H113">
+      <c r="H113" s="18">
         <v>20</v>
       </c>
-      <c r="I113" t="s">
+      <c r="I113" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J113">
+      <c r="J113" s="18">
         <v>60</v>
       </c>
-      <c r="K113">
+      <c r="K113" s="18">
         <v>17</v>
       </c>
-      <c r="L113">
-        <v>1</v>
-      </c>
-      <c r="M113">
+      <c r="L113" s="18">
+        <v>1</v>
+      </c>
+      <c r="M113" s="18">
         <v>127914</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A114">
+      <c r="A114" s="18">
         <v>2061</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="18">
         <v>1837</v>
       </c>
-      <c r="C114" s="20" t="s">
+      <c r="C114" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="18">
         <v>131977</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="18">
         <v>8.8553999999999995</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="18">
         <v>49.388599999999997</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H114">
+      <c r="H114" s="18">
         <v>20</v>
       </c>
-      <c r="I114" t="s">
+      <c r="I114" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J114">
+      <c r="J114" s="18">
         <v>60</v>
       </c>
-      <c r="K114">
+      <c r="K114" s="18">
         <v>17</v>
       </c>
-      <c r="L114">
-        <v>1</v>
-      </c>
-      <c r="M114">
+      <c r="L114" s="18">
+        <v>1</v>
+      </c>
+      <c r="M114" s="18">
         <v>131977</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A115">
+      <c r="A115" s="18">
         <v>2071</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="18">
         <v>1839</v>
       </c>
-      <c r="C115" s="20" t="s">
+      <c r="C115" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="18">
         <v>133556</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="18">
         <v>8.8718000000000004</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="18">
         <v>49.358840000000001</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H115">
+      <c r="H115" s="18">
         <v>20</v>
       </c>
-      <c r="I115" t="s">
+      <c r="I115" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J115">
+      <c r="J115" s="18">
         <v>60</v>
       </c>
-      <c r="K115">
+      <c r="K115" s="18">
         <v>17</v>
       </c>
-      <c r="L115">
-        <v>1</v>
-      </c>
-      <c r="M115">
+      <c r="L115" s="18">
+        <v>1</v>
+      </c>
+      <c r="M115" s="18">
         <v>133556</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A116">
+      <c r="A116" s="18">
         <v>2077</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="18">
         <v>1762</v>
       </c>
-      <c r="C116" s="20" t="s">
+      <c r="C116" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="18">
         <v>132058</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="18">
         <v>8.8819099999999995</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="18">
         <v>49.415129999999998</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H116">
+      <c r="H116" s="18">
         <v>20</v>
       </c>
-      <c r="I116" t="s">
+      <c r="I116" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J116">
+      <c r="J116" s="18">
         <v>60</v>
       </c>
-      <c r="K116">
+      <c r="K116" s="18">
         <v>17</v>
       </c>
-      <c r="L116">
-        <v>1</v>
-      </c>
-      <c r="M116">
+      <c r="L116" s="18">
+        <v>1</v>
+      </c>
+      <c r="M116" s="18">
         <v>132058</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A117">
+      <c r="A117" s="18">
         <v>2079</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="18">
         <v>1840</v>
       </c>
-      <c r="C117" s="20" t="s">
+      <c r="C117" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="18">
         <v>128372</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="18">
         <v>8.8839600000000001</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="18">
         <v>49.345880000000001</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H117">
+      <c r="H117" s="18">
         <v>20</v>
       </c>
-      <c r="I117" t="s">
+      <c r="I117" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J117">
+      <c r="J117" s="18">
         <v>60</v>
       </c>
-      <c r="K117">
+      <c r="K117" s="18">
         <v>17</v>
       </c>
-      <c r="L117">
-        <v>1</v>
-      </c>
-      <c r="M117">
+      <c r="L117" s="18">
+        <v>1</v>
+      </c>
+      <c r="M117" s="18">
         <v>128372</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A118">
+      <c r="A118" s="18">
         <v>2083</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="18">
         <v>1838</v>
       </c>
-      <c r="C118" s="20" t="s">
+      <c r="C118" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="18">
         <v>130862</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="18">
         <v>8.8921899999999994</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="18">
         <v>49.37538</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H118">
+      <c r="H118" s="18">
         <v>20</v>
       </c>
-      <c r="I118" t="s">
+      <c r="I118" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J118">
+      <c r="J118" s="18">
         <v>60</v>
       </c>
-      <c r="K118">
+      <c r="K118" s="18">
         <v>17</v>
       </c>
-      <c r="L118">
-        <v>1</v>
-      </c>
-      <c r="M118">
+      <c r="L118" s="18">
+        <v>1</v>
+      </c>
+      <c r="M118" s="18">
         <v>130862</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A119">
+      <c r="A119" s="18">
         <v>2095</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="18">
         <v>1849</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="18">
         <v>130520</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="18">
         <v>8.9108800000000006</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="18">
         <v>49.33719</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H119">
+      <c r="H119" s="18">
         <v>20</v>
       </c>
-      <c r="I119" t="s">
+      <c r="I119" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J119">
+      <c r="J119" s="18">
         <v>60</v>
       </c>
-      <c r="K119">
+      <c r="K119" s="18">
         <v>17</v>
       </c>
-      <c r="L119">
-        <v>1</v>
-      </c>
-      <c r="M119">
+      <c r="L119" s="18">
+        <v>1</v>
+      </c>
+      <c r="M119" s="18">
         <v>130520</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A120">
+      <c r="A120" s="18">
         <v>2101</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="18">
         <v>1848</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="18">
         <v>132548</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="18">
         <v>8.9285099999999993</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="18">
         <v>49.412280000000003</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H120">
+      <c r="H120" s="18">
         <v>20</v>
       </c>
-      <c r="I120" t="s">
+      <c r="I120" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J120">
+      <c r="J120" s="18">
         <v>60</v>
       </c>
-      <c r="K120">
+      <c r="K120" s="18">
         <v>17</v>
       </c>
-      <c r="L120">
-        <v>1</v>
-      </c>
-      <c r="M120">
+      <c r="L120" s="18">
+        <v>1</v>
+      </c>
+      <c r="M120" s="18">
         <v>132548</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A121">
+      <c r="A121" s="18">
         <v>2103</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="18">
         <v>1846</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="18">
         <v>129956</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="18">
         <v>8.9291199999999993</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="18">
         <v>49.394289999999998</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G121" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H121">
+      <c r="H121" s="18">
         <v>20</v>
       </c>
-      <c r="I121" t="s">
+      <c r="I121" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J121">
+      <c r="J121" s="18">
         <v>60</v>
       </c>
-      <c r="K121">
+      <c r="K121" s="18">
         <v>17</v>
       </c>
-      <c r="L121">
-        <v>1</v>
-      </c>
-      <c r="M121">
+      <c r="L121" s="18">
+        <v>1</v>
+      </c>
+      <c r="M121" s="18">
         <v>129956</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A122">
+      <c r="A122" s="18">
         <v>2113</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="18">
         <v>1842</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="18">
         <v>133394</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="18">
         <v>8.9450900000000004</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="18">
         <v>49.355469999999997</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H122">
+      <c r="H122" s="18">
         <v>20</v>
       </c>
-      <c r="I122" t="s">
+      <c r="I122" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J122">
+      <c r="J122" s="18">
         <v>60</v>
       </c>
-      <c r="K122">
+      <c r="K122" s="18">
         <v>17</v>
       </c>
-      <c r="L122">
-        <v>1</v>
-      </c>
-      <c r="M122">
+      <c r="L122" s="18">
+        <v>1</v>
+      </c>
+      <c r="M122" s="18">
         <v>133394</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A123">
+      <c r="A123" s="18">
         <v>2127</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="18">
         <v>1845</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="18">
         <v>133133</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="18">
         <v>8.9653200000000002</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="18">
         <v>49.372590000000002</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H123">
+      <c r="H123" s="18">
         <v>20</v>
       </c>
-      <c r="I123" t="s">
+      <c r="I123" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J123">
+      <c r="J123" s="18">
         <v>60</v>
       </c>
-      <c r="K123">
+      <c r="K123" s="18">
         <v>17</v>
       </c>
-      <c r="L123">
-        <v>1</v>
-      </c>
-      <c r="M123">
+      <c r="L123" s="18">
+        <v>1</v>
+      </c>
+      <c r="M123" s="18">
         <v>133133</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A124">
+      <c r="A124" s="18">
         <v>2135</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="18">
         <v>1847</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="18">
         <v>130105</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="18">
         <v>8.9759600000000006</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="18">
         <v>49.401940000000003</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H124">
+      <c r="H124" s="18">
         <v>20</v>
       </c>
-      <c r="I124" t="s">
+      <c r="I124" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J124">
+      <c r="J124" s="18">
         <v>60</v>
       </c>
-      <c r="K124">
+      <c r="K124" s="18">
         <v>17</v>
       </c>
-      <c r="L124">
-        <v>1</v>
-      </c>
-      <c r="M124">
+      <c r="L124" s="18">
+        <v>1</v>
+      </c>
+      <c r="M124" s="18">
         <v>130105</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A125">
+      <c r="A125" s="18">
         <v>2139</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="18">
         <v>1844</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="18">
         <v>131116</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="18">
         <v>8.9820200000000003</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="18">
         <v>49.368560000000002</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G125" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H125">
+      <c r="H125" s="18">
         <v>20</v>
       </c>
-      <c r="I125" t="s">
+      <c r="I125" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J125">
+      <c r="J125" s="18">
         <v>60</v>
       </c>
-      <c r="K125">
+      <c r="K125" s="18">
         <v>17</v>
       </c>
-      <c r="L125">
-        <v>1</v>
-      </c>
-      <c r="M125">
+      <c r="L125" s="18">
+        <v>1</v>
+      </c>
+      <c r="M125" s="18">
         <v>131116</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A126">
+      <c r="A126" s="18">
         <v>2147</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="18">
         <v>8.9898100000000003</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="18">
         <v>49.354709999999997</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G126" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H126">
+      <c r="H126" s="18">
         <v>20</v>
       </c>
-      <c r="I126" t="s">
+      <c r="I126" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J126">
+      <c r="J126" s="18">
         <v>60</v>
       </c>
-      <c r="K126">
+      <c r="K126" s="18">
         <v>17</v>
       </c>
-      <c r="L126">
+      <c r="L126" s="18">
         <v>2</v>
       </c>
-      <c r="M126">
+      <c r="M126" s="18">
         <v>134187</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A127">
+      <c r="A127" s="18">
         <v>2163</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="18">
         <v>1850</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="18">
         <v>132165</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="18">
         <v>9.0050799999999995</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="18">
         <v>49.416580000000003</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H127">
+      <c r="H127" s="18">
         <v>20</v>
       </c>
-      <c r="I127" t="s">
+      <c r="I127" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J127">
+      <c r="J127" s="18">
         <v>60</v>
       </c>
-      <c r="K127">
+      <c r="K127" s="18">
         <v>17</v>
       </c>
-      <c r="L127">
-        <v>1</v>
-      </c>
-      <c r="M127">
+      <c r="L127" s="18">
+        <v>1</v>
+      </c>
+      <c r="M127" s="18">
         <v>132165</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A128">
+      <c r="A128" s="18">
         <v>2165</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="18">
         <v>1851</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="18">
         <v>128712</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="18">
         <v>9.0088699999999999</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="18">
         <v>49.387889999999999</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H128">
+      <c r="H128" s="18">
         <v>20</v>
       </c>
-      <c r="I128" t="s">
+      <c r="I128" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J128">
+      <c r="J128" s="18">
         <v>60</v>
       </c>
-      <c r="K128">
+      <c r="K128" s="18">
         <v>17</v>
       </c>
-      <c r="L128">
-        <v>1</v>
-      </c>
-      <c r="M128">
+      <c r="L128" s="18">
+        <v>1</v>
+      </c>
+      <c r="M128" s="18">
         <v>128712</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A129">
+      <c r="A129" s="18">
         <v>2173</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="18">
         <v>1865</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="18">
         <v>132419</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="18">
         <v>9.0219699999999996</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="18">
         <v>49.364829999999998</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H129">
+      <c r="H129" s="18">
         <v>21</v>
       </c>
-      <c r="I129" t="s">
+      <c r="I129" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J129">
+      <c r="J129" s="18">
         <v>60</v>
       </c>
-      <c r="K129">
+      <c r="K129" s="18">
         <v>16</v>
       </c>
-      <c r="L129">
-        <v>1</v>
-      </c>
-      <c r="M129">
+      <c r="L129" s="18">
+        <v>1</v>
+      </c>
+      <c r="M129" s="18">
         <v>132419</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A130">
+      <c r="A130" s="18">
         <v>2175</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="18">
         <v>1858</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="18">
         <v>131330</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="18">
         <v>9.02562</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="18">
         <v>49.341329999999999</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H130">
+      <c r="H130" s="18">
         <v>21</v>
       </c>
-      <c r="I130" t="s">
+      <c r="I130" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J130">
+      <c r="J130" s="18">
         <v>60</v>
       </c>
-      <c r="K130">
+      <c r="K130" s="18">
         <v>16</v>
       </c>
-      <c r="L130">
-        <v>1</v>
-      </c>
-      <c r="M130">
+      <c r="L130" s="18">
+        <v>1</v>
+      </c>
+      <c r="M130" s="18">
         <v>131330</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A131">
+      <c r="A131" s="18">
         <v>2182</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="18">
         <v>1852</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="18">
         <v>129765</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="18">
         <v>9.0345700000000004</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="18">
         <v>49.384410000000003</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G131" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H131">
+      <c r="H131" s="18">
         <v>21</v>
       </c>
-      <c r="I131" t="s">
+      <c r="I131" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J131">
+      <c r="J131" s="18">
         <v>60</v>
       </c>
-      <c r="K131">
+      <c r="K131" s="18">
         <v>16</v>
       </c>
-      <c r="L131">
-        <v>1</v>
-      </c>
-      <c r="M131">
+      <c r="L131" s="18">
+        <v>1</v>
+      </c>
+      <c r="M131" s="18">
         <v>129765</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A132">
+      <c r="A132" s="18">
         <v>2187</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="18">
         <v>1856</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="18">
         <v>133965</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="18">
         <v>9.0424600000000002</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="18">
         <v>49.357080000000003</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H132">
+      <c r="H132" s="18">
         <v>21</v>
       </c>
-      <c r="I132" t="s">
+      <c r="I132" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J132">
+      <c r="J132" s="18">
         <v>60</v>
       </c>
-      <c r="K132">
+      <c r="K132" s="18">
         <v>16</v>
       </c>
-      <c r="L132">
-        <v>1</v>
-      </c>
-      <c r="M132">
+      <c r="L132" s="18">
+        <v>1</v>
+      </c>
+      <c r="M132" s="18">
         <v>133965</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A133">
+      <c r="A133" s="18">
         <v>2189</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="18">
         <v>1766</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="18">
         <v>129451</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="18">
         <v>9.0443899999999999</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="18">
         <v>49.412869999999998</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H133">
+      <c r="H133" s="18">
         <v>21</v>
       </c>
-      <c r="I133" t="s">
+      <c r="I133" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J133">
+      <c r="J133" s="18">
         <v>60</v>
       </c>
-      <c r="K133">
+      <c r="K133" s="18">
         <v>16</v>
       </c>
-      <c r="L133">
-        <v>1</v>
-      </c>
-      <c r="M133">
+      <c r="L133" s="18">
+        <v>1</v>
+      </c>
+      <c r="M133" s="18">
         <v>129451</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A134">
+      <c r="A134" s="18">
         <v>2196</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="18">
         <v>1855</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="18">
         <v>131916</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="18">
         <v>9.0577000000000005</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="18">
         <v>49.366579999999999</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G134" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H134">
+      <c r="H134" s="18">
         <v>21</v>
       </c>
-      <c r="I134" t="s">
+      <c r="I134" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J134">
+      <c r="J134" s="18">
         <v>60</v>
       </c>
-      <c r="K134">
+      <c r="K134" s="18">
         <v>16</v>
       </c>
-      <c r="L134">
-        <v>1</v>
-      </c>
-      <c r="M134">
+      <c r="L134" s="18">
+        <v>1</v>
+      </c>
+      <c r="M134" s="18">
         <v>131916</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A135">
+      <c r="A135" s="18">
         <v>2203</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="18">
         <v>1866</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="18">
         <v>129121</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="18">
         <v>9.0708000000000002</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="18">
         <v>49.401009999999999</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G135" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H135">
+      <c r="H135" s="18">
         <v>21</v>
       </c>
-      <c r="I135" t="s">
+      <c r="I135" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J135">
+      <c r="J135" s="18">
         <v>60</v>
       </c>
-      <c r="K135">
+      <c r="K135" s="18">
         <v>16</v>
       </c>
-      <c r="L135">
-        <v>1</v>
-      </c>
-      <c r="M135">
+      <c r="L135" s="18">
+        <v>1</v>
+      </c>
+      <c r="M135" s="18">
         <v>129121</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A136">
+      <c r="A136" s="18">
         <v>2205</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="18">
         <v>1853</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="18">
         <v>132238</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="18">
         <v>9.0714199999999998</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="18">
         <v>49.389830000000003</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G136" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H136">
+      <c r="H136" s="18">
         <v>21</v>
       </c>
-      <c r="I136" t="s">
+      <c r="I136" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J136">
+      <c r="J136" s="18">
         <v>60</v>
       </c>
-      <c r="K136">
+      <c r="K136" s="18">
         <v>16</v>
       </c>
-      <c r="L136">
-        <v>1</v>
-      </c>
-      <c r="M136">
+      <c r="L136" s="18">
+        <v>1</v>
+      </c>
+      <c r="M136" s="18">
         <v>132238</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A137">
+      <c r="A137" s="18">
         <v>2214</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="18">
         <v>1859</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="18">
         <v>130763</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="18">
         <v>9.0960800000000006</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="18">
         <v>49.351860000000002</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G137" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H137">
+      <c r="H137" s="18">
         <v>21</v>
       </c>
-      <c r="I137" t="s">
+      <c r="I137" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J137">
+      <c r="J137" s="18">
         <v>60</v>
       </c>
-      <c r="K137">
+      <c r="K137" s="18">
         <v>16</v>
       </c>
-      <c r="L137">
-        <v>1</v>
-      </c>
-      <c r="M137">
+      <c r="L137" s="18">
+        <v>1</v>
+      </c>
+      <c r="M137" s="18">
         <v>130763</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A138">
+      <c r="A138" s="18">
         <v>2216</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="18">
         <v>1854</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="18">
         <v>128020</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="18">
         <v>9.0970800000000001</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="18">
         <v>49.393709999999999</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G138" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H138">
+      <c r="H138" s="18">
         <v>21</v>
       </c>
-      <c r="I138" t="s">
+      <c r="I138" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J138">
+      <c r="J138" s="18">
         <v>60</v>
       </c>
-      <c r="K138">
+      <c r="K138" s="18">
         <v>16</v>
       </c>
-      <c r="L138">
-        <v>1</v>
-      </c>
-      <c r="M138">
+      <c r="L138" s="18">
+        <v>1</v>
+      </c>
+      <c r="M138" s="18">
         <v>128020</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A139">
+      <c r="A139" s="18">
         <v>2226</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="18">
         <v>1860</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="18">
         <v>133558</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="18">
         <v>9.1136700000000008</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="18">
         <v>49.349330000000002</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G139" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H139">
+      <c r="H139" s="18">
         <v>21</v>
       </c>
-      <c r="I139" t="s">
+      <c r="I139" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J139">
+      <c r="J139" s="18">
         <v>60</v>
       </c>
-      <c r="K139">
+      <c r="K139" s="18">
         <v>16</v>
       </c>
-      <c r="L139">
-        <v>1</v>
-      </c>
-      <c r="M139">
+      <c r="L139" s="18">
+        <v>1</v>
+      </c>
+      <c r="M139" s="18">
         <v>133558</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A140">
+      <c r="A140" s="18">
         <v>2233</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="18">
         <v>1863</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="18">
         <v>127410</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="18">
         <v>9.1254799999999996</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="18">
         <v>49.373289999999997</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G140" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H140">
+      <c r="H140" s="18">
         <v>21</v>
       </c>
-      <c r="I140" t="s">
+      <c r="I140" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J140">
+      <c r="J140" s="18">
         <v>60</v>
       </c>
-      <c r="K140">
+      <c r="K140" s="18">
         <v>16</v>
       </c>
-      <c r="L140">
-        <v>1</v>
-      </c>
-      <c r="M140">
+      <c r="L140" s="18">
+        <v>1</v>
+      </c>
+      <c r="M140" s="18">
         <v>127410</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A141">
+      <c r="A141" s="18">
         <v>2240</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="18">
         <v>1864</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="18">
         <v>132404</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="18">
         <v>9.1418300000000006</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="18">
         <v>49.4</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G141" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H141">
+      <c r="H141" s="18">
         <v>21</v>
       </c>
-      <c r="I141" t="s">
+      <c r="I141" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J141">
+      <c r="J141" s="18">
         <v>60</v>
       </c>
-      <c r="K141">
+      <c r="K141" s="18">
         <v>16</v>
       </c>
-      <c r="L141">
-        <v>1</v>
-      </c>
-      <c r="M141">
+      <c r="L141" s="18">
+        <v>1</v>
+      </c>
+      <c r="M141" s="18">
         <v>132404</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A142">
+      <c r="A142" s="18">
         <v>2242</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="18">
         <v>1862</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="18">
         <v>133718</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="18">
         <v>9.1461900000000007</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="18">
         <v>49.35501</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G142" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H142">
+      <c r="H142" s="18">
         <v>21</v>
       </c>
-      <c r="I142" t="s">
+      <c r="I142" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J142">
+      <c r="J142" s="18">
         <v>60</v>
       </c>
-      <c r="K142">
+      <c r="K142" s="18">
         <v>16</v>
       </c>
-      <c r="L142">
-        <v>1</v>
-      </c>
-      <c r="M142">
+      <c r="L142" s="18">
+        <v>1</v>
+      </c>
+      <c r="M142" s="18">
         <v>133718</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A143">
+      <c r="A143" s="18">
         <v>2253</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="18">
         <v>1867</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="18">
         <v>132436</v>
       </c>
-      <c r="E143">
+      <c r="E143" s="18">
         <v>9.1649999999999991</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="18">
         <v>49.376620000000003</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G143" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H143">
+      <c r="H143" s="18">
         <v>21</v>
       </c>
-      <c r="I143" t="s">
+      <c r="I143" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J143">
+      <c r="J143" s="18">
         <v>60</v>
       </c>
-      <c r="K143">
+      <c r="K143" s="18">
         <v>16</v>
       </c>
-      <c r="L143">
-        <v>1</v>
-      </c>
-      <c r="M143">
+      <c r="L143" s="18">
+        <v>1</v>
+      </c>
+      <c r="M143" s="18">
         <v>132436</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A144">
+      <c r="A144" s="18">
         <v>2254</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="18">
         <v>1876</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="18">
         <v>133598</v>
       </c>
-      <c r="E144">
+      <c r="E144" s="18">
         <v>9.1673200000000001</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="18">
         <v>49.40849</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G144" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H144">
+      <c r="H144" s="18">
         <v>21</v>
       </c>
-      <c r="I144" t="s">
+      <c r="I144" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J144">
+      <c r="J144" s="18">
         <v>60</v>
       </c>
-      <c r="K144">
+      <c r="K144" s="18">
         <v>16</v>
       </c>
-      <c r="L144">
-        <v>1</v>
-      </c>
-      <c r="M144">
+      <c r="L144" s="18">
+        <v>1</v>
+      </c>
+      <c r="M144" s="18">
         <v>133598</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A145">
+      <c r="A145" s="18">
         <v>2266</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="18">
         <v>1868</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="18">
         <v>129544</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="18">
         <v>9.1919199999999996</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="18">
         <v>49.38655</v>
       </c>
-      <c r="G145" t="s">
+      <c r="G145" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H145">
+      <c r="H145" s="18">
         <v>22</v>
       </c>
-      <c r="I145" t="s">
+      <c r="I145" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J145">
+      <c r="J145" s="18">
         <v>60</v>
       </c>
-      <c r="K145">
+      <c r="K145" s="18">
         <v>9</v>
       </c>
-      <c r="L145">
-        <v>1</v>
-      </c>
-      <c r="M145">
+      <c r="L145" s="18">
+        <v>1</v>
+      </c>
+      <c r="M145" s="18">
         <v>129544</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A146">
+      <c r="A146" s="18">
         <v>2279</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="18">
         <v>1877</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="18">
         <v>128241</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="18">
         <v>9.2212700000000005</v>
       </c>
-      <c r="F146">
+      <c r="F146" s="18">
         <v>49.351559999999999</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G146" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H146">
+      <c r="H146" s="18">
         <v>22</v>
       </c>
-      <c r="I146" t="s">
+      <c r="I146" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J146">
+      <c r="J146" s="18">
         <v>60</v>
       </c>
-      <c r="K146">
+      <c r="K146" s="18">
         <v>9</v>
       </c>
-      <c r="L146">
-        <v>1</v>
-      </c>
-      <c r="M146">
+      <c r="L146" s="18">
+        <v>1</v>
+      </c>
+      <c r="M146" s="18">
         <v>128241</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A147">
+      <c r="A147" s="18">
         <v>2280</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="18">
         <v>1875</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="18">
         <v>132629</v>
       </c>
-      <c r="E147">
+      <c r="E147" s="18">
         <v>9.2266600000000007</v>
       </c>
-      <c r="F147">
+      <c r="F147" s="18">
         <v>49.399270000000001</v>
       </c>
-      <c r="G147" t="s">
+      <c r="G147" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H147">
+      <c r="H147" s="18">
         <v>22</v>
       </c>
-      <c r="I147" t="s">
+      <c r="I147" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J147">
+      <c r="J147" s="18">
         <v>60</v>
       </c>
-      <c r="K147">
+      <c r="K147" s="18">
         <v>9</v>
       </c>
-      <c r="L147">
-        <v>1</v>
-      </c>
-      <c r="M147">
+      <c r="L147" s="18">
+        <v>1</v>
+      </c>
+      <c r="M147" s="18">
         <v>132629</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A148">
+      <c r="A148" s="18">
         <v>2292</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="18">
         <v>1874</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="18">
         <v>127680</v>
       </c>
-      <c r="E148">
+      <c r="E148" s="18">
         <v>9.2540600000000008</v>
       </c>
-      <c r="F148">
+      <c r="F148" s="18">
         <v>49.347479999999997</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G148" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H148">
+      <c r="H148" s="18">
         <v>22</v>
       </c>
-      <c r="I148" t="s">
+      <c r="I148" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J148">
+      <c r="J148" s="18">
         <v>60</v>
       </c>
-      <c r="K148">
+      <c r="K148" s="18">
         <v>9</v>
       </c>
-      <c r="L148">
-        <v>1</v>
-      </c>
-      <c r="M148">
+      <c r="L148" s="18">
+        <v>1</v>
+      </c>
+      <c r="M148" s="18">
         <v>127680</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A149">
+      <c r="A149" s="18">
         <v>2300</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="18">
         <v>1872</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="18">
         <v>132695</v>
       </c>
-      <c r="E149">
+      <c r="E149" s="18">
         <v>9.2661800000000003</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="18">
         <v>49.373379999999997</v>
       </c>
-      <c r="G149" t="s">
+      <c r="G149" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H149">
+      <c r="H149" s="18">
         <v>22</v>
       </c>
-      <c r="I149" t="s">
+      <c r="I149" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J149">
+      <c r="J149" s="18">
         <v>60</v>
       </c>
-      <c r="K149">
+      <c r="K149" s="18">
         <v>9</v>
       </c>
-      <c r="L149">
-        <v>1</v>
-      </c>
-      <c r="M149">
+      <c r="L149" s="18">
+        <v>1</v>
+      </c>
+      <c r="M149" s="18">
         <v>132695</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A150">
+      <c r="A150" s="18">
         <v>2304</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="18">
         <v>1871</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="18">
         <v>128059</v>
       </c>
-      <c r="E150">
+      <c r="E150" s="18">
         <v>9.2707599999999992</v>
       </c>
-      <c r="F150">
+      <c r="F150" s="18">
         <v>49.391539999999999</v>
       </c>
-      <c r="G150" t="s">
+      <c r="G150" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H150">
+      <c r="H150" s="18">
         <v>22</v>
       </c>
-      <c r="I150" t="s">
+      <c r="I150" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J150">
+      <c r="J150" s="18">
         <v>60</v>
       </c>
-      <c r="K150">
+      <c r="K150" s="18">
         <v>9</v>
       </c>
-      <c r="L150">
-        <v>1</v>
-      </c>
-      <c r="M150">
+      <c r="L150" s="18">
+        <v>1</v>
+      </c>
+      <c r="M150" s="18">
         <v>128059</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A151">
+      <c r="A151" s="18">
         <v>2308</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="18">
         <v>1870</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="18">
         <v>134129</v>
       </c>
-      <c r="E151">
+      <c r="E151" s="18">
         <v>9.2796699999999994</v>
       </c>
-      <c r="F151">
+      <c r="F151" s="18">
         <v>49.400419999999997</v>
       </c>
-      <c r="G151" t="s">
+      <c r="G151" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H151">
+      <c r="H151" s="18">
         <v>22</v>
       </c>
-      <c r="I151" t="s">
+      <c r="I151" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J151">
+      <c r="J151" s="18">
         <v>60</v>
       </c>
-      <c r="K151">
+      <c r="K151" s="18">
         <v>9</v>
       </c>
-      <c r="L151">
-        <v>1</v>
-      </c>
-      <c r="M151">
+      <c r="L151" s="18">
+        <v>1</v>
+      </c>
+      <c r="M151" s="18">
         <v>134129</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A152">
+      <c r="A152" s="18">
         <v>2309</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="18">
         <v>1869</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="18">
         <v>127520</v>
       </c>
-      <c r="E152">
+      <c r="E152" s="18">
         <v>9.2824899999999992</v>
       </c>
-      <c r="F152">
+      <c r="F152" s="18">
         <v>49.416260000000001</v>
       </c>
-      <c r="G152" t="s">
+      <c r="G152" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H152">
+      <c r="H152" s="18">
         <v>22</v>
       </c>
-      <c r="I152" t="s">
+      <c r="I152" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J152">
+      <c r="J152" s="18">
         <v>60</v>
       </c>
-      <c r="K152">
+      <c r="K152" s="18">
         <v>9</v>
       </c>
-      <c r="L152">
-        <v>1</v>
-      </c>
-      <c r="M152">
+      <c r="L152" s="18">
+        <v>1</v>
+      </c>
+      <c r="M152" s="18">
         <v>127520</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A153">
+      <c r="A153" s="18">
         <v>2310</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="18">
         <v>1873</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="18">
         <v>132052</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="18">
         <v>9.2826199999999996</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="18">
         <v>49.360779999999998</v>
       </c>
-      <c r="G153" t="s">
+      <c r="G153" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H153">
+      <c r="H153" s="18">
         <v>22</v>
       </c>
-      <c r="I153" t="s">
+      <c r="I153" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J153">
+      <c r="J153" s="18">
         <v>60</v>
       </c>
-      <c r="K153">
+      <c r="K153" s="18">
         <v>9</v>
       </c>
-      <c r="L153">
-        <v>1</v>
-      </c>
-      <c r="M153">
+      <c r="L153" s="18">
+        <v>1</v>
+      </c>
+      <c r="M153" s="18">
         <v>132052</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A154">
+      <c r="A154" s="18">
         <v>2372</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="18">
         <v>1601</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="18">
         <v>127562</v>
       </c>
-      <c r="E154">
+      <c r="E154" s="18">
         <v>9.4014600000000002</v>
       </c>
-      <c r="F154">
+      <c r="F154" s="18">
         <v>49.764159999999997</v>
       </c>
-      <c r="G154" t="s">
+      <c r="G154" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H154">
+      <c r="H154" s="18">
         <v>23</v>
       </c>
-      <c r="I154" t="s">
+      <c r="I154" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J154">
+      <c r="J154" s="18">
         <v>88</v>
       </c>
-      <c r="K154">
+      <c r="K154" s="18">
         <v>4</v>
       </c>
-      <c r="L154">
-        <v>1</v>
-      </c>
-      <c r="M154">
+      <c r="L154" s="18">
+        <v>1</v>
+      </c>
+      <c r="M154" s="18">
         <v>127562</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A155">
+      <c r="A155" s="18">
         <v>2377</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="18">
         <v>1600</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="18">
         <v>130076</v>
       </c>
-      <c r="E155">
+      <c r="E155" s="18">
         <v>9.4165600000000005</v>
       </c>
-      <c r="F155">
+      <c r="F155" s="18">
         <v>49.783700000000003</v>
       </c>
-      <c r="G155" t="s">
+      <c r="G155" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H155">
+      <c r="H155" s="18">
         <v>23</v>
       </c>
-      <c r="I155" t="s">
+      <c r="I155" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J155">
+      <c r="J155" s="18">
         <v>88</v>
       </c>
-      <c r="K155">
+      <c r="K155" s="18">
         <v>4</v>
       </c>
-      <c r="L155">
-        <v>1</v>
-      </c>
-      <c r="M155">
+      <c r="L155" s="18">
+        <v>1</v>
+      </c>
+      <c r="M155" s="18">
         <v>130076</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A156">
+      <c r="A156" s="18">
         <v>2392</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="18">
         <v>1602</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="18">
         <v>129224</v>
       </c>
-      <c r="E156">
+      <c r="E156" s="18">
         <v>9.4713499999999993</v>
       </c>
-      <c r="F156">
+      <c r="F156" s="18">
         <v>49.774380000000001</v>
       </c>
-      <c r="G156" t="s">
+      <c r="G156" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H156">
+      <c r="H156" s="18">
         <v>23</v>
       </c>
-      <c r="I156" t="s">
+      <c r="I156" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J156">
+      <c r="J156" s="18">
         <v>88</v>
       </c>
-      <c r="K156">
+      <c r="K156" s="18">
         <v>4</v>
       </c>
-      <c r="L156">
-        <v>1</v>
-      </c>
-      <c r="M156">
+      <c r="L156" s="18">
+        <v>1</v>
+      </c>
+      <c r="M156" s="18">
         <v>129224</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A157">
+      <c r="A157" s="18">
         <v>2404</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="18">
         <v>1605</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="18">
         <v>128872</v>
       </c>
-      <c r="E157">
+      <c r="E157" s="18">
         <v>9.5029000000000003</v>
       </c>
-      <c r="F157">
+      <c r="F157" s="18">
         <v>49.781730000000003</v>
       </c>
-      <c r="G157" t="s">
+      <c r="G157" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H157">
+      <c r="H157" s="18">
         <v>23</v>
       </c>
-      <c r="I157" t="s">
+      <c r="I157" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J157">
+      <c r="J157" s="18">
         <v>88</v>
       </c>
-      <c r="K157">
+      <c r="K157" s="18">
         <v>4</v>
       </c>
-      <c r="L157">
-        <v>1</v>
-      </c>
-      <c r="M157">
+      <c r="L157" s="18">
+        <v>1</v>
+      </c>
+      <c r="M157" s="18">
         <v>128872</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A158">
+      <c r="A158" s="18">
         <v>2416</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="18">
         <v>1607</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="18">
         <v>131219</v>
       </c>
-      <c r="E158">
+      <c r="E158" s="18">
         <v>9.5409299999999995</v>
       </c>
-      <c r="F158">
+      <c r="F158" s="18">
         <v>49.765459999999997</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G158" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H158">
+      <c r="H158" s="18">
         <v>24</v>
       </c>
-      <c r="I158" t="s">
+      <c r="I158" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J158">
+      <c r="J158" s="18">
         <v>88</v>
       </c>
-      <c r="K158">
+      <c r="K158" s="18">
         <v>4</v>
       </c>
-      <c r="L158">
-        <v>1</v>
-      </c>
-      <c r="M158">
+      <c r="L158" s="18">
+        <v>1</v>
+      </c>
+      <c r="M158" s="18">
         <v>131219</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A159">
+      <c r="A159" s="18">
         <v>2424</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="18">
         <v>1606</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="18">
         <v>132826</v>
       </c>
-      <c r="E159">
+      <c r="E159" s="18">
         <v>9.5641999999999996</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="18">
         <v>49.77261</v>
       </c>
-      <c r="G159" t="s">
+      <c r="G159" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H159">
+      <c r="H159" s="18">
         <v>24</v>
       </c>
-      <c r="I159" t="s">
+      <c r="I159" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J159">
+      <c r="J159" s="18">
         <v>88</v>
       </c>
-      <c r="K159">
+      <c r="K159" s="18">
         <v>4</v>
       </c>
-      <c r="L159">
-        <v>1</v>
-      </c>
-      <c r="M159">
+      <c r="L159" s="18">
+        <v>1</v>
+      </c>
+      <c r="M159" s="18">
         <v>132826</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A160">
+      <c r="A160" s="18">
         <v>2430</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="18">
         <v>1604</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="18">
         <v>130614</v>
       </c>
-      <c r="E160">
+      <c r="E160" s="18">
         <v>9.5834600000000005</v>
       </c>
-      <c r="F160">
+      <c r="F160" s="18">
         <v>49.75732</v>
       </c>
-      <c r="G160" t="s">
+      <c r="G160" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H160">
+      <c r="H160" s="18">
         <v>24</v>
       </c>
-      <c r="I160" t="s">
+      <c r="I160" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J160">
+      <c r="J160" s="18">
         <v>88</v>
       </c>
-      <c r="K160">
+      <c r="K160" s="18">
         <v>4</v>
       </c>
-      <c r="L160">
-        <v>1</v>
-      </c>
-      <c r="M160">
+      <c r="L160" s="18">
+        <v>1</v>
+      </c>
+      <c r="M160" s="18">
         <v>130614</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A161">
+      <c r="A161" s="18">
         <v>2445</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="18">
         <v>1603</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="18">
         <v>128062</v>
       </c>
-      <c r="E161">
+      <c r="E161" s="18">
         <v>9.6195699999999995</v>
       </c>
-      <c r="F161">
+      <c r="F161" s="18">
         <v>49.766500000000001</v>
       </c>
-      <c r="G161" t="s">
+      <c r="G161" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H161">
+      <c r="H161" s="18">
         <v>24</v>
       </c>
-      <c r="I161" t="s">
+      <c r="I161" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J161">
+      <c r="J161" s="18">
         <v>88</v>
       </c>
-      <c r="K161">
+      <c r="K161" s="18">
         <v>4</v>
       </c>
-      <c r="L161">
-        <v>1</v>
-      </c>
-      <c r="M161">
+      <c r="L161" s="18">
+        <v>1</v>
+      </c>
+      <c r="M161" s="18">
         <v>128062</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A162">
+      <c r="A162" s="18">
         <v>2346</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="E162">
+      <c r="E162" s="18">
         <v>9.3609500000000008</v>
       </c>
-      <c r="F162">
+      <c r="F162" s="18">
         <v>49.715800000000002</v>
       </c>
-      <c r="G162" t="s">
+      <c r="G162" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="H162">
+      <c r="H162" s="18">
         <v>23</v>
       </c>
-      <c r="I162" t="s">
+      <c r="I162" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J162">
+      <c r="J162" s="18">
         <v>89</v>
       </c>
-      <c r="K162">
+      <c r="K162" s="18">
         <v>10</v>
       </c>
-      <c r="L162">
+      <c r="L162" s="18">
         <v>2</v>
       </c>
-      <c r="M162">
+      <c r="M162" s="18">
         <v>128112</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A163">
+      <c r="A163" s="18">
         <v>2360</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="18">
         <v>1609</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="18">
         <v>132646</v>
       </c>
-      <c r="E163">
+      <c r="E163" s="18">
         <v>9.3840699999999995</v>
       </c>
-      <c r="F163">
+      <c r="F163" s="18">
         <v>49.741169999999997</v>
       </c>
-      <c r="G163" t="s">
+      <c r="G163" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="H163">
+      <c r="H163" s="18">
         <v>23</v>
       </c>
-      <c r="I163" t="s">
+      <c r="I163" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J163">
+      <c r="J163" s="18">
         <v>89</v>
       </c>
-      <c r="K163">
+      <c r="K163" s="18">
         <v>10</v>
       </c>
-      <c r="L163">
-        <v>1</v>
-      </c>
-      <c r="M163">
+      <c r="L163" s="18">
+        <v>1</v>
+      </c>
+      <c r="M163" s="18">
         <v>132646</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A164">
+      <c r="A164" s="18">
         <v>2375</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="18">
         <v>1610</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="D164">
+      <c r="D164" s="18">
         <v>128335</v>
       </c>
-      <c r="E164">
+      <c r="E164" s="18">
         <v>9.4121500000000005</v>
       </c>
-      <c r="F164">
+      <c r="F164" s="18">
         <v>49.730040000000002</v>
       </c>
-      <c r="G164" t="s">
+      <c r="G164" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="H164">
+      <c r="H164" s="18">
         <v>23</v>
       </c>
-      <c r="I164" t="s">
+      <c r="I164" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J164">
+      <c r="J164" s="18">
         <v>89</v>
       </c>
-      <c r="K164">
+      <c r="K164" s="18">
         <v>10</v>
       </c>
-      <c r="L164">
-        <v>1</v>
-      </c>
-      <c r="M164">
+      <c r="L164" s="18">
+        <v>1</v>
+      </c>
+      <c r="M164" s="18">
         <v>128335</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A165">
+      <c r="A165" s="18">
         <v>2386</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="18">
         <v>1611</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="18">
         <v>130634</v>
       </c>
-      <c r="E165">
+      <c r="E165" s="18">
         <v>9.4393799999999999</v>
       </c>
-      <c r="F165">
+      <c r="F165" s="18">
         <v>49.717529999999996</v>
       </c>
-      <c r="G165" t="s">
+      <c r="G165" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="H165">
+      <c r="H165" s="18">
         <v>23</v>
       </c>
-      <c r="I165" t="s">
+      <c r="I165" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J165">
+      <c r="J165" s="18">
         <v>89</v>
       </c>
-      <c r="K165">
+      <c r="K165" s="18">
         <v>10</v>
       </c>
-      <c r="L165">
-        <v>1</v>
-      </c>
-      <c r="M165">
+      <c r="L165" s="18">
+        <v>1</v>
+      </c>
+      <c r="M165" s="18">
         <v>130634</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A166">
+      <c r="A166" s="18">
         <v>2389</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="18">
         <v>1615</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="18">
         <v>132200</v>
       </c>
-      <c r="E166">
+      <c r="E166" s="18">
         <v>9.4514600000000009</v>
       </c>
-      <c r="F166">
+      <c r="F166" s="18">
         <v>49.735819999999997</v>
       </c>
-      <c r="G166" t="s">
+      <c r="G166" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="H166">
+      <c r="H166" s="18">
         <v>23</v>
       </c>
-      <c r="I166" t="s">
+      <c r="I166" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J166">
+      <c r="J166" s="18">
         <v>89</v>
       </c>
-      <c r="K166">
+      <c r="K166" s="18">
         <v>10</v>
       </c>
-      <c r="L166">
-        <v>1</v>
-      </c>
-      <c r="M166">
+      <c r="L166" s="18">
+        <v>1</v>
+      </c>
+      <c r="M166" s="18">
         <v>132200</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A167">
+      <c r="A167" s="18">
         <v>2391</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="18">
         <v>1612</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="D167">
+      <c r="D167" s="18">
         <v>133241</v>
       </c>
-      <c r="E167">
+      <c r="E167" s="18">
         <v>9.4669100000000004</v>
       </c>
-      <c r="F167">
+      <c r="F167" s="18">
         <v>49.691090000000003</v>
       </c>
-      <c r="G167" t="s">
+      <c r="G167" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="H167">
+      <c r="H167" s="18">
         <v>23</v>
       </c>
-      <c r="I167" t="s">
+      <c r="I167" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J167">
+      <c r="J167" s="18">
         <v>89</v>
       </c>
-      <c r="K167">
+      <c r="K167" s="18">
         <v>10</v>
       </c>
-      <c r="L167">
-        <v>1</v>
-      </c>
-      <c r="M167">
+      <c r="L167" s="18">
+        <v>1</v>
+      </c>
+      <c r="M167" s="18">
         <v>133241</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A168">
+      <c r="A168" s="18">
         <v>2397</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="18">
         <v>1614</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="D168">
+      <c r="D168" s="18">
         <v>131988</v>
       </c>
-      <c r="E168">
+      <c r="E168" s="18">
         <v>9.4852100000000004</v>
       </c>
-      <c r="F168">
+      <c r="F168" s="18">
         <v>49.748159999999999</v>
       </c>
-      <c r="G168" t="s">
+      <c r="G168" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="H168">
+      <c r="H168" s="18">
         <v>23</v>
       </c>
-      <c r="I168" t="s">
+      <c r="I168" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J168">
+      <c r="J168" s="18">
         <v>89</v>
       </c>
-      <c r="K168">
+      <c r="K168" s="18">
         <v>10</v>
       </c>
-      <c r="L168">
-        <v>1</v>
-      </c>
-      <c r="M168">
+      <c r="L168" s="18">
+        <v>1</v>
+      </c>
+      <c r="M168" s="18">
         <v>131988</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A169">
+      <c r="A169" s="18">
         <v>2400</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="18">
         <v>1613</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="18">
         <v>133833</v>
       </c>
-      <c r="E169">
+      <c r="E169" s="18">
         <v>9.4914699999999996</v>
       </c>
-      <c r="F169">
+      <c r="F169" s="18">
         <v>49.732230000000001</v>
       </c>
-      <c r="G169" t="s">
+      <c r="G169" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="H169">
+      <c r="H169" s="18">
         <v>23</v>
       </c>
-      <c r="I169" t="s">
+      <c r="I169" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J169">
+      <c r="J169" s="18">
         <v>89</v>
       </c>
-      <c r="K169">
+      <c r="K169" s="18">
         <v>10</v>
       </c>
-      <c r="L169">
-        <v>1</v>
-      </c>
-      <c r="M169">
+      <c r="L169" s="18">
+        <v>1</v>
+      </c>
+      <c r="M169" s="18">
         <v>133833</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A170">
+      <c r="A170" s="18">
         <v>2403</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="18">
         <v>1621</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="18">
         <v>130046</v>
       </c>
-      <c r="E170">
+      <c r="E170" s="18">
         <v>9.5009999999999994</v>
       </c>
-      <c r="F170">
+      <c r="F170" s="18">
         <v>49.712730000000001</v>
       </c>
-      <c r="G170" t="s">
+      <c r="G170" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="H170">
+      <c r="H170" s="18">
         <v>23</v>
       </c>
-      <c r="I170" t="s">
+      <c r="I170" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J170">
+      <c r="J170" s="18">
         <v>89</v>
       </c>
-      <c r="K170">
+      <c r="K170" s="18">
         <v>10</v>
       </c>
-      <c r="L170">
-        <v>1</v>
-      </c>
-      <c r="M170">
+      <c r="L170" s="18">
+        <v>1</v>
+      </c>
+      <c r="M170" s="18">
         <v>130046</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A171">
+      <c r="A171" s="18">
         <v>2409</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="18">
         <v>1618</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="D171">
+      <c r="D171" s="18">
         <v>130709</v>
       </c>
-      <c r="E171">
+      <c r="E171" s="18">
         <v>9.5229800000000004</v>
       </c>
-      <c r="F171">
+      <c r="F171" s="18">
         <v>49.743569999999998</v>
       </c>
-      <c r="G171" t="s">
+      <c r="G171" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="H171">
+      <c r="H171" s="18">
         <v>24</v>
       </c>
-      <c r="I171" t="s">
+      <c r="I171" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J171">
+      <c r="J171" s="18">
         <v>89</v>
       </c>
-      <c r="K171">
+      <c r="K171" s="18">
         <v>14</v>
       </c>
-      <c r="L171">
-        <v>1</v>
-      </c>
-      <c r="M171">
+      <c r="L171" s="18">
+        <v>1</v>
+      </c>
+      <c r="M171" s="18">
         <v>130709</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A172">
+      <c r="A172" s="18">
         <v>2410</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="18">
         <v>1622</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="18">
         <v>128944</v>
       </c>
-      <c r="E172">
+      <c r="E172" s="18">
         <v>9.5236000000000001</v>
       </c>
-      <c r="F172">
+      <c r="F172" s="18">
         <v>49.669469999999997</v>
       </c>
-      <c r="G172" t="s">
+      <c r="G172" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="H172">
+      <c r="H172" s="18">
         <v>24</v>
       </c>
-      <c r="I172" t="s">
+      <c r="I172" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J172">
+      <c r="J172" s="18">
         <v>89</v>
       </c>
-      <c r="K172">
+      <c r="K172" s="18">
         <v>14</v>
       </c>
-      <c r="L172">
-        <v>1</v>
-      </c>
-      <c r="M172">
+      <c r="L172" s="18">
+        <v>1</v>
+      </c>
+      <c r="M172" s="18">
         <v>128944</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A173">
+      <c r="A173" s="18">
         <v>2413</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="18">
         <v>1619</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="18">
         <v>128326</v>
       </c>
-      <c r="E173">
+      <c r="E173" s="18">
         <v>9.5339299999999998</v>
       </c>
-      <c r="F173">
+      <c r="F173" s="18">
         <v>49.72663</v>
       </c>
-      <c r="G173" t="s">
+      <c r="G173" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="H173">
+      <c r="H173" s="18">
         <v>24</v>
       </c>
-      <c r="I173" t="s">
+      <c r="I173" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J173">
+      <c r="J173" s="18">
         <v>89</v>
       </c>
-      <c r="K173">
+      <c r="K173" s="18">
         <v>14</v>
       </c>
-      <c r="L173">
-        <v>1</v>
-      </c>
-      <c r="M173">
+      <c r="L173" s="18">
+        <v>1</v>
+      </c>
+      <c r="M173" s="18">
         <v>128326</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A174">
+      <c r="A174" s="18">
         <v>2417</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="18">
         <v>1620</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="18">
         <v>133334</v>
       </c>
-      <c r="E174">
+      <c r="E174" s="18">
         <v>9.5465400000000002</v>
       </c>
-      <c r="F174">
+      <c r="F174" s="18">
         <v>49.713479999999997</v>
       </c>
-      <c r="G174" t="s">
+      <c r="G174" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="H174">
+      <c r="H174" s="18">
         <v>24</v>
       </c>
-      <c r="I174" t="s">
+      <c r="I174" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J174">
+      <c r="J174" s="18">
         <v>89</v>
       </c>
-      <c r="K174">
+      <c r="K174" s="18">
         <v>14</v>
       </c>
-      <c r="L174">
-        <v>1</v>
-      </c>
-      <c r="M174">
+      <c r="L174" s="18">
+        <v>1</v>
+      </c>
+      <c r="M174" s="18">
         <v>133334</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A175">
+      <c r="A175" s="18">
         <v>2425</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="18">
         <v>1632</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="D175">
+      <c r="D175" s="18">
         <v>132326</v>
       </c>
-      <c r="E175">
+      <c r="E175" s="18">
         <v>9.5706000000000007</v>
       </c>
-      <c r="F175">
+      <c r="F175" s="18">
         <v>49.747979999999998</v>
       </c>
-      <c r="G175" t="s">
+      <c r="G175" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="H175">
+      <c r="H175" s="18">
         <v>24</v>
       </c>
-      <c r="I175" t="s">
+      <c r="I175" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J175">
+      <c r="J175" s="18">
         <v>89</v>
       </c>
-      <c r="K175">
+      <c r="K175" s="18">
         <v>14</v>
       </c>
-      <c r="L175">
-        <v>1</v>
-      </c>
-      <c r="M175">
+      <c r="L175" s="18">
+        <v>1</v>
+      </c>
+      <c r="M175" s="18">
         <v>132326</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A176">
+      <c r="A176" s="18">
         <v>2426</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="E176">
+      <c r="E176" s="18">
         <v>9.5719399999999997</v>
       </c>
-      <c r="F176">
+      <c r="F176" s="18">
         <v>49.679569999999998</v>
       </c>
-      <c r="G176" t="s">
+      <c r="G176" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="H176">
+      <c r="H176" s="18">
         <v>24</v>
       </c>
-      <c r="I176" t="s">
+      <c r="I176" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J176">
+      <c r="J176" s="18">
         <v>89</v>
       </c>
-      <c r="K176">
+      <c r="K176" s="18">
         <v>14</v>
       </c>
-      <c r="L176">
+      <c r="L176" s="18">
         <v>2</v>
       </c>
-      <c r="M176">
+      <c r="M176" s="18">
         <v>133690</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A177">
+      <c r="A177" s="18">
         <v>2437</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="18">
         <v>1626</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="18">
         <v>129161</v>
       </c>
-      <c r="E177">
+      <c r="E177" s="18">
         <v>9.5998599999999996</v>
       </c>
-      <c r="F177">
+      <c r="F177" s="18">
         <v>49.693820000000002</v>
       </c>
-      <c r="G177" t="s">
+      <c r="G177" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="H177">
+      <c r="H177" s="18">
         <v>24</v>
       </c>
-      <c r="I177" t="s">
+      <c r="I177" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J177">
+      <c r="J177" s="18">
         <v>89</v>
       </c>
-      <c r="K177">
+      <c r="K177" s="18">
         <v>14</v>
       </c>
-      <c r="L177">
-        <v>1</v>
-      </c>
-      <c r="M177">
+      <c r="L177" s="18">
+        <v>1</v>
+      </c>
+      <c r="M177" s="18">
         <v>129161</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A178">
+      <c r="A178" s="18">
         <v>2439</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="18">
         <v>1631</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="D178">
+      <c r="D178" s="18">
         <v>132611</v>
       </c>
-      <c r="E178">
+      <c r="E178" s="18">
         <v>9.6066000000000003</v>
       </c>
-      <c r="F178">
+      <c r="F178" s="18">
         <v>49.74297</v>
       </c>
-      <c r="G178" t="s">
+      <c r="G178" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="H178">
+      <c r="H178" s="18">
         <v>24</v>
       </c>
-      <c r="I178" t="s">
+      <c r="I178" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J178">
+      <c r="J178" s="18">
         <v>89</v>
       </c>
-      <c r="K178">
+      <c r="K178" s="18">
         <v>14</v>
       </c>
-      <c r="L178">
-        <v>1</v>
-      </c>
-      <c r="M178">
+      <c r="L178" s="18">
+        <v>1</v>
+      </c>
+      <c r="M178" s="18">
         <v>132611</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A179">
+      <c r="A179" s="18">
         <v>2440</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="18">
         <v>1628</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="18">
         <v>133307</v>
       </c>
-      <c r="E179">
+      <c r="E179" s="18">
         <v>9.6090499999999999</v>
       </c>
-      <c r="F179">
+      <c r="F179" s="18">
         <v>49.712710000000001</v>
       </c>
-      <c r="G179" t="s">
+      <c r="G179" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="H179">
+      <c r="H179" s="18">
         <v>24</v>
       </c>
-      <c r="I179" t="s">
+      <c r="I179" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J179">
+      <c r="J179" s="18">
         <v>89</v>
       </c>
-      <c r="K179">
+      <c r="K179" s="18">
         <v>14</v>
       </c>
-      <c r="L179">
-        <v>1</v>
-      </c>
-      <c r="M179">
+      <c r="L179" s="18">
+        <v>1</v>
+      </c>
+      <c r="M179" s="18">
         <v>133307</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A180">
+      <c r="A180" s="18">
         <v>2444</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="18">
         <v>1627</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="18">
         <v>131806</v>
       </c>
-      <c r="E180">
+      <c r="E180" s="18">
         <v>9.6174999999999997</v>
       </c>
-      <c r="F180">
+      <c r="F180" s="18">
         <v>49.704529999999998</v>
       </c>
-      <c r="G180" t="s">
+      <c r="G180" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="H180">
+      <c r="H180" s="18">
         <v>24</v>
       </c>
-      <c r="I180" t="s">
+      <c r="I180" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J180">
+      <c r="J180" s="18">
         <v>89</v>
       </c>
-      <c r="K180">
+      <c r="K180" s="18">
         <v>14</v>
       </c>
-      <c r="L180">
-        <v>1</v>
-      </c>
-      <c r="M180">
+      <c r="L180" s="18">
+        <v>1</v>
+      </c>
+      <c r="M180" s="18">
         <v>131806</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A181">
+      <c r="A181" s="18">
         <v>2448</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="E181">
+      <c r="E181" s="18">
         <v>9.6246100000000006</v>
       </c>
-      <c r="F181">
+      <c r="F181" s="18">
         <v>49.742170000000002</v>
       </c>
-      <c r="G181" t="s">
+      <c r="G181" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="H181">
+      <c r="H181" s="18">
         <v>24</v>
       </c>
-      <c r="I181" t="s">
+      <c r="I181" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J181">
+      <c r="J181" s="18">
         <v>89</v>
       </c>
-      <c r="K181">
+      <c r="K181" s="18">
         <v>14</v>
       </c>
-      <c r="L181">
+      <c r="L181" s="18">
         <v>2</v>
       </c>
-      <c r="M181">
+      <c r="M181" s="18">
         <v>130626</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A182">
+      <c r="A182" s="18">
         <v>2457</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="18">
         <v>1625</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="D182">
+      <c r="D182" s="18">
         <v>128766</v>
       </c>
-      <c r="E182">
+      <c r="E182" s="18">
         <v>9.6387099999999997</v>
       </c>
-      <c r="F182">
+      <c r="F182" s="18">
         <v>49.670290000000001</v>
       </c>
-      <c r="G182" t="s">
+      <c r="G182" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="H182">
+      <c r="H182" s="18">
         <v>24</v>
       </c>
-      <c r="I182" t="s">
+      <c r="I182" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J182">
+      <c r="J182" s="18">
         <v>89</v>
       </c>
-      <c r="K182">
+      <c r="K182" s="18">
         <v>14</v>
       </c>
-      <c r="L182">
-        <v>1</v>
-      </c>
-      <c r="M182">
+      <c r="L182" s="18">
+        <v>1</v>
+      </c>
+      <c r="M182" s="18">
         <v>128766</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A183">
+      <c r="A183" s="18">
         <v>2469</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="18">
         <v>1635</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="D183">
+      <c r="D183" s="18">
         <v>128138</v>
       </c>
-      <c r="E183">
+      <c r="E183" s="18">
         <v>9.6795399999999994</v>
       </c>
-      <c r="F183">
+      <c r="F183" s="18">
         <v>49.679459999999999</v>
       </c>
-      <c r="G183" t="s">
+      <c r="G183" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="H183">
+      <c r="H183" s="18">
         <v>25</v>
       </c>
-      <c r="I183" t="s">
+      <c r="I183" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J183">
+      <c r="J183" s="18">
         <v>89</v>
       </c>
-      <c r="K183">
+      <c r="K183" s="18">
         <v>5</v>
       </c>
-      <c r="L183">
-        <v>1</v>
-      </c>
-      <c r="M183">
+      <c r="L183" s="18">
+        <v>1</v>
+      </c>
+      <c r="M183" s="18">
         <v>128138</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A184">
+      <c r="A184" s="18">
         <v>2474</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="18">
         <v>1634</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="D184">
+      <c r="D184" s="18">
         <v>132716</v>
       </c>
-      <c r="E184">
+      <c r="E184" s="18">
         <v>9.7014899999999997</v>
       </c>
-      <c r="F184">
+      <c r="F184" s="18">
         <v>49.700220000000002</v>
       </c>
-      <c r="G184" t="s">
+      <c r="G184" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="H184">
+      <c r="H184" s="18">
         <v>25</v>
       </c>
-      <c r="I184" t="s">
+      <c r="I184" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J184">
+      <c r="J184" s="18">
         <v>89</v>
       </c>
-      <c r="K184">
+      <c r="K184" s="18">
         <v>5</v>
       </c>
-      <c r="L184">
-        <v>1</v>
-      </c>
-      <c r="M184">
+      <c r="L184" s="18">
+        <v>1</v>
+      </c>
+      <c r="M184" s="18">
         <v>132716</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A185">
+      <c r="A185" s="18">
         <v>2480</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="18">
         <v>1633</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D185">
+      <c r="D185" s="18">
         <v>84346</v>
       </c>
-      <c r="E185">
+      <c r="E185" s="18">
         <v>9.7221200000000003</v>
       </c>
-      <c r="F185">
+      <c r="F185" s="18">
         <v>49.710749999999997</v>
       </c>
-      <c r="G185" t="s">
+      <c r="G185" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="H185">
+      <c r="H185" s="18">
         <v>25</v>
       </c>
-      <c r="I185" t="s">
+      <c r="I185" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J185">
+      <c r="J185" s="18">
         <v>89</v>
       </c>
-      <c r="K185">
+      <c r="K185" s="18">
         <v>5</v>
       </c>
-      <c r="L185">
-        <v>1</v>
-      </c>
-      <c r="M185">
+      <c r="L185" s="18">
+        <v>1</v>
+      </c>
+      <c r="M185" s="18">
         <v>84346</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A186">
+      <c r="A186" s="18">
         <v>2490</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="18">
         <v>1636</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C186" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="D186">
+      <c r="D186" s="18">
         <v>129238</v>
       </c>
-      <c r="E186">
+      <c r="E186" s="18">
         <v>9.7830100000000009</v>
       </c>
-      <c r="F186">
+      <c r="F186" s="18">
         <v>49.706809999999997</v>
       </c>
-      <c r="G186" t="s">
+      <c r="G186" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="H186">
+      <c r="H186" s="18">
         <v>25</v>
       </c>
-      <c r="I186" t="s">
+      <c r="I186" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J186">
+      <c r="J186" s="18">
         <v>89</v>
       </c>
-      <c r="K186">
+      <c r="K186" s="18">
         <v>5</v>
       </c>
-      <c r="L186">
-        <v>1</v>
-      </c>
-      <c r="M186">
+      <c r="L186" s="18">
+        <v>1</v>
+      </c>
+      <c r="M186" s="18">
         <v>129238</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A187">
+      <c r="A187" s="18">
         <v>2495</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="18">
         <v>1637</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="D187">
+      <c r="D187" s="18">
         <v>129131</v>
       </c>
-      <c r="E187">
+      <c r="E187" s="18">
         <v>9.8006899999999995</v>
       </c>
-      <c r="F187">
+      <c r="F187" s="18">
         <v>49.677019999999999</v>
       </c>
-      <c r="G187" t="s">
+      <c r="G187" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="H187">
+      <c r="H187" s="18">
         <v>25</v>
       </c>
-      <c r="I187" t="s">
+      <c r="I187" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J187">
+      <c r="J187" s="18">
         <v>89</v>
       </c>
-      <c r="K187">
+      <c r="K187" s="18">
         <v>5</v>
       </c>
-      <c r="L187">
-        <v>1</v>
-      </c>
-      <c r="M187">
+      <c r="L187" s="18">
+        <v>1</v>
+      </c>
+      <c r="M187" s="18">
         <v>129131</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A188">
+      <c r="A188" s="18">
         <v>2342</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="18">
         <v>1643</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="D188">
+      <c r="D188" s="18">
         <v>128978</v>
       </c>
-      <c r="E188">
+      <c r="E188" s="18">
         <v>9.3450799999999994</v>
       </c>
-      <c r="F188">
+      <c r="F188" s="18">
         <v>49.640030000000003</v>
       </c>
-      <c r="G188" t="s">
+      <c r="G188" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H188">
+      <c r="H188" s="18">
         <v>23</v>
       </c>
-      <c r="I188" t="s">
+      <c r="I188" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J188">
+      <c r="J188" s="18">
         <v>90</v>
       </c>
-      <c r="K188">
+      <c r="K188" s="18">
         <v>7</v>
       </c>
-      <c r="L188">
-        <v>1</v>
-      </c>
-      <c r="M188">
+      <c r="L188" s="18">
+        <v>1</v>
+      </c>
+      <c r="M188" s="18">
         <v>128978</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A189">
+      <c r="A189" s="18">
         <v>2350</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="18">
         <v>1648</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="D189">
+      <c r="D189" s="18">
         <v>133941</v>
       </c>
-      <c r="E189">
+      <c r="E189" s="18">
         <v>9.3664799999999993</v>
       </c>
-      <c r="F189">
+      <c r="F189" s="18">
         <v>49.623820000000002</v>
       </c>
-      <c r="G189" t="s">
+      <c r="G189" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H189">
+      <c r="H189" s="18">
         <v>23</v>
       </c>
-      <c r="I189" t="s">
+      <c r="I189" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J189">
+      <c r="J189" s="18">
         <v>90</v>
       </c>
-      <c r="K189">
+      <c r="K189" s="18">
         <v>7</v>
       </c>
-      <c r="L189">
-        <v>1</v>
-      </c>
-      <c r="M189">
+      <c r="L189" s="18">
+        <v>1</v>
+      </c>
+      <c r="M189" s="18">
         <v>133941</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A190">
+      <c r="A190" s="18">
         <v>2363</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="18">
         <v>1649</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="D190">
+      <c r="D190" s="18">
         <v>129542</v>
       </c>
-      <c r="E190">
+      <c r="E190" s="18">
         <v>9.3874300000000002</v>
       </c>
-      <c r="F190">
+      <c r="F190" s="18">
         <v>49.630749999999999</v>
       </c>
-      <c r="G190" t="s">
+      <c r="G190" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H190">
+      <c r="H190" s="18">
         <v>23</v>
       </c>
-      <c r="I190" t="s">
+      <c r="I190" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J190">
+      <c r="J190" s="18">
         <v>90</v>
       </c>
-      <c r="K190">
+      <c r="K190" s="18">
         <v>7</v>
       </c>
-      <c r="L190">
-        <v>1</v>
-      </c>
-      <c r="M190">
+      <c r="L190" s="18">
+        <v>1</v>
+      </c>
+      <c r="M190" s="18">
         <v>129542</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A191">
+      <c r="A191" s="18">
         <v>2379</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="18">
         <v>1646</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="D191">
+      <c r="D191" s="18">
         <v>130243</v>
       </c>
-      <c r="E191">
+      <c r="E191" s="18">
         <v>9.4275300000000009</v>
       </c>
-      <c r="F191">
+      <c r="F191" s="18">
         <v>49.601849999999999</v>
       </c>
-      <c r="G191" t="s">
+      <c r="G191" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H191">
+      <c r="H191" s="18">
         <v>23</v>
       </c>
-      <c r="I191" t="s">
+      <c r="I191" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J191">
+      <c r="J191" s="18">
         <v>90</v>
       </c>
-      <c r="K191">
+      <c r="K191" s="18">
         <v>7</v>
       </c>
-      <c r="L191">
-        <v>1</v>
-      </c>
-      <c r="M191">
+      <c r="L191" s="18">
+        <v>1</v>
+      </c>
+      <c r="M191" s="18">
         <v>130243</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A192">
+      <c r="A192" s="18">
         <v>2381</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="18">
         <v>1644</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="D192">
+      <c r="D192" s="18">
         <v>133085</v>
       </c>
-      <c r="E192">
+      <c r="E192" s="18">
         <v>9.4284300000000005</v>
       </c>
-      <c r="F192">
+      <c r="F192" s="18">
         <v>49.625419999999998</v>
       </c>
-      <c r="G192" t="s">
+      <c r="G192" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H192">
+      <c r="H192" s="18">
         <v>23</v>
       </c>
-      <c r="I192" t="s">
+      <c r="I192" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J192">
+      <c r="J192" s="18">
         <v>90</v>
       </c>
-      <c r="K192">
+      <c r="K192" s="18">
         <v>7</v>
       </c>
-      <c r="L192">
-        <v>1</v>
-      </c>
-      <c r="M192">
+      <c r="L192" s="18">
+        <v>1</v>
+      </c>
+      <c r="M192" s="18">
         <v>133085</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A193">
+      <c r="A193" s="18">
         <v>2393</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="18">
         <v>1645</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="D193">
+      <c r="D193" s="18">
         <v>131797</v>
       </c>
-      <c r="E193">
+      <c r="E193" s="18">
         <v>9.4745699999999999</v>
       </c>
-      <c r="F193">
+      <c r="F193" s="18">
         <v>49.608040000000003</v>
       </c>
-      <c r="G193" t="s">
+      <c r="G193" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H193">
+      <c r="H193" s="18">
         <v>23</v>
       </c>
-      <c r="I193" t="s">
+      <c r="I193" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J193">
+      <c r="J193" s="18">
         <v>90</v>
       </c>
-      <c r="K193">
+      <c r="K193" s="18">
         <v>7</v>
       </c>
-      <c r="L193">
-        <v>1</v>
-      </c>
-      <c r="M193">
+      <c r="L193" s="18">
+        <v>1</v>
+      </c>
+      <c r="M193" s="18">
         <v>131797</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A194">
+      <c r="A194" s="18">
         <v>2396</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="18">
         <v>1647</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="D194">
+      <c r="D194" s="18">
         <v>132006</v>
       </c>
-      <c r="E194">
+      <c r="E194" s="18">
         <v>9.4842499999999994</v>
       </c>
-      <c r="F194">
+      <c r="F194" s="18">
         <v>49.64828</v>
       </c>
-      <c r="G194" t="s">
+      <c r="G194" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H194">
+      <c r="H194" s="18">
         <v>23</v>
       </c>
-      <c r="I194" t="s">
+      <c r="I194" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J194">
+      <c r="J194" s="18">
         <v>90</v>
       </c>
-      <c r="K194">
+      <c r="K194" s="18">
         <v>7</v>
       </c>
-      <c r="L194">
-        <v>1</v>
-      </c>
-      <c r="M194">
+      <c r="L194" s="18">
+        <v>1</v>
+      </c>
+      <c r="M194" s="18">
         <v>132006</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A195">
+      <c r="A195" s="18">
         <v>2411</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="18">
         <v>1656</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="D195">
+      <c r="D195" s="18">
         <v>130297</v>
       </c>
-      <c r="E195">
+      <c r="E195" s="18">
         <v>9.5245899999999999</v>
       </c>
-      <c r="F195">
+      <c r="F195" s="18">
         <v>49.618639999999999</v>
       </c>
-      <c r="G195" t="s">
+      <c r="G195" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H195">
+      <c r="H195" s="18">
         <v>24</v>
       </c>
-      <c r="I195" t="s">
+      <c r="I195" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J195">
+      <c r="J195" s="18">
         <v>90</v>
       </c>
-      <c r="K195">
+      <c r="K195" s="18">
         <v>10</v>
       </c>
-      <c r="L195">
-        <v>1</v>
-      </c>
-      <c r="M195">
+      <c r="L195" s="18">
+        <v>1</v>
+      </c>
+      <c r="M195" s="18">
         <v>130297</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A196">
+      <c r="A196" s="18">
         <v>2431</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="18">
         <v>1654</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="D196">
+      <c r="D196" s="18">
         <v>132878</v>
       </c>
-      <c r="E196">
+      <c r="E196" s="18">
         <v>9.5872600000000006</v>
       </c>
-      <c r="F196">
+      <c r="F196" s="18">
         <v>49.59451</v>
       </c>
-      <c r="G196" t="s">
+      <c r="G196" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H196">
+      <c r="H196" s="18">
         <v>24</v>
       </c>
-      <c r="I196" t="s">
+      <c r="I196" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J196">
+      <c r="J196" s="18">
         <v>90</v>
       </c>
-      <c r="K196">
+      <c r="K196" s="18">
         <v>10</v>
       </c>
-      <c r="L196">
-        <v>1</v>
-      </c>
-      <c r="M196">
+      <c r="L196" s="18">
+        <v>1</v>
+      </c>
+      <c r="M196" s="18">
         <v>132878</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A197">
+      <c r="A197" s="18">
         <v>2432</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="18">
         <v>1650</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C197" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="D197">
+      <c r="D197" s="18">
         <v>128684</v>
       </c>
-      <c r="E197">
+      <c r="E197" s="18">
         <v>9.5878700000000006</v>
       </c>
-      <c r="F197">
+      <c r="F197" s="18">
         <v>49.659529999999997</v>
       </c>
-      <c r="G197" t="s">
+      <c r="G197" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H197">
+      <c r="H197" s="18">
         <v>24</v>
       </c>
-      <c r="I197" t="s">
+      <c r="I197" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J197">
+      <c r="J197" s="18">
         <v>90</v>
       </c>
-      <c r="K197">
+      <c r="K197" s="18">
         <v>10</v>
       </c>
-      <c r="L197">
-        <v>1</v>
-      </c>
-      <c r="M197">
+      <c r="L197" s="18">
+        <v>1</v>
+      </c>
+      <c r="M197" s="18">
         <v>128684</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A198">
+      <c r="A198" s="18">
         <v>2435</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="18">
         <v>1655</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C198" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="D198">
+      <c r="D198" s="18">
         <v>133251</v>
       </c>
-      <c r="E198">
+      <c r="E198" s="18">
         <v>9.5941899999999993</v>
       </c>
-      <c r="F198">
+      <c r="F198" s="18">
         <v>49.618020000000001</v>
       </c>
-      <c r="G198" t="s">
+      <c r="G198" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H198">
+      <c r="H198" s="18">
         <v>24</v>
       </c>
-      <c r="I198" t="s">
+      <c r="I198" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J198">
+      <c r="J198" s="18">
         <v>90</v>
       </c>
-      <c r="K198">
+      <c r="K198" s="18">
         <v>10</v>
       </c>
-      <c r="L198">
-        <v>1</v>
-      </c>
-      <c r="M198">
+      <c r="L198" s="18">
+        <v>1</v>
+      </c>
+      <c r="M198" s="18">
         <v>133251</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A199">
+      <c r="A199" s="18">
         <v>2441</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="18">
         <v>1658</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C199" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="D199">
+      <c r="D199" s="18">
         <v>130580</v>
       </c>
-      <c r="E199">
+      <c r="E199" s="18">
         <v>9.6123200000000004</v>
       </c>
-      <c r="F199">
+      <c r="F199" s="18">
         <v>49.63373</v>
       </c>
-      <c r="G199" t="s">
+      <c r="G199" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H199">
+      <c r="H199" s="18">
         <v>24</v>
       </c>
-      <c r="I199" t="s">
+      <c r="I199" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J199">
+      <c r="J199" s="18">
         <v>90</v>
       </c>
-      <c r="K199">
+      <c r="K199" s="18">
         <v>10</v>
       </c>
-      <c r="L199">
-        <v>1</v>
-      </c>
-      <c r="M199">
+      <c r="L199" s="18">
+        <v>1</v>
+      </c>
+      <c r="M199" s="18">
         <v>130580</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A200">
+      <c r="A200" s="18">
         <v>2453</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C200" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D200" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="E200">
+      <c r="E200" s="18">
         <v>9.6352600000000006</v>
       </c>
-      <c r="F200">
+      <c r="F200" s="18">
         <v>49.662100000000002</v>
       </c>
-      <c r="G200" t="s">
+      <c r="G200" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H200">
+      <c r="H200" s="18">
         <v>24</v>
       </c>
-      <c r="I200" t="s">
+      <c r="I200" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J200">
+      <c r="J200" s="18">
         <v>90</v>
       </c>
-      <c r="K200">
+      <c r="K200" s="18">
         <v>10</v>
       </c>
-      <c r="L200">
+      <c r="L200" s="18">
         <v>2</v>
       </c>
-      <c r="M200" t="s">
+      <c r="M200" s="18" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A201">
+      <c r="A201" s="18">
         <v>2455</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="18">
         <v>1653</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C201" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="D201">
+      <c r="D201" s="18">
         <v>130184</v>
       </c>
-      <c r="E201">
+      <c r="E201" s="18">
         <v>9.6359300000000001</v>
       </c>
-      <c r="F201">
+      <c r="F201" s="18">
         <v>49.589739999999999</v>
       </c>
-      <c r="G201" t="s">
+      <c r="G201" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H201">
+      <c r="H201" s="18">
         <v>24</v>
       </c>
-      <c r="I201" t="s">
+      <c r="I201" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J201">
+      <c r="J201" s="18">
         <v>90</v>
       </c>
-      <c r="K201">
+      <c r="K201" s="18">
         <v>10</v>
       </c>
-      <c r="L201">
-        <v>1</v>
-      </c>
-      <c r="M201">
+      <c r="L201" s="18">
+        <v>1</v>
+      </c>
+      <c r="M201" s="18">
         <v>130184</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A202">
+      <c r="A202" s="18">
         <v>2460</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="18">
         <v>1652</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C202" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="D202">
+      <c r="D202" s="18">
         <v>128637</v>
       </c>
-      <c r="E202">
+      <c r="E202" s="18">
         <v>9.6594599999999993</v>
       </c>
-      <c r="F202">
+      <c r="F202" s="18">
         <v>49.647190000000002</v>
       </c>
-      <c r="G202" t="s">
+      <c r="G202" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H202">
+      <c r="H202" s="18">
         <v>24</v>
       </c>
-      <c r="I202" t="s">
+      <c r="I202" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J202">
+      <c r="J202" s="18">
         <v>90</v>
       </c>
-      <c r="K202">
+      <c r="K202" s="18">
         <v>10</v>
       </c>
-      <c r="L202">
-        <v>1</v>
-      </c>
-      <c r="M202">
+      <c r="L202" s="18">
+        <v>1</v>
+      </c>
+      <c r="M202" s="18">
         <v>128637</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A203">
+      <c r="A203" s="18">
         <v>2462</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="18">
         <v>1657</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C203" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="D203">
+      <c r="D203" s="18">
         <v>129771</v>
       </c>
-      <c r="E203">
+      <c r="E203" s="18">
         <v>9.6655300000000004</v>
       </c>
-      <c r="F203">
+      <c r="F203" s="18">
         <v>49.623519999999999</v>
       </c>
-      <c r="G203" t="s">
+      <c r="G203" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H203">
+      <c r="H203" s="18">
         <v>24</v>
       </c>
-      <c r="I203" t="s">
+      <c r="I203" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J203">
+      <c r="J203" s="18">
         <v>90</v>
       </c>
-      <c r="K203">
+      <c r="K203" s="18">
         <v>10</v>
       </c>
-      <c r="L203">
-        <v>1</v>
-      </c>
-      <c r="M203">
+      <c r="L203" s="18">
+        <v>1</v>
+      </c>
+      <c r="M203" s="18">
         <v>129771</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A204">
+      <c r="A204" s="18">
         <v>2466</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="18">
         <v>1662</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C204" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="D204">
+      <c r="D204" s="18">
         <v>133428</v>
       </c>
-      <c r="E204">
+      <c r="E204" s="18">
         <v>9.6764700000000001</v>
       </c>
-      <c r="F204">
+      <c r="F204" s="18">
         <v>49.610349999999997</v>
       </c>
-      <c r="G204" t="s">
+      <c r="G204" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H204">
+      <c r="H204" s="18">
         <v>25</v>
       </c>
-      <c r="I204" t="s">
+      <c r="I204" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J204">
+      <c r="J204" s="18">
         <v>90</v>
       </c>
-      <c r="K204">
+      <c r="K204" s="18">
         <v>11</v>
       </c>
-      <c r="L204">
-        <v>1</v>
-      </c>
-      <c r="M204">
+      <c r="L204" s="18">
+        <v>1</v>
+      </c>
+      <c r="M204" s="18">
         <v>133428</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A205">
+      <c r="A205" s="18">
         <v>2473</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="18">
         <v>1663</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="D205">
+      <c r="D205" s="18">
         <v>128727</v>
       </c>
-      <c r="E205">
+      <c r="E205" s="18">
         <v>9.6935300000000009</v>
       </c>
-      <c r="F205">
+      <c r="F205" s="18">
         <v>49.597349999999999</v>
       </c>
-      <c r="G205" t="s">
+      <c r="G205" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H205">
+      <c r="H205" s="18">
         <v>25</v>
       </c>
-      <c r="I205" t="s">
+      <c r="I205" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J205">
+      <c r="J205" s="18">
         <v>90</v>
       </c>
-      <c r="K205">
+      <c r="K205" s="18">
         <v>11</v>
       </c>
-      <c r="L205">
-        <v>1</v>
-      </c>
-      <c r="M205">
+      <c r="L205" s="18">
+        <v>1</v>
+      </c>
+      <c r="M205" s="18">
         <v>128727</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A206">
+      <c r="A206" s="18">
         <v>2483</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="18">
         <v>1659</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C206" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="D206">
+      <c r="D206" s="18">
         <v>128225</v>
       </c>
-      <c r="E206">
+      <c r="E206" s="18">
         <v>9.7340499999999999</v>
       </c>
-      <c r="F206">
+      <c r="F206" s="18">
         <v>49.665579999999999</v>
       </c>
-      <c r="G206" t="s">
+      <c r="G206" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H206">
+      <c r="H206" s="18">
         <v>25</v>
       </c>
-      <c r="I206" t="s">
+      <c r="I206" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J206">
+      <c r="J206" s="18">
         <v>90</v>
       </c>
-      <c r="K206">
+      <c r="K206" s="18">
         <v>11</v>
       </c>
-      <c r="L206">
-        <v>1</v>
-      </c>
-      <c r="M206">
+      <c r="L206" s="18">
+        <v>1</v>
+      </c>
+      <c r="M206" s="18">
         <v>128225</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A207">
+      <c r="A207" s="18">
         <v>2484</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="18">
         <v>1661</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C207" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="D207">
+      <c r="D207" s="18">
         <v>132544</v>
       </c>
-      <c r="E207">
+      <c r="E207" s="18">
         <v>9.7405500000000007</v>
       </c>
-      <c r="F207">
+      <c r="F207" s="18">
         <v>49.624560000000002</v>
       </c>
-      <c r="G207" t="s">
+      <c r="G207" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H207">
+      <c r="H207" s="18">
         <v>25</v>
       </c>
-      <c r="I207" t="s">
+      <c r="I207" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J207">
+      <c r="J207" s="18">
         <v>90</v>
       </c>
-      <c r="K207">
+      <c r="K207" s="18">
         <v>11</v>
       </c>
-      <c r="L207">
-        <v>1</v>
-      </c>
-      <c r="M207">
+      <c r="L207" s="18">
+        <v>1</v>
+      </c>
+      <c r="M207" s="18">
         <v>132544</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A208">
+      <c r="A208" s="18">
         <v>2485</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="18">
         <v>1664</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C208" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="D208">
+      <c r="D208" s="18">
         <v>130684</v>
       </c>
-      <c r="E208">
+      <c r="E208" s="18">
         <v>9.7465600000000006</v>
       </c>
-      <c r="F208">
+      <c r="F208" s="18">
         <v>49.6066</v>
       </c>
-      <c r="G208" t="s">
+      <c r="G208" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H208">
+      <c r="H208" s="18">
         <v>25</v>
       </c>
-      <c r="I208" t="s">
+      <c r="I208" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J208">
+      <c r="J208" s="18">
         <v>90</v>
       </c>
-      <c r="K208">
+      <c r="K208" s="18">
         <v>11</v>
       </c>
-      <c r="L208">
-        <v>1</v>
-      </c>
-      <c r="M208">
+      <c r="L208" s="18">
+        <v>1</v>
+      </c>
+      <c r="M208" s="18">
         <v>130684</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A209">
+      <c r="A209" s="18">
         <v>2487</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="18">
         <v>1660</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C209" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="D209">
+      <c r="D209" s="18">
         <v>130104</v>
       </c>
-      <c r="E209">
+      <c r="E209" s="18">
         <v>9.7536799999999992</v>
       </c>
-      <c r="F209">
+      <c r="F209" s="18">
         <v>49.6402</v>
       </c>
-      <c r="G209" t="s">
+      <c r="G209" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H209">
+      <c r="H209" s="18">
         <v>25</v>
       </c>
-      <c r="I209" t="s">
+      <c r="I209" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J209">
+      <c r="J209" s="18">
         <v>90</v>
       </c>
-      <c r="K209">
+      <c r="K209" s="18">
         <v>11</v>
       </c>
-      <c r="L209">
-        <v>1</v>
-      </c>
-      <c r="M209">
+      <c r="L209" s="18">
+        <v>1</v>
+      </c>
+      <c r="M209" s="18">
         <v>130104</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A210">
+      <c r="A210" s="18">
         <v>2489</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="18">
         <v>1666</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C210" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="D210">
+      <c r="D210" s="18">
         <v>131375</v>
       </c>
-      <c r="E210">
+      <c r="E210" s="18">
         <v>9.7800200000000004</v>
       </c>
-      <c r="F210">
+      <c r="F210" s="18">
         <v>49.637810000000002</v>
       </c>
-      <c r="G210" t="s">
+      <c r="G210" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H210">
+      <c r="H210" s="18">
         <v>25</v>
       </c>
-      <c r="I210" t="s">
+      <c r="I210" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J210">
+      <c r="J210" s="18">
         <v>90</v>
       </c>
-      <c r="K210">
+      <c r="K210" s="18">
         <v>11</v>
       </c>
-      <c r="L210">
-        <v>1</v>
-      </c>
-      <c r="M210">
+      <c r="L210" s="18">
+        <v>1</v>
+      </c>
+      <c r="M210" s="18">
         <v>131375</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A211">
+      <c r="A211" s="18">
         <v>2492</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="18">
         <v>1668</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C211" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="D211">
+      <c r="D211" s="18">
         <v>127722</v>
       </c>
-      <c r="E211">
+      <c r="E211" s="18">
         <v>9.7901600000000002</v>
       </c>
-      <c r="F211">
+      <c r="F211" s="18">
         <v>49.666089999999997</v>
       </c>
-      <c r="G211" t="s">
+      <c r="G211" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H211">
+      <c r="H211" s="18">
         <v>25</v>
       </c>
-      <c r="I211" t="s">
+      <c r="I211" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J211">
+      <c r="J211" s="18">
         <v>90</v>
       </c>
-      <c r="K211">
+      <c r="K211" s="18">
         <v>11</v>
       </c>
-      <c r="L211">
-        <v>1</v>
-      </c>
-      <c r="M211">
+      <c r="L211" s="18">
+        <v>1</v>
+      </c>
+      <c r="M211" s="18">
         <v>127722</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A212">
+      <c r="A212" s="18">
         <v>2496</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="18">
         <v>1665</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C212" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D212">
+      <c r="D212" s="18">
         <v>129600</v>
       </c>
-      <c r="E212">
+      <c r="E212" s="18">
         <v>9.8242399999999996</v>
       </c>
-      <c r="F212">
+      <c r="F212" s="18">
         <v>49.589889999999997</v>
       </c>
-      <c r="G212" t="s">
+      <c r="G212" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H212">
+      <c r="H212" s="18">
         <v>25</v>
       </c>
-      <c r="I212" t="s">
+      <c r="I212" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J212">
+      <c r="J212" s="18">
         <v>90</v>
       </c>
-      <c r="K212">
+      <c r="K212" s="18">
         <v>11</v>
       </c>
-      <c r="L212">
-        <v>1</v>
-      </c>
-      <c r="M212">
+      <c r="L212" s="18">
+        <v>1</v>
+      </c>
+      <c r="M212" s="18">
         <v>129600</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A213">
+      <c r="A213" s="18">
         <v>2497</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="18">
         <v>1667</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C213" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="D213">
+      <c r="D213" s="18">
         <v>131698</v>
       </c>
-      <c r="E213">
+      <c r="E213" s="18">
         <v>9.8262199999999993</v>
       </c>
-      <c r="F213">
+      <c r="F213" s="18">
         <v>49.630650000000003</v>
       </c>
-      <c r="G213" t="s">
+      <c r="G213" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H213">
+      <c r="H213" s="18">
         <v>25</v>
       </c>
-      <c r="I213" t="s">
+      <c r="I213" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J213">
+      <c r="J213" s="18">
         <v>90</v>
       </c>
-      <c r="K213">
+      <c r="K213" s="18">
         <v>11</v>
       </c>
-      <c r="L213">
-        <v>1</v>
-      </c>
-      <c r="M213">
+      <c r="L213" s="18">
+        <v>1</v>
+      </c>
+      <c r="M213" s="18">
         <v>131698</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A214">
+      <c r="A214" s="18">
         <v>2498</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="18">
         <v>1671</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C214" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="D214">
+      <c r="D214" s="18">
         <v>127916</v>
       </c>
-      <c r="E214">
+      <c r="E214" s="18">
         <v>9.8387799999999999</v>
       </c>
-      <c r="F214">
+      <c r="F214" s="18">
         <v>49.613439999999997</v>
       </c>
-      <c r="G214" t="s">
+      <c r="G214" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H214">
+      <c r="H214" s="18">
         <v>25</v>
       </c>
-      <c r="I214" t="s">
+      <c r="I214" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J214">
+      <c r="J214" s="18">
         <v>90</v>
       </c>
-      <c r="K214">
+      <c r="K214" s="18">
         <v>11</v>
       </c>
-      <c r="L214">
-        <v>1</v>
-      </c>
-      <c r="M214">
+      <c r="L214" s="18">
+        <v>1</v>
+      </c>
+      <c r="M214" s="18">
         <v>127916</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A215">
+      <c r="A215" s="18">
         <v>2499</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C215" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="E215">
+      <c r="E215" s="18">
         <v>9.8516399999999997</v>
       </c>
-      <c r="F215">
+      <c r="F215" s="18">
         <v>49.62585</v>
       </c>
-      <c r="G215" t="s">
+      <c r="G215" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H215">
+      <c r="H215" s="18">
         <v>26</v>
       </c>
-      <c r="I215" t="s">
+      <c r="I215" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J215">
+      <c r="J215" s="18">
         <v>90</v>
       </c>
-      <c r="K215">
+      <c r="K215" s="18">
         <v>2</v>
       </c>
-      <c r="L215">
+      <c r="L215" s="18">
         <v>2</v>
       </c>
-      <c r="M215">
+      <c r="M215" s="18">
         <v>129563</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A216">
+      <c r="A216" s="18">
         <v>2349</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="18">
         <v>1699</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C216" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="D216">
+      <c r="D216" s="18">
         <v>134163</v>
       </c>
-      <c r="E216">
+      <c r="E216" s="18">
         <v>9.3664400000000008</v>
       </c>
-      <c r="F216">
+      <c r="F216" s="18">
         <v>49.519399999999997</v>
       </c>
-      <c r="G216" t="s">
+      <c r="G216" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H216">
+      <c r="H216" s="18">
         <v>23</v>
       </c>
-      <c r="I216" t="s">
+      <c r="I216" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J216">
+      <c r="J216" s="18">
         <v>91</v>
       </c>
-      <c r="K216">
+      <c r="K216" s="18">
         <v>8</v>
       </c>
-      <c r="L216">
-        <v>1</v>
-      </c>
-      <c r="M216">
+      <c r="L216" s="18">
+        <v>1</v>
+      </c>
+      <c r="M216" s="18">
         <v>134163</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A217">
+      <c r="A217" s="18">
         <v>2353</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="18">
         <v>1704</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C217" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="D217">
+      <c r="D217" s="18">
         <v>132067</v>
       </c>
-      <c r="E217">
+      <c r="E217" s="18">
         <v>9.3679299999999994</v>
       </c>
-      <c r="F217">
+      <c r="F217" s="18">
         <v>49.583219999999997</v>
       </c>
-      <c r="G217" t="s">
+      <c r="G217" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H217">
+      <c r="H217" s="18">
         <v>23</v>
       </c>
-      <c r="I217" t="s">
+      <c r="I217" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J217">
+      <c r="J217" s="18">
         <v>91</v>
       </c>
-      <c r="K217">
+      <c r="K217" s="18">
         <v>8</v>
       </c>
-      <c r="L217">
-        <v>1</v>
-      </c>
-      <c r="M217">
+      <c r="L217" s="18">
+        <v>1</v>
+      </c>
+      <c r="M217" s="18">
         <v>132067</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A218">
+      <c r="A218" s="18">
         <v>2366</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="18">
         <v>1700</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C218" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="D218">
+      <c r="D218" s="18">
         <v>133202</v>
       </c>
-      <c r="E218">
+      <c r="E218" s="18">
         <v>9.3924900000000004</v>
       </c>
-      <c r="F218">
+      <c r="F218" s="18">
         <v>49.513689999999997</v>
       </c>
-      <c r="G218" t="s">
+      <c r="G218" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H218">
+      <c r="H218" s="18">
         <v>23</v>
       </c>
-      <c r="I218" t="s">
+      <c r="I218" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J218">
+      <c r="J218" s="18">
         <v>91</v>
       </c>
-      <c r="K218">
+      <c r="K218" s="18">
         <v>8</v>
       </c>
-      <c r="L218">
-        <v>1</v>
-      </c>
-      <c r="M218">
+      <c r="L218" s="18">
+        <v>1</v>
+      </c>
+      <c r="M218" s="18">
         <v>133202</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A219">
+      <c r="A219" s="18">
         <v>2387</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="18">
         <v>1701</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C219" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="D219">
+      <c r="D219" s="18">
         <v>130061</v>
       </c>
-      <c r="E219">
+      <c r="E219" s="18">
         <v>9.4436</v>
       </c>
-      <c r="F219">
+      <c r="F219" s="18">
         <v>49.519150000000003</v>
       </c>
-      <c r="G219" t="s">
+      <c r="G219" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H219">
+      <c r="H219" s="18">
         <v>23</v>
       </c>
-      <c r="I219" t="s">
+      <c r="I219" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J219">
+      <c r="J219" s="18">
         <v>91</v>
       </c>
-      <c r="K219">
+      <c r="K219" s="18">
         <v>8</v>
       </c>
-      <c r="L219">
-        <v>1</v>
-      </c>
-      <c r="M219">
+      <c r="L219" s="18">
+        <v>1</v>
+      </c>
+      <c r="M219" s="18">
         <v>130061</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A220">
+      <c r="A220" s="18">
         <v>2388</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="18">
         <v>1702</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C220" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="D220">
+      <c r="D220" s="18">
         <v>132613</v>
       </c>
-      <c r="E220">
+      <c r="E220" s="18">
         <v>9.4489300000000007</v>
       </c>
-      <c r="F220">
+      <c r="F220" s="18">
         <v>49.564700000000002</v>
       </c>
-      <c r="G220" t="s">
+      <c r="G220" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H220">
+      <c r="H220" s="18">
         <v>23</v>
       </c>
-      <c r="I220" t="s">
+      <c r="I220" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J220">
+      <c r="J220" s="18">
         <v>91</v>
       </c>
-      <c r="K220">
+      <c r="K220" s="18">
         <v>8</v>
       </c>
-      <c r="L220">
-        <v>1</v>
-      </c>
-      <c r="M220">
+      <c r="L220" s="18">
+        <v>1</v>
+      </c>
+      <c r="M220" s="18">
         <v>132613</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A221">
+      <c r="A221" s="18">
         <v>2398</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="18">
         <v>1703</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C221" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="D221">
+      <c r="D221" s="18">
         <v>131601</v>
       </c>
-      <c r="E221">
+      <c r="E221" s="18">
         <v>9.4868199999999998</v>
       </c>
-      <c r="F221">
+      <c r="F221" s="18">
         <v>49.57826</v>
       </c>
-      <c r="G221" t="s">
+      <c r="G221" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H221">
+      <c r="H221" s="18">
         <v>23</v>
       </c>
-      <c r="I221" t="s">
+      <c r="I221" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J221">
+      <c r="J221" s="18">
         <v>91</v>
       </c>
-      <c r="K221">
+      <c r="K221" s="18">
         <v>8</v>
       </c>
-      <c r="L221">
-        <v>1</v>
-      </c>
-      <c r="M221">
+      <c r="L221" s="18">
+        <v>1</v>
+      </c>
+      <c r="M221" s="18">
         <v>131601</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A222">
+      <c r="A222" s="18">
         <v>2401</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="18">
         <v>1705</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C222" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="D222">
+      <c r="D222" s="18">
         <v>129340</v>
       </c>
-      <c r="E222">
+      <c r="E222" s="18">
         <v>9.4959699999999998</v>
       </c>
-      <c r="F222">
+      <c r="F222" s="18">
         <v>49.554160000000003</v>
       </c>
-      <c r="G222" t="s">
+      <c r="G222" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H222">
+      <c r="H222" s="18">
         <v>23</v>
       </c>
-      <c r="I222" t="s">
+      <c r="I222" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J222">
+      <c r="J222" s="18">
         <v>91</v>
       </c>
-      <c r="K222">
+      <c r="K222" s="18">
         <v>8</v>
       </c>
-      <c r="L222">
-        <v>1</v>
-      </c>
-      <c r="M222">
+      <c r="L222" s="18">
+        <v>1</v>
+      </c>
+      <c r="M222" s="18">
         <v>129340</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A223">
+      <c r="A223" s="18">
         <v>2405</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="18">
         <v>1709</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C223" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="D223">
+      <c r="D223" s="18">
         <v>133647</v>
       </c>
-      <c r="E223">
+      <c r="E223" s="18">
         <v>9.5048999999999992</v>
       </c>
-      <c r="F223">
+      <c r="F223" s="18">
         <v>49.534990000000001</v>
       </c>
-      <c r="G223" t="s">
+      <c r="G223" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H223">
+      <c r="H223" s="18">
         <v>23</v>
       </c>
-      <c r="I223" t="s">
+      <c r="I223" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J223">
+      <c r="J223" s="18">
         <v>91</v>
       </c>
-      <c r="K223">
+      <c r="K223" s="18">
         <v>8</v>
       </c>
-      <c r="L223">
-        <v>1</v>
-      </c>
-      <c r="M223">
+      <c r="L223" s="18">
+        <v>1</v>
+      </c>
+      <c r="M223" s="18">
         <v>133647</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A224">
+      <c r="A224" s="18">
         <v>2412</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="18">
         <v>1706</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C224" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="D224">
+      <c r="D224" s="18">
         <v>127519</v>
       </c>
-      <c r="E224">
+      <c r="E224" s="18">
         <v>9.5262399999999996</v>
       </c>
-      <c r="F224">
+      <c r="F224" s="18">
         <v>49.581490000000002</v>
       </c>
-      <c r="G224" t="s">
+      <c r="G224" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H224">
+      <c r="H224" s="18">
         <v>24</v>
       </c>
-      <c r="I224" t="s">
+      <c r="I224" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J224">
+      <c r="J224" s="18">
         <v>91</v>
       </c>
-      <c r="K224">
+      <c r="K224" s="18">
         <v>8</v>
       </c>
-      <c r="L224">
-        <v>1</v>
-      </c>
-      <c r="M224">
+      <c r="L224" s="18">
+        <v>1</v>
+      </c>
+      <c r="M224" s="18">
         <v>127519</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A225">
+      <c r="A225" s="18">
         <v>2414</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="18">
         <v>1710</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C225" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="D225">
+      <c r="D225" s="18">
         <v>130742</v>
       </c>
-      <c r="E225">
+      <c r="E225" s="18">
         <v>9.5397700000000007</v>
       </c>
-      <c r="F225">
+      <c r="F225" s="18">
         <v>49.501800000000003</v>
       </c>
-      <c r="G225" t="s">
+      <c r="G225" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H225">
+      <c r="H225" s="18">
         <v>24</v>
       </c>
-      <c r="I225" t="s">
+      <c r="I225" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J225">
+      <c r="J225" s="18">
         <v>91</v>
       </c>
-      <c r="K225">
+      <c r="K225" s="18">
         <v>8</v>
       </c>
-      <c r="L225">
-        <v>1</v>
-      </c>
-      <c r="M225">
+      <c r="L225" s="18">
+        <v>1</v>
+      </c>
+      <c r="M225" s="18">
         <v>130742</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A226">
+      <c r="A226" s="18">
         <v>2421</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="18">
         <v>1707</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C226" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="D226">
+      <c r="D226" s="18">
         <v>129351</v>
       </c>
-      <c r="E226">
+      <c r="E226" s="18">
         <v>9.5545399999999994</v>
       </c>
-      <c r="F226">
+      <c r="F226" s="18">
         <v>49.568390000000001</v>
       </c>
-      <c r="G226" t="s">
+      <c r="G226" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H226">
+      <c r="H226" s="18">
         <v>24</v>
       </c>
-      <c r="I226" t="s">
+      <c r="I226" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J226">
+      <c r="J226" s="18">
         <v>91</v>
       </c>
-      <c r="K226">
+      <c r="K226" s="18">
         <v>8</v>
       </c>
-      <c r="L226">
-        <v>1</v>
-      </c>
-      <c r="M226">
+      <c r="L226" s="18">
+        <v>1</v>
+      </c>
+      <c r="M226" s="18">
         <v>129351</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A227">
+      <c r="A227" s="18">
         <v>2423</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="18">
         <v>1708</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C227" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="D227">
+      <c r="D227" s="18">
         <v>130376</v>
       </c>
-      <c r="E227">
+      <c r="E227" s="18">
         <v>9.5559200000000004</v>
       </c>
-      <c r="F227">
+      <c r="F227" s="18">
         <v>49.538580000000003</v>
       </c>
-      <c r="G227" t="s">
+      <c r="G227" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H227">
+      <c r="H227" s="18">
         <v>24</v>
       </c>
-      <c r="I227" t="s">
+      <c r="I227" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J227">
+      <c r="J227" s="18">
         <v>91</v>
       </c>
-      <c r="K227">
+      <c r="K227" s="18">
         <v>8</v>
       </c>
-      <c r="L227">
-        <v>1</v>
-      </c>
-      <c r="M227">
+      <c r="L227" s="18">
+        <v>1</v>
+      </c>
+      <c r="M227" s="18">
         <v>130376</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A228">
+      <c r="A228" s="18">
         <v>2434</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="18">
         <v>1806</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C228" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="D228">
+      <c r="D228" s="18">
         <v>128534</v>
       </c>
-      <c r="E228">
+      <c r="E228" s="18">
         <v>9.5922699999999992</v>
       </c>
-      <c r="F228">
+      <c r="F228" s="18">
         <v>49.501710000000003</v>
       </c>
-      <c r="G228" t="s">
+      <c r="G228" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H228">
+      <c r="H228" s="18">
         <v>24</v>
       </c>
-      <c r="I228" t="s">
+      <c r="I228" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J228">
+      <c r="J228" s="18">
         <v>91</v>
       </c>
-      <c r="K228">
+      <c r="K228" s="18">
         <v>8</v>
       </c>
-      <c r="L228">
-        <v>1</v>
-      </c>
-      <c r="M228">
+      <c r="L228" s="18">
+        <v>1</v>
+      </c>
+      <c r="M228" s="18">
         <v>128534</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A229">
+      <c r="A229" s="18">
         <v>2446</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="18">
         <v>1712</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C229" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="D229">
+      <c r="D229" s="18">
         <v>134059</v>
       </c>
-      <c r="E229">
+      <c r="E229" s="18">
         <v>9.6200200000000002</v>
       </c>
-      <c r="F229">
+      <c r="F229" s="18">
         <v>49.526269999999997</v>
       </c>
-      <c r="G229" t="s">
+      <c r="G229" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H229">
+      <c r="H229" s="18">
         <v>24</v>
       </c>
-      <c r="I229" t="s">
+      <c r="I229" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J229">
+      <c r="J229" s="18">
         <v>91</v>
       </c>
-      <c r="K229">
+      <c r="K229" s="18">
         <v>8</v>
       </c>
-      <c r="L229">
-        <v>1</v>
-      </c>
-      <c r="M229">
+      <c r="L229" s="18">
+        <v>1</v>
+      </c>
+      <c r="M229" s="18">
         <v>134059</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A230">
+      <c r="A230" s="18">
         <v>2450</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="18">
         <v>1711</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C230" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="D230">
+      <c r="D230" s="18">
         <v>129154</v>
       </c>
-      <c r="E230">
+      <c r="E230" s="18">
         <v>9.6274200000000008</v>
       </c>
-      <c r="F230">
+      <c r="F230" s="18">
         <v>49.505400000000002</v>
       </c>
-      <c r="G230" t="s">
+      <c r="G230" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H230">
+      <c r="H230" s="18">
         <v>24</v>
       </c>
-      <c r="I230" t="s">
+      <c r="I230" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J230">
+      <c r="J230" s="18">
         <v>91</v>
       </c>
-      <c r="K230">
+      <c r="K230" s="18">
         <v>8</v>
       </c>
-      <c r="L230">
-        <v>1</v>
-      </c>
-      <c r="M230">
+      <c r="L230" s="18">
+        <v>1</v>
+      </c>
+      <c r="M230" s="18">
         <v>129154</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A231">
+      <c r="A231" s="18">
         <v>2456</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="18">
         <v>1713</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C231" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="D231">
+      <c r="D231" s="18">
         <v>128786</v>
       </c>
-      <c r="E231">
+      <c r="E231" s="18">
         <v>9.6371300000000009</v>
       </c>
-      <c r="F231">
+      <c r="F231" s="18">
         <v>49.55077</v>
       </c>
-      <c r="G231" t="s">
+      <c r="G231" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H231">
+      <c r="H231" s="18">
         <v>24</v>
       </c>
-      <c r="I231" t="s">
+      <c r="I231" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J231">
+      <c r="J231" s="18">
         <v>91</v>
       </c>
-      <c r="K231">
+      <c r="K231" s="18">
         <v>8</v>
       </c>
-      <c r="L231">
-        <v>1</v>
-      </c>
-      <c r="M231">
+      <c r="L231" s="18">
+        <v>1</v>
+      </c>
+      <c r="M231" s="18">
         <v>128786</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A232">
+      <c r="A232" s="18">
         <v>2467</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="18">
         <v>1725</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C232" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="D232">
+      <c r="D232" s="18">
         <v>133898</v>
       </c>
-      <c r="E232">
+      <c r="E232" s="18">
         <v>9.6768699999999992</v>
       </c>
-      <c r="F232">
+      <c r="F232" s="18">
         <v>49.52252</v>
       </c>
-      <c r="G232" t="s">
+      <c r="G232" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H232">
+      <c r="H232" s="18">
         <v>25</v>
       </c>
-      <c r="I232" t="s">
+      <c r="I232" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J232">
+      <c r="J232" s="18">
         <v>91</v>
       </c>
-      <c r="K232">
+      <c r="K232" s="18">
         <v>14</v>
       </c>
-      <c r="L232">
-        <v>1</v>
-      </c>
-      <c r="M232">
+      <c r="L232" s="18">
+        <v>1</v>
+      </c>
+      <c r="M232" s="18">
         <v>133898</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A233">
+      <c r="A233" s="18">
         <v>2468</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="18">
         <v>1714</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C233" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="D233">
+      <c r="D233" s="18">
         <v>127479</v>
       </c>
-      <c r="E233">
+      <c r="E233" s="18">
         <v>9.6791199999999993</v>
       </c>
-      <c r="F233">
+      <c r="F233" s="18">
         <v>49.566079999999999</v>
       </c>
-      <c r="G233" t="s">
+      <c r="G233" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H233">
+      <c r="H233" s="18">
         <v>25</v>
       </c>
-      <c r="I233" t="s">
+      <c r="I233" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J233">
+      <c r="J233" s="18">
         <v>91</v>
       </c>
-      <c r="K233">
+      <c r="K233" s="18">
         <v>14</v>
       </c>
-      <c r="L233">
-        <v>1</v>
-      </c>
-      <c r="M233">
+      <c r="L233" s="18">
+        <v>1</v>
+      </c>
+      <c r="M233" s="18">
         <v>127479</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A234">
+      <c r="A234" s="18">
         <v>2472</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="18">
         <v>1726</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C234" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="D234">
+      <c r="D234" s="18">
         <v>128686</v>
       </c>
-      <c r="E234">
+      <c r="E234" s="18">
         <v>9.6892200000000006</v>
       </c>
-      <c r="F234">
+      <c r="F234" s="18">
         <v>49.51437</v>
       </c>
-      <c r="G234" t="s">
+      <c r="G234" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H234">
+      <c r="H234" s="18">
         <v>25</v>
       </c>
-      <c r="I234" t="s">
+      <c r="I234" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J234">
+      <c r="J234" s="18">
         <v>91</v>
       </c>
-      <c r="K234">
+      <c r="K234" s="18">
         <v>14</v>
       </c>
-      <c r="L234">
-        <v>1</v>
-      </c>
-      <c r="M234">
+      <c r="L234" s="18">
+        <v>1</v>
+      </c>
+      <c r="M234" s="18">
         <v>128686</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A235">
+      <c r="A235" s="18">
         <v>2475</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="18">
         <v>1715</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C235" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="D235">
+      <c r="D235" s="18">
         <v>134091</v>
       </c>
-      <c r="E235">
+      <c r="E235" s="18">
         <v>9.7020300000000006</v>
       </c>
-      <c r="F235">
+      <c r="F235" s="18">
         <v>49.5702</v>
       </c>
-      <c r="G235" t="s">
+      <c r="G235" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H235">
+      <c r="H235" s="18">
         <v>25</v>
       </c>
-      <c r="I235" t="s">
+      <c r="I235" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J235">
+      <c r="J235" s="18">
         <v>91</v>
       </c>
-      <c r="K235">
+      <c r="K235" s="18">
         <v>14</v>
       </c>
-      <c r="L235">
-        <v>1</v>
-      </c>
-      <c r="M235">
+      <c r="L235" s="18">
+        <v>1</v>
+      </c>
+      <c r="M235" s="18">
         <v>134091</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A236">
+      <c r="A236" s="18">
         <v>2476</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="18">
         <v>1724</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C236" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="D236">
+      <c r="D236" s="18">
         <v>130008</v>
       </c>
-      <c r="E236">
+      <c r="E236" s="18">
         <v>9.7042199999999994</v>
       </c>
-      <c r="F236">
+      <c r="F236" s="18">
         <v>49.546680000000002</v>
       </c>
-      <c r="G236" t="s">
+      <c r="G236" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H236">
+      <c r="H236" s="18">
         <v>25</v>
       </c>
-      <c r="I236" t="s">
+      <c r="I236" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J236">
+      <c r="J236" s="18">
         <v>91</v>
       </c>
-      <c r="K236">
+      <c r="K236" s="18">
         <v>14</v>
       </c>
-      <c r="L236">
-        <v>1</v>
-      </c>
-      <c r="M236">
+      <c r="L236" s="18">
+        <v>1</v>
+      </c>
+      <c r="M236" s="18">
         <v>130008</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A237">
+      <c r="A237" s="18">
         <v>2477</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="18">
         <v>1727</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C237" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="D237">
+      <c r="D237" s="18">
         <v>133639</v>
       </c>
-      <c r="E237">
+      <c r="E237" s="18">
         <v>9.7100000000000009</v>
       </c>
-      <c r="F237">
+      <c r="F237" s="18">
         <v>49.523769999999999</v>
       </c>
-      <c r="G237" t="s">
+      <c r="G237" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H237">
+      <c r="H237" s="18">
         <v>25</v>
       </c>
-      <c r="I237" t="s">
+      <c r="I237" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J237">
+      <c r="J237" s="18">
         <v>91</v>
       </c>
-      <c r="K237">
+      <c r="K237" s="18">
         <v>14</v>
       </c>
-      <c r="L237">
-        <v>1</v>
-      </c>
-      <c r="M237">
+      <c r="L237" s="18">
+        <v>1</v>
+      </c>
+      <c r="M237" s="18">
         <v>133639</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A238">
+      <c r="A238" s="18">
         <v>2479</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="18">
         <v>1716</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C238" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="D238">
+      <c r="D238" s="18">
         <v>132507</v>
       </c>
-      <c r="E238">
+      <c r="E238" s="18">
         <v>9.7177500000000006</v>
       </c>
-      <c r="F238">
+      <c r="F238" s="18">
         <v>49.579979999999999</v>
       </c>
-      <c r="G238" t="s">
+      <c r="G238" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H238">
+      <c r="H238" s="18">
         <v>25</v>
       </c>
-      <c r="I238" t="s">
+      <c r="I238" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J238">
+      <c r="J238" s="18">
         <v>91</v>
       </c>
-      <c r="K238">
+      <c r="K238" s="18">
         <v>14</v>
       </c>
-      <c r="L238">
-        <v>1</v>
-      </c>
-      <c r="M238">
+      <c r="L238" s="18">
+        <v>1</v>
+      </c>
+      <c r="M238" s="18">
         <v>132507</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A239">
+      <c r="A239" s="18">
         <v>2481</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="18">
         <v>1717</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C239" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="D239">
+      <c r="D239" s="18">
         <v>131648</v>
       </c>
-      <c r="E239">
+      <c r="E239" s="18">
         <v>9.7263999999999999</v>
       </c>
-      <c r="F239">
+      <c r="F239" s="18">
         <v>49.565809999999999</v>
       </c>
-      <c r="G239" t="s">
+      <c r="G239" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H239">
+      <c r="H239" s="18">
         <v>25</v>
       </c>
-      <c r="I239" t="s">
+      <c r="I239" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J239">
+      <c r="J239" s="18">
         <v>91</v>
       </c>
-      <c r="K239">
+      <c r="K239" s="18">
         <v>14</v>
       </c>
-      <c r="L239">
-        <v>1</v>
-      </c>
-      <c r="M239">
+      <c r="L239" s="18">
+        <v>1</v>
+      </c>
+      <c r="M239" s="18">
         <v>131648</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A240">
+      <c r="A240" s="18">
         <v>2482</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="18">
         <v>1723</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C240" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="D240">
+      <c r="D240" s="18">
         <v>127954</v>
       </c>
-      <c r="E240">
+      <c r="E240" s="18">
         <v>9.7310499999999998</v>
       </c>
-      <c r="F240">
+      <c r="F240" s="18">
         <v>49.54759</v>
       </c>
-      <c r="G240" t="s">
+      <c r="G240" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H240">
+      <c r="H240" s="18">
         <v>25</v>
       </c>
-      <c r="I240" t="s">
+      <c r="I240" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J240">
+      <c r="J240" s="18">
         <v>91</v>
       </c>
-      <c r="K240">
+      <c r="K240" s="18">
         <v>14</v>
       </c>
-      <c r="L240">
-        <v>1</v>
-      </c>
-      <c r="M240">
+      <c r="L240" s="18">
+        <v>1</v>
+      </c>
+      <c r="M240" s="18">
         <v>127954</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A241">
+      <c r="A241" s="18">
         <v>2486</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="18">
         <v>1722</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C241" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="D241">
+      <c r="D241" s="18">
         <v>130685</v>
       </c>
-      <c r="E241">
+      <c r="E241" s="18">
         <v>9.7471099999999993</v>
       </c>
-      <c r="F241">
+      <c r="F241" s="18">
         <v>49.527790000000003</v>
       </c>
-      <c r="G241" t="s">
+      <c r="G241" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H241">
+      <c r="H241" s="18">
         <v>25</v>
       </c>
-      <c r="I241" t="s">
+      <c r="I241" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J241">
+      <c r="J241" s="18">
         <v>91</v>
       </c>
-      <c r="K241">
+      <c r="K241" s="18">
         <v>14</v>
       </c>
-      <c r="L241">
-        <v>1</v>
-      </c>
-      <c r="M241">
+      <c r="L241" s="18">
+        <v>1</v>
+      </c>
+      <c r="M241" s="18">
         <v>130685</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A242">
+      <c r="A242" s="18">
         <v>2488</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="18">
         <v>1718</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C242" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="D242">
+      <c r="D242" s="18">
         <v>128911</v>
       </c>
-      <c r="E242">
+      <c r="E242" s="18">
         <v>9.7613599999999998</v>
       </c>
-      <c r="F242">
+      <c r="F242" s="18">
         <v>49.581589999999998</v>
       </c>
-      <c r="G242" t="s">
+      <c r="G242" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H242">
+      <c r="H242" s="18">
         <v>25</v>
       </c>
-      <c r="I242" t="s">
+      <c r="I242" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J242">
+      <c r="J242" s="18">
         <v>91</v>
       </c>
-      <c r="K242">
+      <c r="K242" s="18">
         <v>14</v>
       </c>
-      <c r="L242">
-        <v>1</v>
-      </c>
-      <c r="M242">
+      <c r="L242" s="18">
+        <v>1</v>
+      </c>
+      <c r="M242" s="18">
         <v>128911</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A243">
+      <c r="A243" s="18">
         <v>2491</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="18">
         <v>1719</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C243" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="D243">
+      <c r="D243" s="18">
         <v>130760</v>
       </c>
-      <c r="E243">
+      <c r="E243" s="18">
         <v>9.7887000000000004</v>
       </c>
-      <c r="F243">
+      <c r="F243" s="18">
         <v>49.575600000000001</v>
       </c>
-      <c r="G243" t="s">
+      <c r="G243" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H243">
+      <c r="H243" s="18">
         <v>25</v>
       </c>
-      <c r="I243" t="s">
+      <c r="I243" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J243">
+      <c r="J243" s="18">
         <v>91</v>
       </c>
-      <c r="K243">
+      <c r="K243" s="18">
         <v>14</v>
       </c>
-      <c r="L243">
-        <v>1</v>
-      </c>
-      <c r="M243">
+      <c r="L243" s="18">
+        <v>1</v>
+      </c>
+      <c r="M243" s="18">
         <v>130760</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A244">
+      <c r="A244" s="18">
         <v>2493</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C244" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D244" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="E244">
+      <c r="E244" s="18">
         <v>9.7937999999999992</v>
       </c>
-      <c r="F244">
+      <c r="F244" s="18">
         <v>49.539969999999997</v>
       </c>
-      <c r="G244" t="s">
+      <c r="G244" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H244">
+      <c r="H244" s="18">
         <v>25</v>
       </c>
-      <c r="I244" t="s">
+      <c r="I244" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J244">
+      <c r="J244" s="18">
         <v>91</v>
       </c>
-      <c r="K244">
+      <c r="K244" s="18">
         <v>14</v>
       </c>
-      <c r="L244">
+      <c r="L244" s="18">
         <v>2</v>
       </c>
-      <c r="M244">
+      <c r="M244" s="18">
         <v>130868</v>
       </c>
     </row>

--- a/GeoRef/Data_Places/DWA_places_JH.xlsx
+++ b/GeoRef/Data_Places/DWA_places_JH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DWA_FSJ\Städtenamen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DWA\GeoRef\Data_Places\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E32175FF-70F2-404B-8F39-979E224289D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCF5C73-E1F7-485E-9587-8C6B448AC96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10560" yWindow="2900" windowWidth="14400" windowHeight="7250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DWA_places_study_area" sheetId="1" r:id="rId1"/>
@@ -8716,8 +8716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T2340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I250" sqref="I250"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8768,43 +8768,43 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="18">
         <v>2333</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="18">
         <v>1608</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="18">
         <v>129703</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="18">
         <v>9.3253299999999992</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="18">
         <v>49.751449999999998</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="18">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="18">
         <v>55</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
+      <c r="K2" s="18">
+        <v>1</v>
+      </c>
+      <c r="L2" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2" s="18">
         <v>129703</v>
       </c>
       <c r="P2" s="6" t="s">
@@ -8866,43 +8866,43 @@
       <c r="T3" s="11"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" s="18">
         <v>1901</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="18">
         <v>1638</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="18">
         <v>130756</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="18">
         <v>8.6543399999999995</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="18">
         <v>49.611899999999999</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="18">
         <v>18</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="18">
         <v>57</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="18">
         <v>2</v>
       </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
+      <c r="L4" s="18">
+        <v>1</v>
+      </c>
+      <c r="M4" s="18">
         <v>130756</v>
       </c>
       <c r="P4" s="9">
@@ -8916,43 +8916,43 @@
       <c r="T4" s="11"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="18">
         <v>2315</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="18">
         <v>1697</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="18">
         <v>130438</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="18">
         <v>9.2901199999999999</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="18">
         <v>49.591000000000001</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="18">
         <v>22</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="18">
         <v>57</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="18">
         <v>4</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
+      <c r="L5" s="18">
+        <v>1</v>
+      </c>
+      <c r="M5" s="18">
         <v>130438</v>
       </c>
       <c r="P5" s="9">
@@ -8966,43 +8966,43 @@
       <c r="T5" s="11"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" s="18">
         <v>2317</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="18">
         <v>1641</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="18">
         <v>127552</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="18">
         <v>9.2976200000000002</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="18">
         <v>49.622529999999998</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="18">
         <v>22</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="18">
         <v>57</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="18">
         <v>4</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
+      <c r="L6" s="18">
+        <v>1</v>
+      </c>
+      <c r="M6" s="18">
         <v>127552</v>
       </c>
       <c r="P6" s="9">
@@ -9016,43 +9016,43 @@
       <c r="T6" s="11"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="A7" s="18">
         <v>2324</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="18">
         <v>1640</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="18">
         <v>130367</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="18">
         <v>9.3106399999999994</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="18">
         <v>49.637509999999999</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="18">
         <v>22</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="18">
         <v>57</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="18">
         <v>4</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
+      <c r="L7" s="18">
+        <v>1</v>
+      </c>
+      <c r="M7" s="18">
         <v>130367</v>
       </c>
       <c r="P7" s="9"/>
@@ -9062,43 +9062,43 @@
       <c r="T7" s="11"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="A8" s="18">
         <v>2328</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="18">
         <v>1642</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="18">
         <v>127396</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="18">
         <v>9.3189499999999992</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="18">
         <v>49.626449999999998</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="18">
         <v>22</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="18">
         <v>57</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="18">
         <v>4</v>
       </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
+      <c r="L8" s="18">
+        <v>1</v>
+      </c>
+      <c r="M8" s="18">
         <v>127396</v>
       </c>
       <c r="P8" s="13" t="s">

--- a/GeoRef/Data_Places/DWA_places_JH.xlsx
+++ b/GeoRef/Data_Places/DWA_places_JH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DWA\GeoRef\Data_Places\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCF5C73-E1F7-485E-9587-8C6B448AC96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE98AFB6-B810-45A5-B50E-5E09757EB877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10560" yWindow="2900" windowWidth="14400" windowHeight="7250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10810" yWindow="770" windowWidth="14400" windowHeight="7250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DWA_places_study_area" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7404" uniqueCount="2573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7439" uniqueCount="2573">
   <si>
     <t>lfd</t>
   </si>
@@ -7748,7 +7748,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7899,6 +7899,20 @@
     <font>
       <sz val="11"/>
       <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -8337,7 +8351,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -8359,6 +8373,8 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -8716,8 +8732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T2340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="C1993" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2016" activeCellId="1" sqref="AP2012 C2016"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18828,1683 +18844,1683 @@
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A245">
+      <c r="A245" s="18">
         <v>2351</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="18">
         <v>1786</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C245" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="D245">
+      <c r="D245" s="18">
         <v>133375</v>
       </c>
-      <c r="E245">
+      <c r="E245" s="18">
         <v>9.3666</v>
       </c>
-      <c r="F245">
+      <c r="F245" s="18">
         <v>49.477269999999997</v>
       </c>
-      <c r="G245" t="s">
+      <c r="G245" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H245">
+      <c r="H245" s="18">
         <v>23</v>
       </c>
-      <c r="I245" t="s">
+      <c r="I245" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J245">
+      <c r="J245" s="18">
         <v>92</v>
       </c>
-      <c r="K245">
+      <c r="K245" s="18">
         <v>13</v>
       </c>
-      <c r="L245">
-        <v>1</v>
-      </c>
-      <c r="M245">
+      <c r="L245" s="18">
+        <v>1</v>
+      </c>
+      <c r="M245" s="18">
         <v>133375</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A246">
+      <c r="A246" s="18">
         <v>2354</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="18">
         <v>1787</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C246" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="D246">
+      <c r="D246" s="18">
         <v>128572</v>
       </c>
-      <c r="E246">
+      <c r="E246" s="18">
         <v>9.3681599999999996</v>
       </c>
-      <c r="F246">
+      <c r="F246" s="18">
         <v>49.452570000000001</v>
       </c>
-      <c r="G246" t="s">
+      <c r="G246" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H246">
+      <c r="H246" s="18">
         <v>23</v>
       </c>
-      <c r="I246" t="s">
+      <c r="I246" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J246">
+      <c r="J246" s="18">
         <v>92</v>
       </c>
-      <c r="K246">
+      <c r="K246" s="18">
         <v>13</v>
       </c>
-      <c r="L246">
-        <v>1</v>
-      </c>
-      <c r="M246">
+      <c r="L246" s="18">
+        <v>1</v>
+      </c>
+      <c r="M246" s="18">
         <v>128572</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A247">
+      <c r="A247" s="18">
         <v>2355</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C247" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D247" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="E247">
+      <c r="E247" s="18">
         <v>9.3730399999999996</v>
       </c>
-      <c r="F247">
+      <c r="F247" s="18">
         <v>49.433129999999998</v>
       </c>
-      <c r="G247" t="s">
+      <c r="G247" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H247">
+      <c r="H247" s="18">
         <v>23</v>
       </c>
-      <c r="I247" t="s">
+      <c r="I247" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J247">
+      <c r="J247" s="18">
         <v>92</v>
       </c>
-      <c r="K247">
+      <c r="K247" s="18">
         <v>13</v>
       </c>
-      <c r="L247">
+      <c r="L247" s="18">
         <v>2</v>
       </c>
-      <c r="M247">
+      <c r="M247" s="18">
         <v>129638</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A248">
+      <c r="A248" s="18">
         <v>2367</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="18">
         <v>1794</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C248" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="D248">
+      <c r="D248" s="18">
         <v>130009</v>
       </c>
-      <c r="E248">
+      <c r="E248" s="18">
         <v>9.3946500000000004</v>
       </c>
-      <c r="F248">
+      <c r="F248" s="18">
         <v>49.496929999999999</v>
       </c>
-      <c r="G248" t="s">
+      <c r="G248" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H248">
+      <c r="H248" s="18">
         <v>23</v>
       </c>
-      <c r="I248" t="s">
+      <c r="I248" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J248">
+      <c r="J248" s="18">
         <v>92</v>
       </c>
-      <c r="K248">
+      <c r="K248" s="18">
         <v>13</v>
       </c>
-      <c r="L248">
-        <v>1</v>
-      </c>
-      <c r="M248">
+      <c r="L248" s="18">
+        <v>1</v>
+      </c>
+      <c r="M248" s="18">
         <v>130009</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A249">
+      <c r="A249" s="18">
         <v>2370</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C249" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D249" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="E249">
+      <c r="E249" s="18">
         <v>9.4001400000000004</v>
       </c>
-      <c r="F249">
+      <c r="F249" s="18">
         <v>49.427259999999997</v>
       </c>
-      <c r="G249" t="s">
+      <c r="G249" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H249">
+      <c r="H249" s="18">
         <v>23</v>
       </c>
-      <c r="I249" t="s">
+      <c r="I249" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J249">
+      <c r="J249" s="18">
         <v>92</v>
       </c>
-      <c r="K249">
+      <c r="K249" s="18">
         <v>13</v>
       </c>
-      <c r="L249">
+      <c r="L249" s="18">
         <v>2</v>
       </c>
-      <c r="M249">
+      <c r="M249" s="18">
         <v>131411</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A250">
+      <c r="A250" s="18">
         <v>2376</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="18">
         <v>1798</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C250" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="D250">
+      <c r="D250" s="18">
         <v>132566</v>
       </c>
-      <c r="E250">
+      <c r="E250" s="18">
         <v>9.4122599999999998</v>
       </c>
-      <c r="F250">
+      <c r="F250" s="18">
         <v>49.471400000000003</v>
       </c>
-      <c r="G250" t="s">
+      <c r="G250" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H250">
+      <c r="H250" s="18">
         <v>23</v>
       </c>
-      <c r="I250" t="s">
+      <c r="I250" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J250">
+      <c r="J250" s="18">
         <v>92</v>
       </c>
-      <c r="K250">
+      <c r="K250" s="18">
         <v>13</v>
       </c>
-      <c r="L250">
-        <v>1</v>
-      </c>
-      <c r="M250">
+      <c r="L250" s="18">
+        <v>1</v>
+      </c>
+      <c r="M250" s="18">
         <v>132566</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A251">
+      <c r="A251" s="18">
         <v>2380</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="18">
         <v>1791</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C251" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="D251">
+      <c r="D251" s="18">
         <v>128415</v>
       </c>
-      <c r="E251">
+      <c r="E251" s="18">
         <v>9.4283800000000006</v>
       </c>
-      <c r="F251">
+      <c r="F251" s="18">
         <v>49.430799999999998</v>
       </c>
-      <c r="G251" t="s">
+      <c r="G251" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H251">
+      <c r="H251" s="18">
         <v>23</v>
       </c>
-      <c r="I251" t="s">
+      <c r="I251" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J251">
+      <c r="J251" s="18">
         <v>92</v>
       </c>
-      <c r="K251">
+      <c r="K251" s="18">
         <v>13</v>
       </c>
-      <c r="L251">
-        <v>1</v>
-      </c>
-      <c r="M251">
+      <c r="L251" s="18">
+        <v>1</v>
+      </c>
+      <c r="M251" s="18">
         <v>128415</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A252">
+      <c r="A252" s="18">
         <v>2390</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="18">
         <v>1793</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C252" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="D252">
+      <c r="D252" s="18">
         <v>129673</v>
       </c>
-      <c r="E252">
+      <c r="E252" s="18">
         <v>9.4538399999999996</v>
       </c>
-      <c r="F252">
+      <c r="F252" s="18">
         <v>49.48715</v>
       </c>
-      <c r="G252" t="s">
+      <c r="G252" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H252">
+      <c r="H252" s="18">
         <v>23</v>
       </c>
-      <c r="I252" t="s">
+      <c r="I252" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J252">
+      <c r="J252" s="18">
         <v>92</v>
       </c>
-      <c r="K252">
+      <c r="K252" s="18">
         <v>13</v>
       </c>
-      <c r="L252">
-        <v>1</v>
-      </c>
-      <c r="M252">
+      <c r="L252" s="18">
+        <v>1</v>
+      </c>
+      <c r="M252" s="18">
         <v>129673</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A253">
+      <c r="A253" s="18">
         <v>2394</v>
       </c>
-      <c r="B253">
+      <c r="B253" s="18">
         <v>1795</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C253" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="D253">
+      <c r="D253" s="18">
         <v>130012</v>
       </c>
-      <c r="E253">
+      <c r="E253" s="18">
         <v>9.4751999999999992</v>
       </c>
-      <c r="F253">
+      <c r="F253" s="18">
         <v>49.455829999999999</v>
       </c>
-      <c r="G253" t="s">
+      <c r="G253" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H253">
+      <c r="H253" s="18">
         <v>23</v>
       </c>
-      <c r="I253" t="s">
+      <c r="I253" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J253">
+      <c r="J253" s="18">
         <v>92</v>
       </c>
-      <c r="K253">
+      <c r="K253" s="18">
         <v>13</v>
       </c>
-      <c r="L253">
-        <v>1</v>
-      </c>
-      <c r="M253">
+      <c r="L253" s="18">
+        <v>1</v>
+      </c>
+      <c r="M253" s="18">
         <v>130012</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A254">
+      <c r="A254" s="18">
         <v>2395</v>
       </c>
-      <c r="B254">
+      <c r="B254" s="18">
         <v>1792</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C254" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="D254">
+      <c r="D254" s="18">
         <v>129623</v>
       </c>
-      <c r="E254">
+      <c r="E254" s="18">
         <v>9.4830500000000004</v>
       </c>
-      <c r="F254">
+      <c r="F254" s="18">
         <v>49.444600000000001</v>
       </c>
-      <c r="G254" t="s">
+      <c r="G254" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H254">
+      <c r="H254" s="18">
         <v>23</v>
       </c>
-      <c r="I254" t="s">
+      <c r="I254" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J254">
+      <c r="J254" s="18">
         <v>92</v>
       </c>
-      <c r="K254">
+      <c r="K254" s="18">
         <v>13</v>
       </c>
-      <c r="L254">
-        <v>1</v>
-      </c>
-      <c r="M254">
+      <c r="L254" s="18">
+        <v>1</v>
+      </c>
+      <c r="M254" s="18">
         <v>129623</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A255">
+      <c r="A255" s="18">
         <v>2402</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="18">
         <v>1800</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C255" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="D255">
+      <c r="D255" s="18">
         <v>132817</v>
       </c>
-      <c r="E255">
+      <c r="E255" s="18">
         <v>9.5007400000000004</v>
       </c>
-      <c r="F255">
+      <c r="F255" s="18">
         <v>49.472969999999997</v>
       </c>
-      <c r="G255" t="s">
+      <c r="G255" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H255">
+      <c r="H255" s="18">
         <v>23</v>
       </c>
-      <c r="I255" t="s">
+      <c r="I255" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J255">
+      <c r="J255" s="18">
         <v>92</v>
       </c>
-      <c r="K255">
+      <c r="K255" s="18">
         <v>13</v>
       </c>
-      <c r="L255">
-        <v>1</v>
-      </c>
-      <c r="M255">
+      <c r="L255" s="18">
+        <v>1</v>
+      </c>
+      <c r="M255" s="18">
         <v>132817</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A256">
+      <c r="A256" s="18">
         <v>2407</v>
       </c>
-      <c r="B256">
+      <c r="B256" s="18">
         <v>1799</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C256" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="D256">
+      <c r="D256" s="18">
         <v>128219</v>
       </c>
-      <c r="E256">
+      <c r="E256" s="18">
         <v>9.5168499999999998</v>
       </c>
-      <c r="F256">
+      <c r="F256" s="18">
         <v>49.491680000000002</v>
       </c>
-      <c r="G256" t="s">
+      <c r="G256" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H256">
+      <c r="H256" s="18">
         <v>24</v>
       </c>
-      <c r="I256" t="s">
+      <c r="I256" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J256">
+      <c r="J256" s="18">
         <v>92</v>
       </c>
-      <c r="K256">
+      <c r="K256" s="18">
         <v>11</v>
       </c>
-      <c r="L256">
-        <v>1</v>
-      </c>
-      <c r="M256">
+      <c r="L256" s="18">
+        <v>1</v>
+      </c>
+      <c r="M256" s="18">
         <v>128219</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A257">
+      <c r="A257" s="18">
         <v>2415</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="18">
         <v>1801</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C257" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="D257">
+      <c r="D257" s="18">
         <v>132692</v>
       </c>
-      <c r="E257">
+      <c r="E257" s="18">
         <v>9.5404199999999992</v>
       </c>
-      <c r="F257">
+      <c r="F257" s="18">
         <v>49.474899999999998</v>
       </c>
-      <c r="G257" t="s">
+      <c r="G257" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H257">
+      <c r="H257" s="18">
         <v>24</v>
       </c>
-      <c r="I257" t="s">
+      <c r="I257" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J257">
+      <c r="J257" s="18">
         <v>92</v>
       </c>
-      <c r="K257">
+      <c r="K257" s="18">
         <v>11</v>
       </c>
-      <c r="L257">
-        <v>1</v>
-      </c>
-      <c r="M257">
+      <c r="L257" s="18">
+        <v>1</v>
+      </c>
+      <c r="M257" s="18">
         <v>132692</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A258">
+      <c r="A258" s="18">
         <v>2422</v>
       </c>
-      <c r="B258">
+      <c r="B258" s="18">
         <v>1805</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C258" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="D258">
+      <c r="D258" s="18">
         <v>128976</v>
       </c>
-      <c r="E258">
+      <c r="E258" s="18">
         <v>9.55565</v>
       </c>
-      <c r="F258">
+      <c r="F258" s="18">
         <v>49.43027</v>
       </c>
-      <c r="G258" t="s">
+      <c r="G258" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H258">
+      <c r="H258" s="18">
         <v>24</v>
       </c>
-      <c r="I258" t="s">
+      <c r="I258" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J258">
+      <c r="J258" s="18">
         <v>92</v>
       </c>
-      <c r="K258">
+      <c r="K258" s="18">
         <v>11</v>
       </c>
-      <c r="L258">
-        <v>1</v>
-      </c>
-      <c r="M258">
+      <c r="L258" s="18">
+        <v>1</v>
+      </c>
+      <c r="M258" s="18">
         <v>128976</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A259">
+      <c r="A259" s="18">
         <v>2429</v>
       </c>
-      <c r="B259">
+      <c r="B259" s="18">
         <v>1802</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C259" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="D259">
+      <c r="D259" s="18">
         <v>131156</v>
       </c>
-      <c r="E259">
+      <c r="E259" s="18">
         <v>9.5746099999999998</v>
       </c>
-      <c r="F259">
+      <c r="F259" s="18">
         <v>49.460349999999998</v>
       </c>
-      <c r="G259" t="s">
+      <c r="G259" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H259">
+      <c r="H259" s="18">
         <v>24</v>
       </c>
-      <c r="I259" t="s">
+      <c r="I259" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J259">
+      <c r="J259" s="18">
         <v>92</v>
       </c>
-      <c r="K259">
+      <c r="K259" s="18">
         <v>11</v>
       </c>
-      <c r="L259">
-        <v>1</v>
-      </c>
-      <c r="M259">
+      <c r="L259" s="18">
+        <v>1</v>
+      </c>
+      <c r="M259" s="18">
         <v>131156</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A260">
+      <c r="A260" s="18">
         <v>2436</v>
       </c>
-      <c r="B260">
+      <c r="B260" s="18">
         <v>1807</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C260" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="D260">
+      <c r="D260" s="18">
         <v>127821</v>
       </c>
-      <c r="E260">
+      <c r="E260" s="18">
         <v>9.5972600000000003</v>
       </c>
-      <c r="F260">
+      <c r="F260" s="18">
         <v>49.485720000000001</v>
       </c>
-      <c r="G260" t="s">
+      <c r="G260" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H260">
+      <c r="H260" s="18">
         <v>24</v>
       </c>
-      <c r="I260" t="s">
+      <c r="I260" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J260">
+      <c r="J260" s="18">
         <v>92</v>
       </c>
-      <c r="K260">
+      <c r="K260" s="18">
         <v>11</v>
       </c>
-      <c r="L260">
-        <v>1</v>
-      </c>
-      <c r="M260">
+      <c r="L260" s="18">
+        <v>1</v>
+      </c>
+      <c r="M260" s="18">
         <v>127821</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A261">
+      <c r="A261" s="18">
         <v>2438</v>
       </c>
-      <c r="B261">
+      <c r="B261" s="18">
         <v>1803</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C261" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="D261">
+      <c r="D261" s="18">
         <v>131529</v>
       </c>
-      <c r="E261">
+      <c r="E261" s="18">
         <v>9.6019600000000001</v>
       </c>
-      <c r="F261">
+      <c r="F261" s="18">
         <v>49.455689999999997</v>
       </c>
-      <c r="G261" t="s">
+      <c r="G261" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H261">
+      <c r="H261" s="18">
         <v>24</v>
       </c>
-      <c r="I261" t="s">
+      <c r="I261" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J261">
+      <c r="J261" s="18">
         <v>92</v>
       </c>
-      <c r="K261">
+      <c r="K261" s="18">
         <v>11</v>
       </c>
-      <c r="L261">
-        <v>1</v>
-      </c>
-      <c r="M261">
+      <c r="L261" s="18">
+        <v>1</v>
+      </c>
+      <c r="M261" s="18">
         <v>131529</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A262">
+      <c r="A262" s="18">
         <v>2447</v>
       </c>
-      <c r="B262">
+      <c r="B262" s="18">
         <v>1804</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C262" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="D262">
+      <c r="D262" s="18">
         <v>134092</v>
       </c>
-      <c r="E262">
+      <c r="E262" s="18">
         <v>9.6219400000000004</v>
       </c>
-      <c r="F262">
+      <c r="F262" s="18">
         <v>49.435929999999999</v>
       </c>
-      <c r="G262" t="s">
+      <c r="G262" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H262">
+      <c r="H262" s="18">
         <v>24</v>
       </c>
-      <c r="I262" t="s">
+      <c r="I262" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J262">
+      <c r="J262" s="18">
         <v>92</v>
       </c>
-      <c r="K262">
+      <c r="K262" s="18">
         <v>11</v>
       </c>
-      <c r="L262">
-        <v>1</v>
-      </c>
-      <c r="M262">
+      <c r="L262" s="18">
+        <v>1</v>
+      </c>
+      <c r="M262" s="18">
         <v>134092</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A263">
+      <c r="A263" s="18">
         <v>2451</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="18">
         <v>1808</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C263" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="D263">
+      <c r="D263" s="18">
         <v>132374</v>
       </c>
-      <c r="E263">
+      <c r="E263" s="18">
         <v>9.6301100000000002</v>
       </c>
-      <c r="F263">
+      <c r="F263" s="18">
         <v>49.484940000000002</v>
       </c>
-      <c r="G263" t="s">
+      <c r="G263" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H263">
+      <c r="H263" s="18">
         <v>24</v>
       </c>
-      <c r="I263" t="s">
+      <c r="I263" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J263">
+      <c r="J263" s="18">
         <v>92</v>
       </c>
-      <c r="K263">
+      <c r="K263" s="18">
         <v>11</v>
       </c>
-      <c r="L263">
-        <v>1</v>
-      </c>
-      <c r="M263">
+      <c r="L263" s="18">
+        <v>1</v>
+      </c>
+      <c r="M263" s="18">
         <v>132374</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A264">
+      <c r="A264" s="18">
         <v>2458</v>
       </c>
-      <c r="B264">
+      <c r="B264" s="18">
         <v>1809</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C264" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="D264">
+      <c r="D264" s="18">
         <v>132415</v>
       </c>
-      <c r="E264">
+      <c r="E264" s="18">
         <v>9.6429799999999997</v>
       </c>
-      <c r="F264">
+      <c r="F264" s="18">
         <v>49.481810000000003</v>
       </c>
-      <c r="G264" t="s">
+      <c r="G264" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H264">
+      <c r="H264" s="18">
         <v>24</v>
       </c>
-      <c r="I264" t="s">
+      <c r="I264" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J264">
+      <c r="J264" s="18">
         <v>92</v>
       </c>
-      <c r="K264">
+      <c r="K264" s="18">
         <v>11</v>
       </c>
-      <c r="L264">
-        <v>1</v>
-      </c>
-      <c r="M264">
+      <c r="L264" s="18">
+        <v>1</v>
+      </c>
+      <c r="M264" s="18">
         <v>132415</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A265">
+      <c r="A265" s="18">
         <v>2463</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="18">
         <v>1811</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C265" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="D265">
+      <c r="D265" s="18">
         <v>127727</v>
       </c>
-      <c r="E265">
+      <c r="E265" s="18">
         <v>9.6657600000000006</v>
       </c>
-      <c r="F265">
+      <c r="F265" s="18">
         <v>49.492240000000002</v>
       </c>
-      <c r="G265" t="s">
+      <c r="G265" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H265">
+      <c r="H265" s="18">
         <v>24</v>
       </c>
-      <c r="I265" t="s">
+      <c r="I265" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J265">
+      <c r="J265" s="18">
         <v>92</v>
       </c>
-      <c r="K265">
+      <c r="K265" s="18">
         <v>11</v>
       </c>
-      <c r="L265">
-        <v>1</v>
-      </c>
-      <c r="M265">
+      <c r="L265" s="18">
+        <v>1</v>
+      </c>
+      <c r="M265" s="18">
         <v>127727</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A266">
+      <c r="A266" s="18">
         <v>2465</v>
       </c>
-      <c r="B266">
+      <c r="B266" s="18">
         <v>1812</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C266" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="D266">
+      <c r="D266" s="18">
         <v>134100</v>
       </c>
-      <c r="E266">
+      <c r="E266" s="18">
         <v>9.6739800000000002</v>
       </c>
-      <c r="F266">
+      <c r="F266" s="18">
         <v>49.466070000000002</v>
       </c>
-      <c r="G266" t="s">
+      <c r="G266" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H266">
+      <c r="H266" s="18">
         <v>24</v>
       </c>
-      <c r="I266" t="s">
+      <c r="I266" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J266">
+      <c r="J266" s="18">
         <v>92</v>
       </c>
-      <c r="K266">
+      <c r="K266" s="18">
         <v>11</v>
       </c>
-      <c r="L266">
-        <v>1</v>
-      </c>
-      <c r="M266">
+      <c r="L266" s="18">
+        <v>1</v>
+      </c>
+      <c r="M266" s="18">
         <v>134100</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A267">
+      <c r="A267" s="18">
         <v>2471</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="18">
         <v>1813</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C267" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="D267">
+      <c r="D267" s="18">
         <v>129370</v>
       </c>
-      <c r="E267">
+      <c r="E267" s="18">
         <v>9.6873799999999992</v>
       </c>
-      <c r="F267">
+      <c r="F267" s="18">
         <v>49.42689</v>
       </c>
-      <c r="G267" t="s">
+      <c r="G267" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H267">
+      <c r="H267" s="18">
         <v>25</v>
       </c>
-      <c r="I267" t="s">
+      <c r="I267" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J267">
+      <c r="J267" s="18">
         <v>92</v>
       </c>
-      <c r="K267">
+      <c r="K267" s="18">
         <v>2</v>
       </c>
-      <c r="L267">
-        <v>1</v>
-      </c>
-      <c r="M267">
+      <c r="L267" s="18">
+        <v>1</v>
+      </c>
+      <c r="M267" s="18">
         <v>129370</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A268">
+      <c r="A268" s="18">
         <v>2478</v>
       </c>
-      <c r="B268">
+      <c r="B268" s="18">
         <v>1810</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C268" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="D268">
+      <c r="D268" s="18">
         <v>133431</v>
       </c>
-      <c r="E268">
+      <c r="E268" s="18">
         <v>9.7155299999999993</v>
       </c>
-      <c r="F268">
+      <c r="F268" s="18">
         <v>49.49662</v>
       </c>
-      <c r="G268" t="s">
+      <c r="G268" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H268">
+      <c r="H268" s="18">
         <v>25</v>
       </c>
-      <c r="I268" t="s">
+      <c r="I268" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J268">
+      <c r="J268" s="18">
         <v>92</v>
       </c>
-      <c r="K268">
+      <c r="K268" s="18">
         <v>2</v>
       </c>
-      <c r="L268">
-        <v>1</v>
-      </c>
-      <c r="M268">
+      <c r="L268" s="18">
+        <v>1</v>
+      </c>
+      <c r="M268" s="18">
         <v>133431</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A269">
+      <c r="A269" s="18">
         <v>2361</v>
       </c>
-      <c r="B269">
+      <c r="B269" s="18">
         <v>1879</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C269" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="D269">
+      <c r="D269" s="18">
         <v>128009</v>
       </c>
-      <c r="E269">
+      <c r="E269" s="18">
         <v>9.3843800000000002</v>
       </c>
-      <c r="F269">
+      <c r="F269" s="18">
         <v>49.380450000000003</v>
       </c>
-      <c r="G269" t="s">
+      <c r="G269" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H269">
+      <c r="H269" s="18">
         <v>23</v>
       </c>
-      <c r="I269" t="s">
+      <c r="I269" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J269">
+      <c r="J269" s="18">
         <v>93</v>
       </c>
-      <c r="K269">
+      <c r="K269" s="18">
         <v>6</v>
       </c>
-      <c r="L269">
-        <v>1</v>
-      </c>
-      <c r="M269">
+      <c r="L269" s="18">
+        <v>1</v>
+      </c>
+      <c r="M269" s="18">
         <v>128009</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A270">
+      <c r="A270" s="18">
         <v>2365</v>
       </c>
-      <c r="B270">
+      <c r="B270" s="18">
         <v>1878</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C270" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="D270">
+      <c r="D270" s="18">
         <v>133297</v>
       </c>
-      <c r="E270">
+      <c r="E270" s="18">
         <v>9.3910099999999996</v>
       </c>
-      <c r="F270">
+      <c r="F270" s="18">
         <v>49.402889999999999</v>
       </c>
-      <c r="G270" t="s">
+      <c r="G270" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H270">
+      <c r="H270" s="18">
         <v>23</v>
       </c>
-      <c r="I270" t="s">
+      <c r="I270" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J270">
+      <c r="J270" s="18">
         <v>93</v>
       </c>
-      <c r="K270">
+      <c r="K270" s="18">
         <v>6</v>
       </c>
-      <c r="L270">
-        <v>1</v>
-      </c>
-      <c r="M270">
+      <c r="L270" s="18">
+        <v>1</v>
+      </c>
+      <c r="M270" s="18">
         <v>133297</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A271">
+      <c r="A271" s="18">
         <v>2368</v>
       </c>
-      <c r="B271">
+      <c r="B271" s="18">
         <v>1882</v>
       </c>
-      <c r="C271" t="s">
+      <c r="C271" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="D271">
+      <c r="D271" s="18">
         <v>130083</v>
       </c>
-      <c r="E271">
+      <c r="E271" s="18">
         <v>9.3973200000000006</v>
       </c>
-      <c r="F271">
+      <c r="F271" s="18">
         <v>49.355939999999997</v>
       </c>
-      <c r="G271" t="s">
+      <c r="G271" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H271">
+      <c r="H271" s="18">
         <v>23</v>
       </c>
-      <c r="I271" t="s">
+      <c r="I271" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J271">
+      <c r="J271" s="18">
         <v>93</v>
       </c>
-      <c r="K271">
+      <c r="K271" s="18">
         <v>6</v>
       </c>
-      <c r="L271">
-        <v>1</v>
-      </c>
-      <c r="M271">
+      <c r="L271" s="18">
+        <v>1</v>
+      </c>
+      <c r="M271" s="18">
         <v>130083</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A272">
+      <c r="A272" s="18">
         <v>2378</v>
       </c>
-      <c r="B272">
+      <c r="B272" s="18">
         <v>1880</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C272" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="D272">
+      <c r="D272" s="18">
         <v>130624</v>
       </c>
-      <c r="E272">
+      <c r="E272" s="18">
         <v>9.42028</v>
       </c>
-      <c r="F272">
+      <c r="F272" s="18">
         <v>49.368609999999997</v>
       </c>
-      <c r="G272" t="s">
+      <c r="G272" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H272">
+      <c r="H272" s="18">
         <v>23</v>
       </c>
-      <c r="I272" t="s">
+      <c r="I272" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J272">
+      <c r="J272" s="18">
         <v>93</v>
       </c>
-      <c r="K272">
+      <c r="K272" s="18">
         <v>6</v>
       </c>
-      <c r="L272">
-        <v>1</v>
-      </c>
-      <c r="M272">
+      <c r="L272" s="18">
+        <v>1</v>
+      </c>
+      <c r="M272" s="18">
         <v>130624</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A273">
+      <c r="A273" s="18">
         <v>2385</v>
       </c>
-      <c r="B273">
+      <c r="B273" s="18">
         <v>1881</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C273" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="D273">
+      <c r="D273" s="18">
         <v>128827</v>
       </c>
-      <c r="E273">
+      <c r="E273" s="18">
         <v>9.4382900000000003</v>
       </c>
-      <c r="F273">
+      <c r="F273" s="18">
         <v>49.345709999999997</v>
       </c>
-      <c r="G273" t="s">
+      <c r="G273" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H273">
+      <c r="H273" s="18">
         <v>23</v>
       </c>
-      <c r="I273" t="s">
+      <c r="I273" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J273">
+      <c r="J273" s="18">
         <v>93</v>
       </c>
-      <c r="K273">
+      <c r="K273" s="18">
         <v>6</v>
       </c>
-      <c r="L273">
-        <v>1</v>
-      </c>
-      <c r="M273">
+      <c r="L273" s="18">
+        <v>1</v>
+      </c>
+      <c r="M273" s="18">
         <v>128827</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A274">
+      <c r="A274" s="18">
         <v>2406</v>
       </c>
-      <c r="B274">
+      <c r="B274" s="18">
         <v>1893</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C274" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="D274">
+      <c r="D274" s="18">
         <v>132776</v>
       </c>
-      <c r="E274">
+      <c r="E274" s="18">
         <v>9.5063300000000002</v>
       </c>
-      <c r="F274">
+      <c r="F274" s="18">
         <v>49.400300000000001</v>
       </c>
-      <c r="G274" t="s">
+      <c r="G274" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H274">
+      <c r="H274" s="18">
         <v>23</v>
       </c>
-      <c r="I274" t="s">
+      <c r="I274" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J274">
+      <c r="J274" s="18">
         <v>93</v>
       </c>
-      <c r="K274">
+      <c r="K274" s="18">
         <v>6</v>
       </c>
-      <c r="L274">
-        <v>1</v>
-      </c>
-      <c r="M274">
+      <c r="L274" s="18">
+        <v>1</v>
+      </c>
+      <c r="M274" s="18">
         <v>132776</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A275">
+      <c r="A275" s="18">
         <v>2408</v>
       </c>
-      <c r="B275">
+      <c r="B275" s="18">
         <v>1883</v>
       </c>
-      <c r="C275" t="s">
+      <c r="C275" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="D275">
+      <c r="D275" s="18">
         <v>128355</v>
       </c>
-      <c r="E275">
+      <c r="E275" s="18">
         <v>9.5182300000000009</v>
       </c>
-      <c r="F275">
+      <c r="F275" s="18">
         <v>49.412570000000002</v>
       </c>
-      <c r="G275" t="s">
+      <c r="G275" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H275">
+      <c r="H275" s="18">
         <v>24</v>
       </c>
-      <c r="I275" t="s">
+      <c r="I275" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J275">
+      <c r="J275" s="18">
         <v>93</v>
       </c>
-      <c r="K275">
+      <c r="K275" s="18">
         <v>11</v>
       </c>
-      <c r="L275">
-        <v>1</v>
-      </c>
-      <c r="M275">
+      <c r="L275" s="18">
+        <v>1</v>
+      </c>
+      <c r="M275" s="18">
         <v>128355</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A276">
+      <c r="A276" s="18">
         <v>2418</v>
       </c>
-      <c r="B276">
+      <c r="B276" s="18">
         <v>1892</v>
       </c>
-      <c r="C276" t="s">
+      <c r="C276" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="D276">
+      <c r="D276" s="18">
         <v>128896</v>
       </c>
-      <c r="E276">
+      <c r="E276" s="18">
         <v>9.5493600000000001</v>
       </c>
-      <c r="F276">
+      <c r="F276" s="18">
         <v>49.410040000000002</v>
       </c>
-      <c r="G276" t="s">
+      <c r="G276" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H276">
+      <c r="H276" s="18">
         <v>24</v>
       </c>
-      <c r="I276" t="s">
+      <c r="I276" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J276">
+      <c r="J276" s="18">
         <v>93</v>
       </c>
-      <c r="K276">
+      <c r="K276" s="18">
         <v>11</v>
       </c>
-      <c r="L276">
-        <v>1</v>
-      </c>
-      <c r="M276">
+      <c r="L276" s="18">
+        <v>1</v>
+      </c>
+      <c r="M276" s="18">
         <v>128896</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A277">
+      <c r="A277" s="18">
         <v>2419</v>
       </c>
-      <c r="B277">
+      <c r="B277" s="18">
         <v>1884</v>
       </c>
-      <c r="C277" t="s">
+      <c r="C277" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="D277">
+      <c r="D277" s="18">
         <v>132269</v>
       </c>
-      <c r="E277">
+      <c r="E277" s="18">
         <v>9.5508600000000001</v>
       </c>
-      <c r="F277">
+      <c r="F277" s="18">
         <v>49.400930000000002</v>
       </c>
-      <c r="G277" t="s">
+      <c r="G277" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H277">
+      <c r="H277" s="18">
         <v>24</v>
       </c>
-      <c r="I277" t="s">
+      <c r="I277" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J277">
+      <c r="J277" s="18">
         <v>93</v>
       </c>
-      <c r="K277">
+      <c r="K277" s="18">
         <v>11</v>
       </c>
-      <c r="L277">
-        <v>1</v>
-      </c>
-      <c r="M277">
+      <c r="L277" s="18">
+        <v>1</v>
+      </c>
+      <c r="M277" s="18">
         <v>132269</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A278">
+      <c r="A278" s="18">
         <v>2420</v>
       </c>
-      <c r="B278">
+      <c r="B278" s="18">
         <v>1885</v>
       </c>
-      <c r="C278" t="s">
+      <c r="C278" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="D278">
+      <c r="D278" s="18">
         <v>133983</v>
       </c>
-      <c r="E278">
+      <c r="E278" s="18">
         <v>9.5513999999999992</v>
       </c>
-      <c r="F278">
+      <c r="F278" s="18">
         <v>49.385530000000003</v>
       </c>
-      <c r="G278" t="s">
+      <c r="G278" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H278">
+      <c r="H278" s="18">
         <v>24</v>
       </c>
-      <c r="I278" t="s">
+      <c r="I278" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J278">
+      <c r="J278" s="18">
         <v>93</v>
       </c>
-      <c r="K278">
+      <c r="K278" s="18">
         <v>11</v>
       </c>
-      <c r="L278">
-        <v>1</v>
-      </c>
-      <c r="M278">
+      <c r="L278" s="18">
+        <v>1</v>
+      </c>
+      <c r="M278" s="18">
         <v>133983</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A279">
+      <c r="A279" s="18">
         <v>2428</v>
       </c>
-      <c r="B279">
+      <c r="B279" s="18">
         <v>1891</v>
       </c>
-      <c r="C279" t="s">
+      <c r="C279" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="D279">
+      <c r="D279" s="18">
         <v>129536</v>
       </c>
-      <c r="E279">
+      <c r="E279" s="18">
         <v>9.5722900000000006</v>
       </c>
-      <c r="F279">
+      <c r="F279" s="18">
         <v>49.356279999999998</v>
       </c>
-      <c r="G279" t="s">
+      <c r="G279" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H279">
+      <c r="H279" s="18">
         <v>24</v>
       </c>
-      <c r="I279" t="s">
+      <c r="I279" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J279">
+      <c r="J279" s="18">
         <v>93</v>
       </c>
-      <c r="K279">
+      <c r="K279" s="18">
         <v>11</v>
       </c>
-      <c r="L279">
-        <v>1</v>
-      </c>
-      <c r="M279">
+      <c r="L279" s="18">
+        <v>1</v>
+      </c>
+      <c r="M279" s="18">
         <v>129536</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A280">
+      <c r="A280" s="18">
         <v>2433</v>
       </c>
-      <c r="B280">
+      <c r="B280" s="18">
         <v>1886</v>
       </c>
-      <c r="C280" t="s">
+      <c r="C280" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="D280">
+      <c r="D280" s="18">
         <v>131163</v>
       </c>
-      <c r="E280">
+      <c r="E280" s="18">
         <v>9.5918100000000006</v>
       </c>
-      <c r="F280">
+      <c r="F280" s="18">
         <v>49.408169999999998</v>
       </c>
-      <c r="G280" t="s">
+      <c r="G280" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H280">
+      <c r="H280" s="18">
         <v>24</v>
       </c>
-      <c r="I280" t="s">
+      <c r="I280" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J280">
+      <c r="J280" s="18">
         <v>93</v>
       </c>
-      <c r="K280">
+      <c r="K280" s="18">
         <v>11</v>
       </c>
-      <c r="L280">
-        <v>1</v>
-      </c>
-      <c r="M280">
+      <c r="L280" s="18">
+        <v>1</v>
+      </c>
+      <c r="M280" s="18">
         <v>131163</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A281">
+      <c r="A281" s="18">
         <v>2442</v>
       </c>
-      <c r="B281">
+      <c r="B281" s="18">
         <v>1890</v>
       </c>
-      <c r="C281" t="s">
+      <c r="C281" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="D281">
+      <c r="D281" s="18">
         <v>129606</v>
       </c>
-      <c r="E281">
+      <c r="E281" s="18">
         <v>9.6125299999999996</v>
       </c>
-      <c r="F281">
+      <c r="F281" s="18">
         <v>49.368769999999998</v>
       </c>
-      <c r="G281" t="s">
+      <c r="G281" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H281">
+      <c r="H281" s="18">
         <v>24</v>
       </c>
-      <c r="I281" t="s">
+      <c r="I281" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J281">
+      <c r="J281" s="18">
         <v>93</v>
       </c>
-      <c r="K281">
+      <c r="K281" s="18">
         <v>11</v>
       </c>
-      <c r="L281">
-        <v>1</v>
-      </c>
-      <c r="M281">
+      <c r="L281" s="18">
+        <v>1</v>
+      </c>
+      <c r="M281" s="18">
         <v>129606</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A282">
+      <c r="A282" s="18">
         <v>2443</v>
       </c>
-      <c r="B282">
+      <c r="B282" s="18">
         <v>1887</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C282" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="D282">
+      <c r="D282" s="18">
         <v>133029</v>
       </c>
-      <c r="E282">
+      <c r="E282" s="18">
         <v>9.6126699999999996</v>
       </c>
-      <c r="F282">
+      <c r="F282" s="18">
         <v>49.411140000000003</v>
       </c>
-      <c r="G282" t="s">
+      <c r="G282" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H282">
+      <c r="H282" s="18">
         <v>24</v>
       </c>
-      <c r="I282" t="s">
+      <c r="I282" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J282">
+      <c r="J282" s="18">
         <v>93</v>
       </c>
-      <c r="K282">
+      <c r="K282" s="18">
         <v>11</v>
       </c>
-      <c r="L282">
-        <v>1</v>
-      </c>
-      <c r="M282">
+      <c r="L282" s="18">
+        <v>1</v>
+      </c>
+      <c r="M282" s="18">
         <v>133029</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A283">
+      <c r="A283" s="18">
         <v>2452</v>
       </c>
-      <c r="B283">
+      <c r="B283" s="18">
         <v>1889</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C283" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="D283">
+      <c r="D283" s="18">
         <v>131526</v>
       </c>
-      <c r="E283">
+      <c r="E283" s="18">
         <v>9.6336899999999996</v>
       </c>
-      <c r="F283">
+      <c r="F283" s="18">
         <v>49.391590000000001</v>
       </c>
-      <c r="G283" t="s">
+      <c r="G283" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H283">
+      <c r="H283" s="18">
         <v>24</v>
       </c>
-      <c r="I283" t="s">
+      <c r="I283" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J283">
+      <c r="J283" s="18">
         <v>93</v>
       </c>
-      <c r="K283">
+      <c r="K283" s="18">
         <v>11</v>
       </c>
-      <c r="L283">
-        <v>1</v>
-      </c>
-      <c r="M283">
+      <c r="L283" s="18">
+        <v>1</v>
+      </c>
+      <c r="M283" s="18">
         <v>131526</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A284">
+      <c r="A284" s="18">
         <v>2461</v>
       </c>
-      <c r="B284">
+      <c r="B284" s="18">
         <v>1888</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C284" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="D284">
+      <c r="D284" s="18">
         <v>128472</v>
       </c>
-      <c r="E284">
+      <c r="E284" s="18">
         <v>9.6602800000000002</v>
       </c>
-      <c r="F284">
+      <c r="F284" s="18">
         <v>49.408259999999999</v>
       </c>
-      <c r="G284" t="s">
+      <c r="G284" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H284">
+      <c r="H284" s="18">
         <v>24</v>
       </c>
-      <c r="I284" t="s">
+      <c r="I284" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J284">
+      <c r="J284" s="18">
         <v>93</v>
       </c>
-      <c r="K284">
+      <c r="K284" s="18">
         <v>11</v>
       </c>
-      <c r="L284">
-        <v>1</v>
-      </c>
-      <c r="M284">
+      <c r="L284" s="18">
+        <v>1</v>
+      </c>
+      <c r="M284" s="18">
         <v>128472</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A285">
+      <c r="A285" s="18">
         <v>2464</v>
       </c>
-      <c r="B285">
+      <c r="B285" s="18">
         <v>1894</v>
       </c>
-      <c r="C285" t="s">
+      <c r="C285" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="D285">
+      <c r="D285" s="18">
         <v>132661</v>
       </c>
-      <c r="E285">
+      <c r="E285" s="18">
         <v>9.6715599999999995</v>
       </c>
-      <c r="F285">
+      <c r="F285" s="18">
         <v>49.38805</v>
       </c>
-      <c r="G285" t="s">
+      <c r="G285" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H285">
+      <c r="H285" s="18">
         <v>24</v>
       </c>
-      <c r="I285" t="s">
+      <c r="I285" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J285">
+      <c r="J285" s="18">
         <v>93</v>
       </c>
-      <c r="K285">
+      <c r="K285" s="18">
         <v>11</v>
       </c>
-      <c r="L285">
-        <v>1</v>
-      </c>
-      <c r="M285">
+      <c r="L285" s="18">
+        <v>1</v>
+      </c>
+      <c r="M285" s="18">
         <v>132661</v>
       </c>
     </row>
@@ -86886,4926 +86902,5116 @@
       </c>
     </row>
     <row r="1898" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1898">
+      <c r="A1898" s="18">
         <v>1696</v>
       </c>
-      <c r="B1898">
+      <c r="B1898" s="18">
         <v>1371</v>
       </c>
-      <c r="C1898" t="s">
+      <c r="C1898" s="19" t="s">
         <v>2125</v>
       </c>
-      <c r="D1898">
+      <c r="D1898" s="18">
         <v>132982</v>
       </c>
-      <c r="E1898">
+      <c r="E1898" s="18">
         <v>8.3923000000000005</v>
       </c>
-      <c r="F1898">
+      <c r="F1898" s="18">
         <v>49.099330000000002</v>
       </c>
-      <c r="G1898" t="s">
+      <c r="G1898" s="18" t="s">
         <v>2126</v>
       </c>
-      <c r="H1898">
+      <c r="H1898" s="18">
         <v>17</v>
       </c>
-      <c r="I1898" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1898">
+      <c r="I1898" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1898" s="18">
         <v>20</v>
       </c>
-      <c r="K1898">
+      <c r="K1898" s="18">
         <v>7</v>
       </c>
-      <c r="L1898">
-        <v>1</v>
-      </c>
-      <c r="M1898">
+      <c r="L1898" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1898" s="18">
         <v>132982</v>
       </c>
+      <c r="N1898" s="18" t="s">
+        <v>2572</v>
+      </c>
     </row>
     <row r="1899" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1899">
+      <c r="A1899" s="18">
         <v>1698</v>
       </c>
-      <c r="B1899">
+      <c r="B1899" s="18">
         <v>1414</v>
       </c>
-      <c r="C1899" t="s">
+      <c r="C1899" s="19" t="s">
         <v>2127</v>
       </c>
-      <c r="D1899">
+      <c r="D1899" s="18">
         <v>133237</v>
       </c>
-      <c r="E1899">
+      <c r="E1899" s="18">
         <v>8.3957200000000007</v>
       </c>
-      <c r="F1899">
+      <c r="F1899" s="18">
         <v>49.084820000000001</v>
       </c>
-      <c r="G1899" t="s">
+      <c r="G1899" s="18" t="s">
         <v>2126</v>
       </c>
-      <c r="H1899">
+      <c r="H1899" s="18">
         <v>17</v>
       </c>
-      <c r="I1899" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1899">
+      <c r="I1899" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1899" s="18">
         <v>20</v>
       </c>
-      <c r="K1899">
+      <c r="K1899" s="18">
         <v>7</v>
       </c>
-      <c r="L1899">
-        <v>1</v>
-      </c>
-      <c r="M1899">
+      <c r="L1899" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1899" s="18">
         <v>133237</v>
       </c>
+      <c r="N1899" s="18" t="s">
+        <v>2572</v>
+      </c>
     </row>
     <row r="1900" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1900">
+      <c r="A1900" s="18">
         <v>1710</v>
       </c>
-      <c r="B1900">
+      <c r="B1900" s="18">
         <v>1370</v>
       </c>
-      <c r="C1900" t="s">
+      <c r="C1900" s="19" t="s">
         <v>2128</v>
       </c>
-      <c r="D1900">
+      <c r="D1900" s="18">
         <v>127902</v>
       </c>
-      <c r="E1900">
+      <c r="E1900" s="18">
         <v>8.4084400000000006</v>
       </c>
-      <c r="F1900">
+      <c r="F1900" s="18">
         <v>49.124180000000003</v>
       </c>
-      <c r="G1900" t="s">
+      <c r="G1900" s="18" t="s">
         <v>2126</v>
       </c>
-      <c r="H1900">
+      <c r="H1900" s="18">
         <v>17</v>
       </c>
-      <c r="I1900" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1900">
+      <c r="I1900" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1900" s="18">
         <v>20</v>
       </c>
-      <c r="K1900">
+      <c r="K1900" s="18">
         <v>7</v>
       </c>
-      <c r="L1900">
-        <v>1</v>
-      </c>
-      <c r="M1900">
+      <c r="L1900" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1900" s="18">
         <v>127902</v>
       </c>
+      <c r="N1900" s="18" t="s">
+        <v>2572</v>
+      </c>
     </row>
     <row r="1901" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1901">
+      <c r="A1901" s="18">
         <v>1715</v>
       </c>
-      <c r="B1901">
+      <c r="B1901" s="18">
         <v>1368</v>
       </c>
-      <c r="C1901" t="s">
+      <c r="C1901" s="19" t="s">
         <v>2129</v>
       </c>
-      <c r="D1901">
+      <c r="D1901" s="18">
         <v>130543</v>
       </c>
-      <c r="E1901">
+      <c r="E1901" s="18">
         <v>8.4145099999999999</v>
       </c>
-      <c r="F1901">
+      <c r="F1901" s="18">
         <v>49.162210000000002</v>
       </c>
-      <c r="G1901" t="s">
+      <c r="G1901" s="18" t="s">
         <v>2126</v>
       </c>
-      <c r="H1901">
+      <c r="H1901" s="18">
         <v>17</v>
       </c>
-      <c r="I1901" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1901">
+      <c r="I1901" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1901" s="18">
         <v>20</v>
       </c>
-      <c r="K1901">
+      <c r="K1901" s="18">
         <v>7</v>
       </c>
-      <c r="L1901">
-        <v>1</v>
-      </c>
-      <c r="M1901">
+      <c r="L1901" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1901" s="18">
         <v>130543</v>
       </c>
+      <c r="N1901" s="18" t="s">
+        <v>2572</v>
+      </c>
     </row>
     <row r="1902" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1902">
+      <c r="A1902" s="18">
         <v>1716</v>
       </c>
-      <c r="B1902">
+      <c r="B1902" s="18">
         <v>1369</v>
       </c>
-      <c r="C1902" t="s">
+      <c r="C1902" s="19" t="s">
         <v>2130</v>
       </c>
-      <c r="D1902">
+      <c r="D1902" s="18">
         <v>132522</v>
       </c>
-      <c r="E1902">
+      <c r="E1902" s="18">
         <v>8.4156600000000008</v>
       </c>
-      <c r="F1902">
+      <c r="F1902" s="18">
         <v>49.13702</v>
       </c>
-      <c r="G1902" t="s">
+      <c r="G1902" s="18" t="s">
         <v>2126</v>
       </c>
-      <c r="H1902">
+      <c r="H1902" s="18">
         <v>17</v>
       </c>
-      <c r="I1902" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1902">
+      <c r="I1902" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1902" s="18">
         <v>20</v>
       </c>
-      <c r="K1902">
+      <c r="K1902" s="18">
         <v>7</v>
       </c>
-      <c r="L1902">
-        <v>1</v>
-      </c>
-      <c r="M1902">
+      <c r="L1902" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1902" s="18">
         <v>132522</v>
       </c>
+      <c r="N1902" s="18" t="s">
+        <v>2572</v>
+      </c>
     </row>
     <row r="1903" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1903">
+      <c r="A1903" s="18">
         <v>1775</v>
       </c>
-      <c r="B1903">
+      <c r="B1903" s="18">
         <v>1372</v>
       </c>
-      <c r="C1903" t="s">
+      <c r="C1903" s="19" t="s">
         <v>2131</v>
       </c>
-      <c r="D1903">
+      <c r="D1903" s="18">
         <v>132481</v>
       </c>
-      <c r="E1903">
+      <c r="E1903" s="18">
         <v>8.4809099999999997</v>
       </c>
-      <c r="F1903">
+      <c r="F1903" s="18">
         <v>49.104810000000001</v>
       </c>
-      <c r="G1903" t="s">
+      <c r="G1903" s="18" t="s">
         <v>2126</v>
       </c>
-      <c r="H1903">
+      <c r="H1903" s="18">
         <v>17</v>
       </c>
-      <c r="I1903" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1903">
+      <c r="I1903" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1903" s="18">
         <v>20</v>
       </c>
-      <c r="K1903">
+      <c r="K1903" s="18">
         <v>7</v>
       </c>
-      <c r="L1903">
-        <v>1</v>
-      </c>
-      <c r="M1903">
+      <c r="L1903" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1903" s="18">
         <v>132481</v>
       </c>
+      <c r="N1903" s="18" t="s">
+        <v>2572</v>
+      </c>
     </row>
     <row r="1904" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1904">
+      <c r="A1904" s="18">
         <v>1781</v>
       </c>
-      <c r="B1904">
+      <c r="B1904" s="18">
         <v>1373</v>
       </c>
-      <c r="C1904" t="s">
+      <c r="C1904" s="19" t="s">
         <v>2132</v>
       </c>
-      <c r="D1904">
+      <c r="D1904" s="18">
         <v>132099</v>
       </c>
-      <c r="E1904">
+      <c r="E1904" s="18">
         <v>8.4892800000000008</v>
       </c>
-      <c r="F1904">
+      <c r="F1904" s="18">
         <v>49.165349999999997</v>
       </c>
-      <c r="G1904" t="s">
+      <c r="G1904" s="18" t="s">
         <v>2126</v>
       </c>
-      <c r="H1904">
+      <c r="H1904" s="18">
         <v>17</v>
       </c>
-      <c r="I1904" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1904">
+      <c r="I1904" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1904" s="18">
         <v>20</v>
       </c>
-      <c r="K1904">
+      <c r="K1904" s="18">
         <v>7</v>
       </c>
-      <c r="L1904">
-        <v>1</v>
-      </c>
-      <c r="M1904">
+      <c r="L1904" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1904" s="18">
         <v>132099</v>
       </c>
-    </row>
-    <row r="1905" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1905">
+      <c r="N1904" s="18" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1905" s="18">
         <v>1802</v>
       </c>
-      <c r="B1905">
+      <c r="B1905" s="18">
         <v>1378</v>
       </c>
-      <c r="C1905" t="s">
+      <c r="C1905" s="19" t="s">
         <v>2133</v>
       </c>
-      <c r="D1905">
+      <c r="D1905" s="18">
         <v>130306</v>
       </c>
-      <c r="E1905">
+      <c r="E1905" s="18">
         <v>8.5103299999999997</v>
       </c>
-      <c r="F1905">
+      <c r="F1905" s="18">
         <v>49.111789999999999</v>
       </c>
-      <c r="G1905" t="s">
+      <c r="G1905" s="18" t="s">
         <v>2126</v>
       </c>
-      <c r="H1905">
+      <c r="H1905" s="18">
         <v>18</v>
       </c>
-      <c r="I1905" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1905">
+      <c r="I1905" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1905" s="18">
         <v>20</v>
       </c>
-      <c r="K1905">
+      <c r="K1905" s="18">
         <v>12</v>
       </c>
-      <c r="L1905">
-        <v>1</v>
-      </c>
-      <c r="M1905">
+      <c r="L1905" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1905" s="18">
         <v>130306</v>
       </c>
-    </row>
-    <row r="1906" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1906">
+      <c r="N1905" s="18" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1906" s="18">
         <v>1803</v>
       </c>
-      <c r="B1906">
+      <c r="B1906" s="18">
         <v>1380</v>
       </c>
-      <c r="C1906" t="s">
+      <c r="C1906" s="19" t="s">
         <v>2134</v>
       </c>
-      <c r="D1906">
+      <c r="D1906" s="18">
         <v>128700</v>
       </c>
-      <c r="E1906">
+      <c r="E1906" s="18">
         <v>8.5103399999999993</v>
       </c>
-      <c r="F1906">
+      <c r="F1906" s="18">
         <v>49.090789999999998</v>
       </c>
-      <c r="G1906" t="s">
+      <c r="G1906" s="18" t="s">
         <v>2126</v>
       </c>
-      <c r="H1906">
+      <c r="H1906" s="18">
         <v>18</v>
       </c>
-      <c r="I1906" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1906">
+      <c r="I1906" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1906" s="18">
         <v>20</v>
       </c>
-      <c r="K1906">
+      <c r="K1906" s="18">
         <v>12</v>
       </c>
-      <c r="L1906">
-        <v>1</v>
-      </c>
-      <c r="M1906">
+      <c r="L1906" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1906" s="18">
         <v>128700</v>
       </c>
-    </row>
-    <row r="1907" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1907">
+      <c r="N1906" s="18" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1907" s="18">
         <v>1811</v>
       </c>
-      <c r="B1907">
+      <c r="B1907" s="18">
         <v>1377</v>
       </c>
-      <c r="C1907" t="s">
+      <c r="C1907" s="19" t="s">
         <v>2135</v>
       </c>
-      <c r="D1907">
+      <c r="D1907" s="18">
         <v>131469</v>
       </c>
-      <c r="E1907">
+      <c r="E1907" s="18">
         <v>8.5208600000000008</v>
       </c>
-      <c r="F1907">
+      <c r="F1907" s="18">
         <v>49.127800000000001</v>
       </c>
-      <c r="G1907" t="s">
+      <c r="G1907" s="18" t="s">
         <v>2126</v>
       </c>
-      <c r="H1907">
+      <c r="H1907" s="18">
         <v>18</v>
       </c>
-      <c r="I1907" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1907">
+      <c r="I1907" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1907" s="18">
         <v>20</v>
       </c>
-      <c r="K1907">
+      <c r="K1907" s="18">
         <v>12</v>
       </c>
-      <c r="L1907">
-        <v>1</v>
-      </c>
-      <c r="M1907">
+      <c r="L1907" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1907" s="18">
         <v>131469</v>
       </c>
-    </row>
-    <row r="1908" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1908">
+      <c r="N1907" s="18" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1908" s="18">
         <v>1816</v>
       </c>
-      <c r="B1908">
+      <c r="B1908" s="18">
         <v>1379</v>
       </c>
-      <c r="C1908" t="s">
+      <c r="C1908" s="18" t="s">
         <v>2136</v>
       </c>
-      <c r="D1908">
+      <c r="D1908" s="18">
         <v>130287</v>
       </c>
-      <c r="E1908">
+      <c r="E1908" s="18">
         <v>8.5276399999999999</v>
       </c>
-      <c r="F1908">
+      <c r="F1908" s="18">
         <v>49.100749999999998</v>
       </c>
-      <c r="G1908" t="s">
+      <c r="G1908" s="18" t="s">
         <v>2126</v>
       </c>
-      <c r="H1908">
+      <c r="H1908" s="18">
         <v>18</v>
       </c>
-      <c r="I1908" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1908">
+      <c r="I1908" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1908" s="18">
         <v>20</v>
       </c>
-      <c r="K1908">
+      <c r="K1908" s="18">
         <v>12</v>
       </c>
-      <c r="L1908">
-        <v>1</v>
-      </c>
-      <c r="M1908">
+      <c r="L1908" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1908" s="18">
         <v>130287</v>
       </c>
-    </row>
-    <row r="1909" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1909">
+      <c r="N1908" s="18" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1909" s="18">
         <v>1828</v>
       </c>
-      <c r="B1909">
+      <c r="B1909" s="18">
         <v>1376</v>
       </c>
-      <c r="C1909" t="s">
+      <c r="C1909" s="19" t="s">
         <v>2137</v>
       </c>
-      <c r="D1909">
+      <c r="D1909" s="18">
         <v>128532</v>
       </c>
-      <c r="E1909">
+      <c r="E1909" s="18">
         <v>8.5416399999999992</v>
       </c>
-      <c r="F1909">
+      <c r="F1909" s="18">
         <v>49.136299999999999</v>
       </c>
-      <c r="G1909" t="s">
+      <c r="G1909" s="18" t="s">
         <v>2126</v>
       </c>
-      <c r="H1909">
+      <c r="H1909" s="18">
         <v>18</v>
       </c>
-      <c r="I1909" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1909">
+      <c r="I1909" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1909" s="18">
         <v>20</v>
       </c>
-      <c r="K1909">
+      <c r="K1909" s="18">
         <v>12</v>
       </c>
-      <c r="L1909">
-        <v>1</v>
-      </c>
-      <c r="M1909">
+      <c r="L1909" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1909" s="18">
         <v>128532</v>
       </c>
-    </row>
-    <row r="1910" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1910">
+      <c r="N1909" s="18" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1910" s="18">
         <v>1837</v>
       </c>
-      <c r="B1910">
+      <c r="B1910" s="18">
         <v>1381</v>
       </c>
-      <c r="C1910" t="s">
+      <c r="C1910" s="19" t="s">
         <v>2138</v>
       </c>
-      <c r="D1910">
+      <c r="D1910" s="18">
         <v>130393</v>
       </c>
-      <c r="E1910">
+      <c r="E1910" s="18">
         <v>8.5531799999999993</v>
       </c>
-      <c r="F1910">
+      <c r="F1910" s="18">
         <v>49.086100000000002</v>
       </c>
-      <c r="G1910" t="s">
+      <c r="G1910" s="18" t="s">
         <v>2126</v>
       </c>
-      <c r="H1910">
+      <c r="H1910" s="18">
         <v>18</v>
       </c>
-      <c r="I1910" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1910">
+      <c r="I1910" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1910" s="18">
         <v>20</v>
       </c>
-      <c r="K1910">
+      <c r="K1910" s="18">
         <v>12</v>
       </c>
-      <c r="L1910">
-        <v>1</v>
-      </c>
-      <c r="M1910">
+      <c r="L1910" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1910" s="18">
         <v>130393</v>
       </c>
-    </row>
-    <row r="1911" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1911">
+      <c r="N1910" s="18" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1911" s="18">
         <v>1864</v>
       </c>
-      <c r="B1911" t="s">
+      <c r="B1911" s="18" t="s">
         <v>2139</v>
       </c>
-      <c r="C1911" t="s">
+      <c r="C1911" s="19" t="s">
         <v>2140</v>
       </c>
-      <c r="D1911" t="s">
+      <c r="D1911" s="18" t="s">
         <v>2141</v>
       </c>
-      <c r="E1911">
+      <c r="E1911" s="18">
         <v>8.6010200000000001</v>
       </c>
-      <c r="F1911">
+      <c r="F1911" s="18">
         <v>49.12377</v>
       </c>
-      <c r="G1911" t="s">
+      <c r="G1911" s="18" t="s">
         <v>2126</v>
       </c>
-      <c r="H1911">
+      <c r="H1911" s="18">
         <v>18</v>
       </c>
-      <c r="I1911" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1911">
+      <c r="I1911" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1911" s="18">
         <v>20</v>
       </c>
-      <c r="K1911">
+      <c r="K1911" s="18">
         <v>12</v>
       </c>
-      <c r="L1911">
+      <c r="L1911" s="18">
         <v>2</v>
       </c>
-      <c r="M1911">
+      <c r="M1911" s="18">
         <v>128927</v>
       </c>
-    </row>
-    <row r="1912" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1912">
+      <c r="N1911" s="18" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1912" s="18">
         <v>1884</v>
       </c>
-      <c r="B1912">
+      <c r="B1912" s="18">
         <v>1374</v>
       </c>
-      <c r="C1912" t="s">
+      <c r="C1912" s="19" t="s">
         <v>2142</v>
       </c>
-      <c r="D1912">
+      <c r="D1912" s="18">
         <v>130318</v>
       </c>
-      <c r="E1912">
+      <c r="E1912" s="18">
         <v>8.6321999999999992</v>
       </c>
-      <c r="F1912">
+      <c r="F1912" s="18">
         <v>49.161810000000003</v>
       </c>
-      <c r="G1912" t="s">
+      <c r="G1912" s="18" t="s">
         <v>2126</v>
       </c>
-      <c r="H1912">
+      <c r="H1912" s="18">
         <v>18</v>
       </c>
-      <c r="I1912" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1912">
+      <c r="I1912" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1912" s="18">
         <v>20</v>
       </c>
-      <c r="K1912">
+      <c r="K1912" s="18">
         <v>12</v>
       </c>
-      <c r="L1912">
-        <v>1</v>
-      </c>
-      <c r="M1912">
+      <c r="L1912" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1912" s="18">
         <v>130318</v>
       </c>
-    </row>
-    <row r="1913" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1913">
+      <c r="N1912" s="18" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1913" s="18">
         <v>1890</v>
       </c>
-      <c r="B1913">
+      <c r="B1913" s="18">
         <v>1382</v>
       </c>
-      <c r="C1913" t="s">
+      <c r="C1913" s="19" t="s">
         <v>2143</v>
       </c>
-      <c r="D1913">
+      <c r="D1913" s="18">
         <v>134009</v>
       </c>
-      <c r="E1913">
+      <c r="E1913" s="18">
         <v>8.6422899999999991</v>
       </c>
-      <c r="F1913">
+      <c r="F1913" s="18">
         <v>49.085090000000001</v>
       </c>
-      <c r="G1913" t="s">
+      <c r="G1913" s="18" t="s">
         <v>2126</v>
       </c>
-      <c r="H1913">
+      <c r="H1913" s="18">
         <v>18</v>
       </c>
-      <c r="I1913" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1913">
+      <c r="I1913" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1913" s="18">
         <v>20</v>
       </c>
-      <c r="K1913">
+      <c r="K1913" s="18">
         <v>12</v>
       </c>
-      <c r="L1913">
-        <v>1</v>
-      </c>
-      <c r="M1913">
+      <c r="L1913" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1913" s="18">
         <v>134009</v>
       </c>
-    </row>
-    <row r="1914" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1914">
+      <c r="N1913" s="18" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1914" s="18">
         <v>1893</v>
       </c>
-      <c r="B1914">
+      <c r="B1914" s="18">
         <v>1383</v>
       </c>
-      <c r="C1914" t="s">
+      <c r="C1914" s="19" t="s">
         <v>2144</v>
       </c>
-      <c r="D1914">
+      <c r="D1914" s="18">
         <v>132233</v>
       </c>
-      <c r="E1914">
+      <c r="E1914" s="18">
         <v>8.6454199999999997</v>
       </c>
-      <c r="F1914">
+      <c r="F1914" s="18">
         <v>49.101140000000001</v>
       </c>
-      <c r="G1914" t="s">
+      <c r="G1914" s="18" t="s">
         <v>2126</v>
       </c>
-      <c r="H1914">
+      <c r="H1914" s="18">
         <v>18</v>
       </c>
-      <c r="I1914" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1914">
+      <c r="I1914" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1914" s="18">
         <v>20</v>
       </c>
-      <c r="K1914">
+      <c r="K1914" s="18">
         <v>12</v>
       </c>
-      <c r="L1914">
-        <v>1</v>
-      </c>
-      <c r="M1914">
+      <c r="L1914" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1914" s="18">
         <v>132233</v>
       </c>
-    </row>
-    <row r="1915" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1915">
+      <c r="N1914" s="18" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1915" s="18">
         <v>1910</v>
       </c>
-      <c r="B1915">
+      <c r="B1915" s="18">
         <v>1387</v>
       </c>
-      <c r="C1915" t="s">
+      <c r="C1915" s="19" t="s">
         <v>2145</v>
       </c>
-      <c r="D1915">
+      <c r="D1915" s="18">
         <v>133790</v>
       </c>
-      <c r="E1915">
+      <c r="E1915" s="18">
         <v>8.6659500000000005</v>
       </c>
-      <c r="F1915">
+      <c r="F1915" s="18">
         <v>49.14423</v>
       </c>
-      <c r="G1915" t="s">
+      <c r="G1915" s="18" t="s">
         <v>2126</v>
       </c>
-      <c r="H1915">
+      <c r="H1915" s="18">
         <v>18</v>
       </c>
-      <c r="I1915" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1915">
+      <c r="I1915" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1915" s="18">
         <v>20</v>
       </c>
-      <c r="K1915">
+      <c r="K1915" s="18">
         <v>12</v>
       </c>
-      <c r="L1915">
-        <v>1</v>
-      </c>
-      <c r="M1915">
+      <c r="L1915" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1915" s="18">
         <v>133790</v>
       </c>
-    </row>
-    <row r="1916" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1916">
+      <c r="N1915" s="18" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1916" s="18">
         <v>1936</v>
       </c>
-      <c r="B1916">
+      <c r="B1916" s="18">
         <v>1386</v>
       </c>
-      <c r="C1916" t="s">
+      <c r="C1916" s="19" t="s">
         <v>2146</v>
       </c>
-      <c r="D1916">
+      <c r="D1916" s="18">
         <v>129412</v>
       </c>
-      <c r="E1916">
+      <c r="E1916" s="18">
         <v>8.6890999999999998</v>
       </c>
-      <c r="F1916">
+      <c r="F1916" s="18">
         <v>49.145319999999998</v>
       </c>
-      <c r="G1916" t="s">
+      <c r="G1916" s="18" t="s">
         <v>2126</v>
       </c>
-      <c r="H1916">
+      <c r="H1916" s="18">
         <v>19</v>
       </c>
-      <c r="I1916" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1916">
+      <c r="I1916" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1916" s="18">
         <v>20</v>
       </c>
-      <c r="K1916">
+      <c r="K1916" s="18">
         <v>10</v>
       </c>
-      <c r="L1916">
-        <v>1</v>
-      </c>
-      <c r="M1916">
+      <c r="L1916" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1916" s="18">
         <v>129412</v>
       </c>
-    </row>
-    <row r="1917" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1917">
+      <c r="N1916" s="18" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1917" s="18">
         <v>1960</v>
       </c>
-      <c r="B1917">
+      <c r="B1917" s="18">
         <v>1389</v>
       </c>
-      <c r="C1917" t="s">
+      <c r="C1917" s="19" t="s">
         <v>2147</v>
       </c>
-      <c r="D1917">
+      <c r="D1917" s="18">
         <v>130365</v>
       </c>
-      <c r="E1917">
+      <c r="E1917" s="18">
         <v>8.7139900000000008</v>
       </c>
-      <c r="F1917">
+      <c r="F1917" s="18">
         <v>49.108699999999999</v>
       </c>
-      <c r="G1917" t="s">
+      <c r="G1917" s="18" t="s">
         <v>2126</v>
       </c>
-      <c r="H1917">
+      <c r="H1917" s="18">
         <v>19</v>
       </c>
-      <c r="I1917" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1917">
+      <c r="I1917" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1917" s="18">
         <v>20</v>
       </c>
-      <c r="K1917">
+      <c r="K1917" s="18">
         <v>10</v>
       </c>
-      <c r="L1917">
-        <v>1</v>
-      </c>
-      <c r="M1917">
+      <c r="L1917" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1917" s="18">
         <v>130365</v>
       </c>
-    </row>
-    <row r="1918" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1918">
+      <c r="N1917" s="18" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1918" s="18">
         <v>1962</v>
       </c>
-      <c r="B1918">
+      <c r="B1918" s="18">
         <v>1388</v>
       </c>
-      <c r="C1918" t="s">
+      <c r="C1918" s="19" t="s">
         <v>2148</v>
       </c>
-      <c r="D1918">
+      <c r="D1918" s="18">
         <v>127625</v>
       </c>
-      <c r="E1918">
+      <c r="E1918" s="18">
         <v>8.7157900000000001</v>
       </c>
-      <c r="F1918">
+      <c r="F1918" s="18">
         <v>49.122459999999997</v>
       </c>
-      <c r="G1918" t="s">
+      <c r="G1918" s="18" t="s">
         <v>2126</v>
       </c>
-      <c r="H1918">
+      <c r="H1918" s="18">
         <v>19</v>
       </c>
-      <c r="I1918" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1918">
+      <c r="I1918" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1918" s="18">
         <v>20</v>
       </c>
-      <c r="K1918">
+      <c r="K1918" s="18">
         <v>10</v>
       </c>
-      <c r="L1918">
-        <v>1</v>
-      </c>
-      <c r="M1918">
+      <c r="L1918" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1918" s="18">
         <v>127625</v>
       </c>
-    </row>
-    <row r="1919" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1919">
+      <c r="N1918" s="18" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1919" s="18">
         <v>1965</v>
       </c>
-      <c r="B1919">
+      <c r="B1919" s="18">
         <v>1385</v>
       </c>
-      <c r="C1919" t="s">
+      <c r="C1919" s="18" t="s">
         <v>2149</v>
       </c>
-      <c r="D1919">
+      <c r="D1919" s="18">
         <v>132923</v>
       </c>
-      <c r="E1919">
+      <c r="E1919" s="18">
         <v>8.7185400000000008</v>
       </c>
-      <c r="F1919">
+      <c r="F1919" s="18">
         <v>49.15352</v>
       </c>
-      <c r="G1919" t="s">
+      <c r="G1919" s="18" t="s">
         <v>2126</v>
       </c>
-      <c r="H1919">
+      <c r="H1919" s="18">
         <v>19</v>
       </c>
-      <c r="I1919" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1919">
+      <c r="I1919" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1919" s="18">
         <v>20</v>
       </c>
-      <c r="K1919">
+      <c r="K1919" s="18">
         <v>10</v>
       </c>
-      <c r="L1919">
-        <v>1</v>
-      </c>
-      <c r="M1919">
+      <c r="L1919" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1919" s="18">
         <v>132923</v>
       </c>
-    </row>
-    <row r="1920" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1920">
+      <c r="N1919" s="18" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1920" s="18">
         <v>1986</v>
       </c>
-      <c r="B1920">
+      <c r="B1920" s="18">
         <v>1390</v>
       </c>
-      <c r="C1920" t="s">
+      <c r="C1920" s="19" t="s">
         <v>2150</v>
       </c>
-      <c r="D1920">
+      <c r="D1920" s="18">
         <v>132619</v>
       </c>
-      <c r="E1920">
+      <c r="E1920" s="18">
         <v>8.7455099999999995</v>
       </c>
-      <c r="F1920">
+      <c r="F1920" s="18">
         <v>49.10407</v>
       </c>
-      <c r="G1920" t="s">
+      <c r="G1920" s="18" t="s">
         <v>2126</v>
       </c>
-      <c r="H1920">
+      <c r="H1920" s="18">
         <v>19</v>
       </c>
-      <c r="I1920" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1920">
+      <c r="I1920" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1920" s="18">
         <v>20</v>
       </c>
-      <c r="K1920">
+      <c r="K1920" s="18">
         <v>10</v>
       </c>
-      <c r="L1920">
-        <v>1</v>
-      </c>
-      <c r="M1920">
+      <c r="L1920" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1920" s="18">
         <v>132619</v>
       </c>
-    </row>
-    <row r="1921" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1921">
+      <c r="N1920" s="18" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1921" s="18">
         <v>2010</v>
       </c>
-      <c r="B1921">
+      <c r="B1921" s="18">
         <v>1394</v>
       </c>
-      <c r="C1921" t="s">
+      <c r="C1921" s="19" t="s">
         <v>2151</v>
       </c>
-      <c r="D1921">
+      <c r="D1921" s="18">
         <v>133758</v>
       </c>
-      <c r="E1921">
+      <c r="E1921" s="18">
         <v>8.7706700000000009</v>
       </c>
-      <c r="F1921">
+      <c r="F1921" s="18">
         <v>49.139310000000002</v>
       </c>
-      <c r="G1921" t="s">
+      <c r="G1921" s="18" t="s">
         <v>2126</v>
       </c>
-      <c r="H1921">
+      <c r="H1921" s="18">
         <v>19</v>
       </c>
-      <c r="I1921" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1921">
+      <c r="I1921" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1921" s="18">
         <v>20</v>
       </c>
-      <c r="K1921">
+      <c r="K1921" s="18">
         <v>10</v>
       </c>
-      <c r="L1921">
-        <v>1</v>
-      </c>
-      <c r="M1921">
+      <c r="L1921" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1921" s="18">
         <v>133758</v>
       </c>
-    </row>
-    <row r="1922" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1922">
+      <c r="N1921" s="18" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1922" s="18">
         <v>2023</v>
       </c>
-      <c r="B1922">
+      <c r="B1922" s="18">
         <v>1393</v>
       </c>
-      <c r="C1922" t="s">
+      <c r="C1922" s="19" t="s">
         <v>2152</v>
       </c>
-      <c r="D1922">
+      <c r="D1922" s="18">
         <v>129879</v>
       </c>
-      <c r="E1922">
+      <c r="E1922" s="18">
         <v>8.7867099999999994</v>
       </c>
-      <c r="F1922">
+      <c r="F1922" s="18">
         <v>49.118650000000002</v>
       </c>
-      <c r="G1922" t="s">
+      <c r="G1922" s="18" t="s">
         <v>2126</v>
       </c>
-      <c r="H1922">
+      <c r="H1922" s="18">
         <v>19</v>
       </c>
-      <c r="I1922" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1922">
+      <c r="I1922" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1922" s="18">
         <v>20</v>
       </c>
-      <c r="K1922">
+      <c r="K1922" s="18">
         <v>10</v>
       </c>
-      <c r="L1922">
-        <v>1</v>
-      </c>
-      <c r="M1922">
+      <c r="L1922" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1922" s="18">
         <v>129879</v>
       </c>
-    </row>
-    <row r="1923" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1923">
+      <c r="N1922" s="18" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1923" s="18">
         <v>2024</v>
       </c>
-      <c r="B1923">
+      <c r="B1923" s="18">
         <v>1391</v>
       </c>
-      <c r="C1923" t="s">
+      <c r="C1923" s="19" t="s">
         <v>2153</v>
       </c>
-      <c r="D1923">
+      <c r="D1923" s="18">
         <v>134135</v>
       </c>
-      <c r="E1923">
+      <c r="E1923" s="18">
         <v>8.7869399999999995</v>
       </c>
-      <c r="F1923">
+      <c r="F1923" s="18">
         <v>49.0869</v>
       </c>
-      <c r="G1923" t="s">
+      <c r="G1923" s="18" t="s">
         <v>2126</v>
       </c>
-      <c r="H1923">
+      <c r="H1923" s="18">
         <v>19</v>
       </c>
-      <c r="I1923" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1923">
+      <c r="I1923" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1923" s="18">
         <v>20</v>
       </c>
-      <c r="K1923">
+      <c r="K1923" s="18">
         <v>10</v>
       </c>
-      <c r="L1923">
-        <v>1</v>
-      </c>
-      <c r="M1923">
+      <c r="L1923" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1923" s="18">
         <v>134135</v>
       </c>
-    </row>
-    <row r="1924" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1924">
+      <c r="N1923" s="18" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1924" s="18">
         <v>2036</v>
       </c>
-      <c r="B1924">
+      <c r="B1924" s="18">
         <v>1395</v>
       </c>
-      <c r="C1924" t="s">
+      <c r="C1924" s="19" t="s">
         <v>2154</v>
       </c>
-      <c r="D1924">
+      <c r="D1924" s="18">
         <v>127753</v>
       </c>
-      <c r="E1924">
+      <c r="E1924" s="18">
         <v>8.8062699999999996</v>
       </c>
-      <c r="F1924">
+      <c r="F1924" s="18">
         <v>49.148989999999998</v>
       </c>
-      <c r="G1924" t="s">
+      <c r="G1924" s="18" t="s">
         <v>2126</v>
       </c>
-      <c r="H1924">
+      <c r="H1924" s="18">
         <v>19</v>
       </c>
-      <c r="I1924" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1924">
+      <c r="I1924" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1924" s="18">
         <v>20</v>
       </c>
-      <c r="K1924">
+      <c r="K1924" s="18">
         <v>10</v>
       </c>
-      <c r="L1924">
-        <v>1</v>
-      </c>
-      <c r="M1924">
+      <c r="L1924" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1924" s="18">
         <v>127753</v>
       </c>
-    </row>
-    <row r="1925" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1925">
+      <c r="N1924" s="18" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1925" s="18">
         <v>2045</v>
       </c>
-      <c r="B1925">
+      <c r="B1925" s="18">
         <v>1392</v>
       </c>
-      <c r="C1925" t="s">
+      <c r="C1925" s="19" t="s">
         <v>2155</v>
       </c>
-      <c r="D1925">
+      <c r="D1925" s="18">
         <v>131359</v>
       </c>
-      <c r="E1925">
+      <c r="E1925" s="18">
         <v>8.8171199999999992</v>
       </c>
-      <c r="F1925">
+      <c r="F1925" s="18">
         <v>49.10745</v>
       </c>
-      <c r="G1925" t="s">
+      <c r="G1925" s="18" t="s">
         <v>2126</v>
       </c>
-      <c r="H1925">
+      <c r="H1925" s="18">
         <v>19</v>
       </c>
-      <c r="I1925" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1925">
+      <c r="I1925" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1925" s="18">
         <v>20</v>
       </c>
-      <c r="K1925">
+      <c r="K1925" s="18">
         <v>10</v>
       </c>
-      <c r="L1925">
-        <v>1</v>
-      </c>
-      <c r="M1925">
+      <c r="L1925" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1925" s="18">
         <v>131359</v>
       </c>
-    </row>
-    <row r="1926" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1926">
+      <c r="N1925" s="18" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1926" s="18">
         <v>2062</v>
       </c>
-      <c r="B1926">
+      <c r="B1926" s="18">
         <v>1399</v>
       </c>
-      <c r="C1926" t="s">
+      <c r="C1926" s="22" t="s">
         <v>2156</v>
       </c>
-      <c r="D1926">
+      <c r="D1926" s="18">
         <v>130370</v>
       </c>
-      <c r="E1926">
+      <c r="E1926" s="18">
         <v>8.8564900000000009</v>
       </c>
-      <c r="F1926">
+      <c r="F1926" s="18">
         <v>49.140549999999998</v>
       </c>
-      <c r="G1926" t="s">
+      <c r="G1926" s="18" t="s">
         <v>2126</v>
       </c>
-      <c r="H1926">
+      <c r="H1926" s="18">
         <v>20</v>
       </c>
-      <c r="I1926" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1926">
+      <c r="I1926" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1926" s="18">
         <v>20</v>
       </c>
-      <c r="K1926">
+      <c r="K1926" s="18">
         <v>6</v>
       </c>
-      <c r="L1926">
-        <v>1</v>
-      </c>
-      <c r="M1926">
+      <c r="L1926" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1926" s="18">
         <v>130370</v>
       </c>
-    </row>
-    <row r="1927" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1927">
+      <c r="N1926" s="18" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1927" s="18">
         <v>2063</v>
       </c>
-      <c r="B1927">
+      <c r="B1927" s="18">
         <v>1400</v>
       </c>
-      <c r="C1927" t="s">
+      <c r="C1927" s="19" t="s">
         <v>2157</v>
       </c>
-      <c r="D1927">
+      <c r="D1927" s="18">
         <v>132472</v>
       </c>
-      <c r="E1927">
+      <c r="E1927" s="18">
         <v>8.8567099999999996</v>
       </c>
-      <c r="F1927">
+      <c r="F1927" s="18">
         <v>49.103360000000002</v>
       </c>
-      <c r="G1927" t="s">
+      <c r="G1927" s="18" t="s">
         <v>2126</v>
       </c>
-      <c r="H1927">
+      <c r="H1927" s="18">
         <v>20</v>
       </c>
-      <c r="I1927" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1927">
+      <c r="I1927" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1927" s="18">
         <v>20</v>
       </c>
-      <c r="K1927">
+      <c r="K1927" s="18">
         <v>6</v>
       </c>
-      <c r="L1927">
-        <v>1</v>
-      </c>
-      <c r="M1927">
+      <c r="L1927" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1927" s="18">
         <v>132472</v>
       </c>
-    </row>
-    <row r="1928" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1928">
+      <c r="N1927" s="18" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1928" s="18">
         <v>2088</v>
       </c>
-      <c r="B1928">
+      <c r="B1928" s="18">
         <v>1401</v>
       </c>
-      <c r="C1928" t="s">
+      <c r="C1928" s="19" t="s">
         <v>2158</v>
       </c>
-      <c r="D1928">
+      <c r="D1928" s="18">
         <v>131189</v>
       </c>
-      <c r="E1928">
+      <c r="E1928" s="18">
         <v>8.9030100000000001</v>
       </c>
-      <c r="F1928">
+      <c r="F1928" s="18">
         <v>49.097029999999997</v>
       </c>
-      <c r="G1928" t="s">
+      <c r="G1928" s="18" t="s">
         <v>2126</v>
       </c>
-      <c r="H1928">
+      <c r="H1928" s="18">
         <v>20</v>
       </c>
-      <c r="I1928" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1928">
+      <c r="I1928" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1928" s="18">
         <v>20</v>
       </c>
-      <c r="K1928">
+      <c r="K1928" s="18">
         <v>6</v>
       </c>
-      <c r="L1928">
-        <v>1</v>
-      </c>
-      <c r="M1928">
+      <c r="L1928" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1928" s="18">
         <v>131189</v>
       </c>
-    </row>
-    <row r="1929" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1929">
+      <c r="N1928" s="18" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1929" s="18">
         <v>2094</v>
       </c>
-      <c r="B1929">
+      <c r="B1929" s="18">
         <v>1398</v>
       </c>
-      <c r="C1929" t="s">
+      <c r="C1929" s="19" t="s">
         <v>2159</v>
       </c>
-      <c r="D1929">
+      <c r="D1929" s="18">
         <v>129709</v>
       </c>
-      <c r="E1929">
+      <c r="E1929" s="18">
         <v>8.9098000000000006</v>
       </c>
-      <c r="F1929">
+      <c r="F1929" s="18">
         <v>49.137039999999999</v>
       </c>
-      <c r="G1929" t="s">
+      <c r="G1929" s="18" t="s">
         <v>2126</v>
       </c>
-      <c r="H1929">
+      <c r="H1929" s="18">
         <v>20</v>
       </c>
-      <c r="I1929" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1929">
+      <c r="I1929" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1929" s="18">
         <v>20</v>
       </c>
-      <c r="K1929">
+      <c r="K1929" s="18">
         <v>6</v>
       </c>
-      <c r="L1929">
-        <v>1</v>
-      </c>
-      <c r="M1929">
+      <c r="L1929" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1929" s="18">
         <v>129709</v>
       </c>
-    </row>
-    <row r="1930" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1930">
+      <c r="N1929" s="18" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1930" s="18">
         <v>2125</v>
       </c>
-      <c r="B1930">
+      <c r="B1930" s="18">
         <v>1397</v>
       </c>
-      <c r="C1930" t="s">
+      <c r="C1930" s="19" t="s">
         <v>2160</v>
       </c>
-      <c r="D1930">
+      <c r="D1930" s="18">
         <v>130014</v>
       </c>
-      <c r="E1930">
+      <c r="E1930" s="18">
         <v>8.96448</v>
       </c>
-      <c r="F1930">
+      <c r="F1930" s="18">
         <v>49.14676</v>
       </c>
-      <c r="G1930" t="s">
+      <c r="G1930" s="18" t="s">
         <v>2126</v>
       </c>
-      <c r="H1930">
+      <c r="H1930" s="18">
         <v>20</v>
       </c>
-      <c r="I1930" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1930">
+      <c r="I1930" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1930" s="18">
         <v>20</v>
       </c>
-      <c r="K1930">
+      <c r="K1930" s="18">
         <v>6</v>
       </c>
-      <c r="L1930">
-        <v>1</v>
-      </c>
-      <c r="M1930">
+      <c r="L1930" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1930" s="18">
         <v>130014</v>
       </c>
-    </row>
-    <row r="1931" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1931">
+      <c r="N1930" s="18" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1931" s="18">
         <v>2143</v>
       </c>
-      <c r="B1931">
+      <c r="B1931" s="18">
         <v>1396</v>
       </c>
-      <c r="C1931" t="s">
+      <c r="C1931" s="19" t="s">
         <v>2161</v>
       </c>
-      <c r="D1931">
+      <c r="D1931" s="18">
         <v>133272</v>
       </c>
-      <c r="E1931">
+      <c r="E1931" s="18">
         <v>8.9835799999999999</v>
       </c>
-      <c r="F1931">
+      <c r="F1931" s="18">
         <v>49.156329999999997</v>
       </c>
-      <c r="G1931" t="s">
+      <c r="G1931" s="18" t="s">
         <v>2126</v>
       </c>
-      <c r="H1931">
+      <c r="H1931" s="18">
         <v>20</v>
       </c>
-      <c r="I1931" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1931">
+      <c r="I1931" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1931" s="18">
         <v>20</v>
       </c>
-      <c r="K1931">
+      <c r="K1931" s="18">
         <v>6</v>
       </c>
-      <c r="L1931">
-        <v>1</v>
-      </c>
-      <c r="M1931">
+      <c r="L1931" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1931" s="18">
         <v>133272</v>
       </c>
-    </row>
-    <row r="1932" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1932">
+      <c r="N1931" s="18" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1932" s="18">
         <v>2223</v>
       </c>
-      <c r="B1932">
+      <c r="B1932" s="18">
         <v>1402</v>
       </c>
-      <c r="C1932" t="s">
+      <c r="C1932" s="19" t="s">
         <v>2162</v>
       </c>
-      <c r="D1932">
+      <c r="D1932" s="18">
         <v>131674</v>
       </c>
-      <c r="E1932">
+      <c r="E1932" s="18">
         <v>9.1026000000000007</v>
       </c>
-      <c r="F1932">
+      <c r="F1932" s="18">
         <v>49.148429999999998</v>
       </c>
-      <c r="G1932" t="s">
+      <c r="G1932" s="18" t="s">
         <v>2126</v>
       </c>
-      <c r="H1932">
+      <c r="H1932" s="18">
         <v>21</v>
       </c>
-      <c r="I1932" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1932">
+      <c r="I1932" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1932" s="18">
         <v>20</v>
       </c>
-      <c r="K1932">
-        <v>1</v>
-      </c>
-      <c r="L1932">
-        <v>1</v>
-      </c>
-      <c r="M1932">
+      <c r="K1932" s="18">
+        <v>1</v>
+      </c>
+      <c r="L1932" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1932" s="18">
         <v>131674</v>
       </c>
-    </row>
-    <row r="1933" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1933">
+      <c r="N1932" s="18" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1933" s="18">
         <v>1644</v>
       </c>
-      <c r="B1933">
+      <c r="B1933" s="18">
         <v>1411</v>
       </c>
-      <c r="C1933" t="s">
+      <c r="C1933" s="18" t="s">
         <v>2163</v>
       </c>
-      <c r="D1933">
+      <c r="D1933" s="18">
         <v>131595</v>
       </c>
-      <c r="E1933">
+      <c r="E1933" s="18">
         <v>8.3443699999999996</v>
       </c>
-      <c r="F1933">
+      <c r="F1933" s="18">
         <v>49.030389999999997</v>
       </c>
-      <c r="G1933" t="s">
+      <c r="G1933" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="H1933">
+      <c r="H1933" s="18">
         <v>17</v>
       </c>
-      <c r="I1933" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1933">
+      <c r="I1933" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1933" s="18">
         <v>21</v>
       </c>
-      <c r="K1933">
+      <c r="K1933" s="18">
         <v>10</v>
       </c>
-      <c r="L1933">
-        <v>1</v>
-      </c>
-      <c r="M1933">
+      <c r="L1933" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1933" s="18">
         <v>131595</v>
       </c>
-    </row>
-    <row r="1934" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1934">
+      <c r="N1933" s="18"/>
+    </row>
+    <row r="1934" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1934" s="18">
         <v>1658</v>
       </c>
-      <c r="B1934">
+      <c r="B1934" s="18">
         <v>1410</v>
       </c>
-      <c r="C1934" t="s">
+      <c r="C1934" s="18" t="s">
         <v>2164</v>
       </c>
-      <c r="D1934">
+      <c r="D1934" s="18">
         <v>544408</v>
       </c>
-      <c r="E1934">
+      <c r="E1934" s="18">
         <v>8.3552900000000001</v>
       </c>
-      <c r="F1934">
+      <c r="F1934" s="18">
         <v>49.0032</v>
       </c>
-      <c r="G1934" t="s">
+      <c r="G1934" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="H1934">
+      <c r="H1934" s="18">
         <v>17</v>
       </c>
-      <c r="I1934" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1934">
+      <c r="I1934" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1934" s="18">
         <v>21</v>
       </c>
-      <c r="K1934">
+      <c r="K1934" s="18">
         <v>10</v>
       </c>
-      <c r="L1934">
-        <v>1</v>
-      </c>
-      <c r="M1934">
+      <c r="L1934" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1934" s="18">
         <v>544408</v>
       </c>
-    </row>
-    <row r="1935" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1935">
+      <c r="N1934" s="18"/>
+    </row>
+    <row r="1935" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1935" s="18">
         <v>1684</v>
       </c>
-      <c r="B1935" t="s">
+      <c r="B1935" s="18" t="s">
         <v>2165</v>
       </c>
-      <c r="C1935" t="s">
+      <c r="C1935" s="19" t="s">
         <v>2166</v>
       </c>
-      <c r="D1935" t="s">
+      <c r="D1935" s="18" t="s">
         <v>2167</v>
       </c>
-      <c r="E1935">
+      <c r="E1935" s="18">
         <v>8.3790200000000006</v>
       </c>
-      <c r="F1935">
+      <c r="F1935" s="18">
         <v>49.052669999999999</v>
       </c>
-      <c r="G1935" t="s">
+      <c r="G1935" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="H1935">
+      <c r="H1935" s="18">
         <v>17</v>
       </c>
-      <c r="I1935" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1935">
+      <c r="I1935" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1935" s="18">
         <v>21</v>
       </c>
-      <c r="K1935">
+      <c r="K1935" s="18">
         <v>10</v>
       </c>
-      <c r="L1935">
+      <c r="L1935" s="18">
         <v>2</v>
       </c>
-      <c r="M1935">
+      <c r="M1935" s="18">
         <v>127931</v>
       </c>
-    </row>
-    <row r="1936" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1936">
+      <c r="N1935" s="18"/>
+    </row>
+    <row r="1936" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1936" s="18">
         <v>1711</v>
       </c>
-      <c r="B1936">
+      <c r="B1936" s="18">
         <v>1409</v>
       </c>
-      <c r="C1936" t="s">
+      <c r="C1936" s="19" t="s">
         <v>2168</v>
       </c>
-      <c r="D1936">
+      <c r="D1936" s="18">
         <v>128594</v>
       </c>
-      <c r="E1936">
+      <c r="E1936" s="18">
         <v>8.4091900000000006</v>
       </c>
-      <c r="F1936">
+      <c r="F1936" s="18">
         <v>49.010379999999998</v>
       </c>
-      <c r="G1936" t="s">
+      <c r="G1936" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="H1936">
+      <c r="H1936" s="18">
         <v>17</v>
       </c>
-      <c r="I1936" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1936">
+      <c r="I1936" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1936" s="18">
         <v>21</v>
       </c>
-      <c r="K1936">
+      <c r="K1936" s="18">
         <v>10</v>
       </c>
-      <c r="L1936">
-        <v>1</v>
-      </c>
-      <c r="M1936">
+      <c r="L1936" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1936" s="18">
         <v>128594</v>
       </c>
-    </row>
-    <row r="1937" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1937">
+      <c r="N1936" s="18"/>
+    </row>
+    <row r="1937" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1937" s="18">
         <v>1739</v>
       </c>
-      <c r="B1937">
+      <c r="B1937" s="18">
         <v>1408</v>
       </c>
-      <c r="C1937" t="s">
+      <c r="C1937" s="19" t="s">
         <v>2169</v>
       </c>
-      <c r="D1937">
+      <c r="D1937" s="18">
         <v>544410</v>
       </c>
-      <c r="E1937">
+      <c r="E1937" s="18">
         <v>8.4507100000000008</v>
       </c>
-      <c r="F1937">
+      <c r="F1937" s="18">
         <v>49.009900000000002</v>
       </c>
-      <c r="G1937" t="s">
+      <c r="G1937" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="H1937">
+      <c r="H1937" s="18">
         <v>17</v>
       </c>
-      <c r="I1937" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1937">
+      <c r="I1937" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1937" s="18">
         <v>21</v>
       </c>
-      <c r="K1937">
+      <c r="K1937" s="18">
         <v>10</v>
       </c>
-      <c r="L1937">
-        <v>1</v>
-      </c>
-      <c r="M1937">
+      <c r="L1937" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1937" s="18">
         <v>544410</v>
       </c>
-    </row>
-    <row r="1938" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1938">
+      <c r="N1937" s="18"/>
+    </row>
+    <row r="1938" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1938" s="18">
         <v>1744</v>
       </c>
-      <c r="B1938">
+      <c r="B1938" s="18">
         <v>1406</v>
       </c>
-      <c r="C1938" t="s">
+      <c r="C1938" s="19" t="s">
         <v>2170</v>
       </c>
-      <c r="D1938">
+      <c r="D1938" s="18">
         <v>128704</v>
       </c>
-      <c r="E1938">
+      <c r="E1938" s="18">
         <v>8.4551400000000001</v>
       </c>
-      <c r="F1938">
+      <c r="F1938" s="18">
         <v>49.027729999999998</v>
       </c>
-      <c r="G1938" t="s">
+      <c r="G1938" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="H1938">
+      <c r="H1938" s="18">
         <v>17</v>
       </c>
-      <c r="I1938" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1938">
+      <c r="I1938" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1938" s="18">
         <v>21</v>
       </c>
-      <c r="K1938">
+      <c r="K1938" s="18">
         <v>10</v>
       </c>
-      <c r="L1938">
-        <v>1</v>
-      </c>
-      <c r="M1938">
+      <c r="L1938" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1938" s="18">
         <v>128704</v>
       </c>
-    </row>
-    <row r="1939" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1939">
+      <c r="N1938" s="18"/>
+    </row>
+    <row r="1939" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1939" s="18">
         <v>1760</v>
       </c>
-      <c r="B1939">
+      <c r="B1939" s="18">
         <v>1405</v>
       </c>
-      <c r="C1939" t="s">
+      <c r="C1939" s="22" t="s">
         <v>2171</v>
       </c>
-      <c r="D1939">
+      <c r="D1939" s="18">
         <v>129185</v>
       </c>
-      <c r="E1939">
+      <c r="E1939" s="18">
         <v>8.4682399999999998</v>
       </c>
-      <c r="F1939">
+      <c r="F1939" s="18">
         <v>49.048110000000001</v>
       </c>
-      <c r="G1939" t="s">
+      <c r="G1939" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="H1939">
+      <c r="H1939" s="18">
         <v>17</v>
       </c>
-      <c r="I1939" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1939">
+      <c r="I1939" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1939" s="18">
         <v>21</v>
       </c>
-      <c r="K1939">
+      <c r="K1939" s="18">
         <v>10</v>
       </c>
-      <c r="L1939">
-        <v>1</v>
-      </c>
-      <c r="M1939">
+      <c r="L1939" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1939" s="18">
         <v>129185</v>
       </c>
-    </row>
-    <row r="1940" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1940">
+      <c r="N1939" s="18"/>
+    </row>
+    <row r="1940" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1940" s="18">
         <v>1768</v>
       </c>
-      <c r="B1940">
+      <c r="B1940" s="18">
         <v>1404</v>
       </c>
-      <c r="C1940" t="s">
+      <c r="C1940" s="22" t="s">
         <v>2172</v>
       </c>
-      <c r="D1940">
+      <c r="D1940" s="18">
         <v>127728</v>
       </c>
-      <c r="E1940">
+      <c r="E1940" s="18">
         <v>8.4713700000000003</v>
       </c>
-      <c r="F1940">
+      <c r="F1940" s="18">
         <v>49.064819999999997</v>
       </c>
-      <c r="G1940" t="s">
+      <c r="G1940" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="H1940">
+      <c r="H1940" s="18">
         <v>17</v>
       </c>
-      <c r="I1940" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1940">
+      <c r="I1940" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1940" s="18">
         <v>21</v>
       </c>
-      <c r="K1940">
+      <c r="K1940" s="18">
         <v>10</v>
       </c>
-      <c r="L1940">
-        <v>1</v>
-      </c>
-      <c r="M1940">
+      <c r="L1940" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1940" s="18">
         <v>127728</v>
       </c>
-    </row>
-    <row r="1941" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1941">
+      <c r="N1940" s="18"/>
+    </row>
+    <row r="1941" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1941" s="18">
         <v>1788</v>
       </c>
-      <c r="B1941">
+      <c r="B1941" s="18">
         <v>1407</v>
       </c>
-      <c r="C1941" t="s">
+      <c r="C1941" s="19" t="s">
         <v>2173</v>
       </c>
-      <c r="D1941">
+      <c r="D1941" s="18">
         <v>130423</v>
       </c>
-      <c r="E1941">
+      <c r="E1941" s="18">
         <v>8.4955599999999993</v>
       </c>
-      <c r="F1941">
+      <c r="F1941" s="18">
         <v>49.007109999999997</v>
       </c>
-      <c r="G1941" t="s">
+      <c r="G1941" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="H1941">
+      <c r="H1941" s="18">
         <v>17</v>
       </c>
-      <c r="I1941" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1941">
+      <c r="I1941" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1941" s="18">
         <v>21</v>
       </c>
-      <c r="K1941">
+      <c r="K1941" s="18">
         <v>10</v>
       </c>
-      <c r="L1941">
-        <v>1</v>
-      </c>
-      <c r="M1941">
+      <c r="L1941" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1941" s="18">
         <v>130423</v>
       </c>
-    </row>
-    <row r="1942" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1942">
+      <c r="N1941" s="18"/>
+    </row>
+    <row r="1942" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1942" s="18">
         <v>1814</v>
       </c>
-      <c r="B1942">
+      <c r="B1942" s="18">
         <v>1420</v>
       </c>
-      <c r="C1942" t="s">
+      <c r="C1942" s="19" t="s">
         <v>2174</v>
       </c>
-      <c r="D1942">
+      <c r="D1942" s="18">
         <v>132448</v>
       </c>
-      <c r="E1942">
+      <c r="E1942" s="18">
         <v>8.52712</v>
       </c>
-      <c r="F1942">
+      <c r="F1942" s="18">
         <v>49.003889999999998</v>
       </c>
-      <c r="G1942" t="s">
+      <c r="G1942" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="H1942">
+      <c r="H1942" s="18">
         <v>18</v>
       </c>
-      <c r="I1942" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1942">
+      <c r="I1942" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1942" s="18">
         <v>21</v>
       </c>
-      <c r="K1942">
+      <c r="K1942" s="18">
         <v>7</v>
       </c>
-      <c r="L1942">
-        <v>1</v>
-      </c>
-      <c r="M1942">
+      <c r="L1942" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1942" s="18">
         <v>132448</v>
       </c>
-    </row>
-    <row r="1943" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1943">
+      <c r="N1942" s="18"/>
+    </row>
+    <row r="1943" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1943" s="18">
         <v>1819</v>
       </c>
-      <c r="B1943">
+      <c r="B1943" s="18">
         <v>1422</v>
       </c>
-      <c r="C1943" t="s">
+      <c r="C1943" s="19" t="s">
         <v>2175</v>
       </c>
-      <c r="D1943">
+      <c r="D1943" s="18">
         <v>129723</v>
       </c>
-      <c r="E1943">
+      <c r="E1943" s="18">
         <v>8.5311400000000006</v>
       </c>
-      <c r="F1943">
+      <c r="F1943" s="18">
         <v>49.0533</v>
       </c>
-      <c r="G1943" t="s">
+      <c r="G1943" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="H1943">
+      <c r="H1943" s="18">
         <v>18</v>
       </c>
-      <c r="I1943" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1943">
+      <c r="I1943" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1943" s="18">
         <v>21</v>
       </c>
-      <c r="K1943">
+      <c r="K1943" s="18">
         <v>7</v>
       </c>
-      <c r="L1943">
-        <v>1</v>
-      </c>
-      <c r="M1943">
+      <c r="L1943" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1943" s="18">
         <v>129723</v>
       </c>
-    </row>
-    <row r="1944" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1944">
+      <c r="N1943" s="18"/>
+    </row>
+    <row r="1944" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1944" s="18">
         <v>1855</v>
       </c>
-      <c r="B1944">
+      <c r="B1944" s="18">
         <v>1421</v>
       </c>
-      <c r="C1944" t="s">
+      <c r="C1944" s="18" t="s">
         <v>2176</v>
       </c>
-      <c r="D1944">
+      <c r="D1944" s="18">
         <v>132094</v>
       </c>
-      <c r="E1944">
+      <c r="E1944" s="18">
         <v>8.5744000000000007</v>
       </c>
-      <c r="F1944">
+      <c r="F1944" s="18">
         <v>49.032220000000002</v>
       </c>
-      <c r="G1944" t="s">
+      <c r="G1944" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="H1944">
+      <c r="H1944" s="18">
         <v>18</v>
       </c>
-      <c r="I1944" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1944">
+      <c r="I1944" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1944" s="18">
         <v>21</v>
       </c>
-      <c r="K1944">
+      <c r="K1944" s="18">
         <v>7</v>
       </c>
-      <c r="L1944">
-        <v>1</v>
-      </c>
-      <c r="M1944">
+      <c r="L1944" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1944" s="18">
         <v>132094</v>
       </c>
-    </row>
-    <row r="1945" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1945">
+      <c r="N1944" s="18"/>
+    </row>
+    <row r="1945" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1945" s="18">
         <v>1860</v>
       </c>
-      <c r="B1945">
+      <c r="B1945" s="18">
         <v>1415</v>
       </c>
-      <c r="C1945" t="s">
+      <c r="C1945" s="19" t="s">
         <v>2177</v>
       </c>
-      <c r="D1945">
+      <c r="D1945" s="18">
         <v>128633</v>
       </c>
-      <c r="E1945">
+      <c r="E1945" s="18">
         <v>8.5854199999999992</v>
       </c>
-      <c r="F1945">
+      <c r="F1945" s="18">
         <v>49.077089999999998</v>
       </c>
-      <c r="G1945" t="s">
+      <c r="G1945" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="H1945">
+      <c r="H1945" s="18">
         <v>18</v>
       </c>
-      <c r="I1945" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1945">
+      <c r="I1945" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1945" s="18">
         <v>21</v>
       </c>
-      <c r="K1945">
+      <c r="K1945" s="18">
         <v>7</v>
       </c>
-      <c r="L1945">
-        <v>1</v>
-      </c>
-      <c r="M1945">
+      <c r="L1945" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1945" s="18">
         <v>128633</v>
       </c>
-    </row>
-    <row r="1946" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1946">
+      <c r="N1945" s="18"/>
+    </row>
+    <row r="1946" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1946" s="18">
         <v>1873</v>
       </c>
-      <c r="B1946">
+      <c r="B1946" s="18">
         <v>1418</v>
       </c>
-      <c r="C1946" t="s">
+      <c r="C1946" s="19" t="s">
         <v>2178</v>
       </c>
-      <c r="D1946">
+      <c r="D1946" s="18">
         <v>127448</v>
       </c>
-      <c r="E1946">
+      <c r="E1946" s="18">
         <v>8.6114200000000007</v>
       </c>
-      <c r="F1946">
+      <c r="F1946" s="18">
         <v>49.010170000000002</v>
       </c>
-      <c r="G1946" t="s">
+      <c r="G1946" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="H1946">
+      <c r="H1946" s="18">
         <v>18</v>
       </c>
-      <c r="I1946" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1946">
+      <c r="I1946" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1946" s="18">
         <v>21</v>
       </c>
-      <c r="K1946">
+      <c r="K1946" s="18">
         <v>7</v>
       </c>
-      <c r="L1946">
-        <v>1</v>
-      </c>
-      <c r="M1946">
+      <c r="L1946" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1946" s="18">
         <v>127448</v>
       </c>
-    </row>
-    <row r="1947" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1947">
+      <c r="N1946" s="18"/>
+    </row>
+    <row r="1947" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1947" s="18">
         <v>1897</v>
       </c>
-      <c r="B1947">
+      <c r="B1947" s="18">
         <v>1417</v>
       </c>
-      <c r="C1947" t="s">
+      <c r="C1947" s="19" t="s">
         <v>2179</v>
       </c>
-      <c r="D1947">
+      <c r="D1947" s="18">
         <v>131060</v>
       </c>
-      <c r="E1947">
+      <c r="E1947" s="18">
         <v>8.6474700000000002</v>
       </c>
-      <c r="F1947">
+      <c r="F1947" s="18">
         <v>49.0227</v>
       </c>
-      <c r="G1947" t="s">
+      <c r="G1947" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="H1947">
+      <c r="H1947" s="18">
         <v>18</v>
       </c>
-      <c r="I1947" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1947">
+      <c r="I1947" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1947" s="18">
         <v>21</v>
       </c>
-      <c r="K1947">
+      <c r="K1947" s="18">
         <v>7</v>
       </c>
-      <c r="L1947">
-        <v>1</v>
-      </c>
-      <c r="M1947">
+      <c r="L1947" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1947" s="18">
         <v>131060</v>
       </c>
-    </row>
-    <row r="1948" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1948">
+      <c r="N1947" s="18"/>
+    </row>
+    <row r="1948" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1948" s="18">
         <v>1902</v>
       </c>
-      <c r="B1948">
+      <c r="B1948" s="18">
         <v>1416</v>
       </c>
-      <c r="C1948" t="s">
+      <c r="C1948" s="19" t="s">
         <v>2180</v>
       </c>
-      <c r="D1948">
+      <c r="D1948" s="18">
         <v>132056</v>
       </c>
-      <c r="E1948">
+      <c r="E1948" s="18">
         <v>8.6558399999999995</v>
       </c>
-      <c r="F1948">
+      <c r="F1948" s="18">
         <v>49.059600000000003</v>
       </c>
-      <c r="G1948" t="s">
+      <c r="G1948" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="H1948">
+      <c r="H1948" s="18">
         <v>18</v>
       </c>
-      <c r="I1948" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1948">
+      <c r="I1948" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1948" s="18">
         <v>21</v>
       </c>
-      <c r="K1948">
+      <c r="K1948" s="18">
         <v>7</v>
       </c>
-      <c r="L1948">
-        <v>1</v>
-      </c>
-      <c r="M1948">
+      <c r="L1948" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1948" s="18">
         <v>132056</v>
       </c>
-    </row>
-    <row r="1949" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1949">
+      <c r="N1948" s="18"/>
+    </row>
+    <row r="1949" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1949" s="18">
         <v>1924</v>
       </c>
-      <c r="B1949">
+      <c r="B1949" s="18">
         <v>1428</v>
       </c>
-      <c r="C1949" t="s">
+      <c r="C1949" s="19" t="s">
         <v>2181</v>
       </c>
-      <c r="D1949">
+      <c r="D1949" s="18">
         <v>131816</v>
       </c>
-      <c r="E1949">
+      <c r="E1949" s="18">
         <v>8.6784800000000004</v>
       </c>
-      <c r="F1949">
+      <c r="F1949" s="18">
         <v>49.041089999999997</v>
       </c>
-      <c r="G1949" t="s">
+      <c r="G1949" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="H1949">
+      <c r="H1949" s="18">
         <v>19</v>
       </c>
-      <c r="I1949" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1949">
+      <c r="I1949" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1949" s="18">
         <v>21</v>
       </c>
-      <c r="K1949">
+      <c r="K1949" s="18">
         <v>9</v>
       </c>
-      <c r="L1949">
-        <v>1</v>
-      </c>
-      <c r="M1949">
+      <c r="L1949" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1949" s="18">
         <v>131816</v>
       </c>
-    </row>
-    <row r="1950" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1950">
+      <c r="N1949" s="18"/>
+    </row>
+    <row r="1950" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1950" s="18">
         <v>1927</v>
       </c>
-      <c r="B1950">
+      <c r="B1950" s="18">
         <v>1430</v>
       </c>
-      <c r="C1950" t="s">
+      <c r="C1950" s="18" t="s">
         <v>2182</v>
       </c>
-      <c r="D1950">
+      <c r="D1950" s="18">
         <v>133312</v>
       </c>
-      <c r="E1950">
+      <c r="E1950" s="18">
         <v>8.6822999999999997</v>
       </c>
-      <c r="F1950">
+      <c r="F1950" s="18">
         <v>49.003450000000001</v>
       </c>
-      <c r="G1950" t="s">
+      <c r="G1950" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="H1950">
+      <c r="H1950" s="18">
         <v>19</v>
       </c>
-      <c r="I1950" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1950">
+      <c r="I1950" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1950" s="18">
         <v>21</v>
       </c>
-      <c r="K1950">
+      <c r="K1950" s="18">
         <v>9</v>
       </c>
-      <c r="L1950">
-        <v>1</v>
-      </c>
-      <c r="M1950">
+      <c r="L1950" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1950" s="18">
         <v>133312</v>
       </c>
-    </row>
-    <row r="1951" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1951">
+      <c r="N1950" s="18"/>
+    </row>
+    <row r="1951" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1951" s="18">
         <v>1928</v>
       </c>
-      <c r="B1951">
+      <c r="B1951" s="18">
         <v>1429</v>
       </c>
-      <c r="C1951" t="s">
+      <c r="C1951" s="19" t="s">
         <v>2183</v>
       </c>
-      <c r="D1951">
+      <c r="D1951" s="18">
         <v>130524</v>
       </c>
-      <c r="E1951">
+      <c r="E1951" s="18">
         <v>8.6831999999999994</v>
       </c>
-      <c r="F1951">
+      <c r="F1951" s="18">
         <v>49.034849999999999</v>
       </c>
-      <c r="G1951" t="s">
+      <c r="G1951" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="H1951">
+      <c r="H1951" s="18">
         <v>19</v>
       </c>
-      <c r="I1951" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1951">
+      <c r="I1951" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1951" s="18">
         <v>21</v>
       </c>
-      <c r="K1951">
+      <c r="K1951" s="18">
         <v>9</v>
       </c>
-      <c r="L1951">
-        <v>1</v>
-      </c>
-      <c r="M1951">
+      <c r="L1951" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1951" s="18">
         <v>130524</v>
       </c>
-    </row>
-    <row r="1952" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1952">
+      <c r="N1951" s="18"/>
+    </row>
+    <row r="1952" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1952" s="18">
         <v>1932</v>
       </c>
-      <c r="B1952">
+      <c r="B1952" s="18">
         <v>1425</v>
       </c>
-      <c r="C1952" t="s">
+      <c r="C1952" s="19" t="s">
         <v>2184</v>
       </c>
-      <c r="D1952">
+      <c r="D1952" s="18">
         <v>133841</v>
       </c>
-      <c r="E1952">
+      <c r="E1952" s="18">
         <v>8.6850900000000006</v>
       </c>
-      <c r="F1952">
+      <c r="F1952" s="18">
         <v>49.071040000000004</v>
       </c>
-      <c r="G1952" t="s">
+      <c r="G1952" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="H1952">
+      <c r="H1952" s="18">
         <v>19</v>
       </c>
-      <c r="I1952" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1952">
+      <c r="I1952" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1952" s="18">
         <v>21</v>
       </c>
-      <c r="K1952">
+      <c r="K1952" s="18">
         <v>9</v>
       </c>
-      <c r="L1952">
-        <v>1</v>
-      </c>
-      <c r="M1952">
+      <c r="L1952" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1952" s="18">
         <v>133841</v>
       </c>
-    </row>
-    <row r="1953" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1953">
+      <c r="N1952" s="18"/>
+    </row>
+    <row r="1953" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1953" s="18">
         <v>1952</v>
       </c>
-      <c r="B1953">
+      <c r="B1953" s="18">
         <v>1427</v>
       </c>
-      <c r="C1953" t="s">
+      <c r="C1953" s="19" t="s">
         <v>2185</v>
       </c>
-      <c r="D1953">
+      <c r="D1953" s="18">
         <v>127648</v>
       </c>
-      <c r="E1953">
+      <c r="E1953" s="18">
         <v>8.7065699999999993</v>
       </c>
-      <c r="F1953">
+      <c r="F1953" s="18">
         <v>49.034559999999999</v>
       </c>
-      <c r="G1953" t="s">
+      <c r="G1953" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="H1953">
+      <c r="H1953" s="18">
         <v>19</v>
       </c>
-      <c r="I1953" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1953">
+      <c r="I1953" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1953" s="18">
         <v>21</v>
       </c>
-      <c r="K1953">
+      <c r="K1953" s="18">
         <v>9</v>
       </c>
-      <c r="L1953">
-        <v>1</v>
-      </c>
-      <c r="M1953">
+      <c r="L1953" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1953" s="18">
         <v>127648</v>
       </c>
-    </row>
-    <row r="1954" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1954">
+      <c r="N1953" s="18"/>
+    </row>
+    <row r="1954" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1954" s="18">
         <v>1957</v>
       </c>
-      <c r="B1954">
+      <c r="B1954" s="18">
         <v>1424</v>
       </c>
-      <c r="C1954" t="s">
+      <c r="C1954" s="19" t="s">
         <v>2186</v>
       </c>
-      <c r="D1954">
+      <c r="D1954" s="18">
         <v>132322</v>
       </c>
-      <c r="E1954">
+      <c r="E1954" s="18">
         <v>8.7098399999999998</v>
       </c>
-      <c r="F1954">
+      <c r="F1954" s="18">
         <v>49.074199999999998</v>
       </c>
-      <c r="G1954" t="s">
+      <c r="G1954" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="H1954">
+      <c r="H1954" s="18">
         <v>19</v>
       </c>
-      <c r="I1954" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1954">
+      <c r="I1954" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1954" s="18">
         <v>21</v>
       </c>
-      <c r="K1954">
+      <c r="K1954" s="18">
         <v>9</v>
       </c>
-      <c r="L1954">
-        <v>1</v>
-      </c>
-      <c r="M1954">
+      <c r="L1954" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1954" s="18">
         <v>132322</v>
       </c>
-    </row>
-    <row r="1955" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1955">
+      <c r="N1954" s="18"/>
+    </row>
+    <row r="1955" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1955" s="18">
         <v>1967</v>
       </c>
-      <c r="B1955">
+      <c r="B1955" s="18">
         <v>1426</v>
       </c>
-      <c r="C1955" t="s">
+      <c r="C1955" s="18" t="s">
         <v>2187</v>
       </c>
-      <c r="D1955">
+      <c r="D1955" s="18">
         <v>133332</v>
       </c>
-      <c r="E1955">
+      <c r="E1955" s="18">
         <v>8.7232199999999995</v>
       </c>
-      <c r="F1955">
+      <c r="F1955" s="18">
         <v>49.046080000000003</v>
       </c>
-      <c r="G1955" t="s">
+      <c r="G1955" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="H1955">
+      <c r="H1955" s="18">
         <v>19</v>
       </c>
-      <c r="I1955" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1955">
+      <c r="I1955" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1955" s="18">
         <v>21</v>
       </c>
-      <c r="K1955">
+      <c r="K1955" s="18">
         <v>9</v>
       </c>
-      <c r="L1955">
-        <v>1</v>
-      </c>
-      <c r="M1955">
+      <c r="L1955" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1955" s="18">
         <v>133332</v>
       </c>
-    </row>
-    <row r="1956" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1956">
+      <c r="N1955" s="18"/>
+    </row>
+    <row r="1956" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1956" s="18">
         <v>1968</v>
       </c>
-      <c r="B1956">
+      <c r="B1956" s="18">
         <v>1431</v>
       </c>
-      <c r="C1956" t="s">
+      <c r="C1956" s="18" t="s">
         <v>2188</v>
       </c>
-      <c r="D1956">
+      <c r="D1956" s="18">
         <v>133697</v>
       </c>
-      <c r="E1956">
+      <c r="E1956" s="18">
         <v>8.7243499999999994</v>
       </c>
-      <c r="F1956">
+      <c r="F1956" s="18">
         <v>49.009239999999998</v>
       </c>
-      <c r="G1956" t="s">
+      <c r="G1956" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="H1956">
+      <c r="H1956" s="18">
         <v>19</v>
       </c>
-      <c r="I1956" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1956">
+      <c r="I1956" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1956" s="18">
         <v>21</v>
       </c>
-      <c r="K1956">
+      <c r="K1956" s="18">
         <v>9</v>
       </c>
-      <c r="L1956">
-        <v>1</v>
-      </c>
-      <c r="M1956">
+      <c r="L1956" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1956" s="18">
         <v>133697</v>
       </c>
-    </row>
-    <row r="1957" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1957">
+      <c r="N1956" s="18"/>
+    </row>
+    <row r="1957" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1957" s="18">
         <v>1984</v>
       </c>
-      <c r="B1957">
+      <c r="B1957" s="18">
         <v>1423</v>
       </c>
-      <c r="C1957" t="s">
+      <c r="C1957" s="18" t="s">
         <v>2189</v>
       </c>
-      <c r="D1957">
+      <c r="D1957" s="18">
         <v>128047</v>
       </c>
-      <c r="E1957">
+      <c r="E1957" s="18">
         <v>8.7426899999999996</v>
       </c>
-      <c r="F1957">
+      <c r="F1957" s="18">
         <v>49.075139999999998</v>
       </c>
-      <c r="G1957" t="s">
+      <c r="G1957" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="H1957">
+      <c r="H1957" s="18">
         <v>19</v>
       </c>
-      <c r="I1957" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1957">
+      <c r="I1957" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1957" s="18">
         <v>21</v>
       </c>
-      <c r="K1957">
+      <c r="K1957" s="18">
         <v>9</v>
       </c>
-      <c r="L1957">
-        <v>1</v>
-      </c>
-      <c r="M1957">
+      <c r="L1957" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1957" s="18">
         <v>128047</v>
       </c>
-    </row>
-    <row r="1958" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1958">
+      <c r="N1957" s="18"/>
+    </row>
+    <row r="1958" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1958" s="18">
         <v>2057</v>
       </c>
-      <c r="B1958">
+      <c r="B1958" s="18">
         <v>1432</v>
       </c>
-      <c r="C1958" t="s">
+      <c r="C1958" s="19" t="s">
         <v>2190</v>
       </c>
-      <c r="D1958">
+      <c r="D1958" s="18">
         <v>129667</v>
       </c>
-      <c r="E1958">
+      <c r="E1958" s="18">
         <v>8.8427900000000008</v>
       </c>
-      <c r="F1958">
+      <c r="F1958" s="18">
         <v>49.07732</v>
       </c>
-      <c r="G1958" t="s">
+      <c r="G1958" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="H1958">
+      <c r="H1958" s="18">
         <v>20</v>
       </c>
-      <c r="I1958" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1958">
+      <c r="I1958" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1958" s="18">
         <v>21</v>
       </c>
-      <c r="K1958">
-        <v>1</v>
-      </c>
-      <c r="L1958">
-        <v>1</v>
-      </c>
-      <c r="M1958">
+      <c r="K1958" s="18">
+        <v>1</v>
+      </c>
+      <c r="L1958" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1958" s="18">
         <v>129667</v>
       </c>
-    </row>
-    <row r="1959" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1959">
+      <c r="N1958" s="18"/>
+    </row>
+    <row r="1959" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1959" s="18">
         <v>1674</v>
       </c>
-      <c r="B1959">
+      <c r="B1959" s="18">
         <v>1470</v>
       </c>
-      <c r="C1959" t="s">
+      <c r="C1959" s="19" t="s">
         <v>2191</v>
       </c>
-      <c r="D1959">
+      <c r="D1959" s="18">
         <v>133090</v>
       </c>
-      <c r="E1959">
+      <c r="E1959" s="18">
         <v>8.3710000000000004</v>
       </c>
-      <c r="F1959">
+      <c r="F1959" s="18">
         <v>48.927160000000001</v>
       </c>
-      <c r="G1959" t="s">
+      <c r="G1959" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="H1959">
+      <c r="H1959" s="18">
         <v>17</v>
       </c>
-      <c r="I1959" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1959">
+      <c r="I1959" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1959" s="18">
         <v>22</v>
       </c>
-      <c r="K1959">
+      <c r="K1959" s="18">
         <v>16</v>
       </c>
-      <c r="L1959">
-        <v>1</v>
-      </c>
-      <c r="M1959">
+      <c r="L1959" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1959" s="18">
         <v>133090</v>
       </c>
-    </row>
-    <row r="1960" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1960">
+      <c r="N1959" s="18"/>
+    </row>
+    <row r="1960" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1960" s="18">
         <v>1677</v>
       </c>
-      <c r="B1960">
+      <c r="B1960" s="18">
         <v>1458</v>
       </c>
-      <c r="C1960" t="s">
+      <c r="C1960" s="18" t="s">
         <v>2192</v>
       </c>
-      <c r="D1960">
+      <c r="D1960" s="18">
         <v>544502</v>
       </c>
-      <c r="E1960">
+      <c r="E1960" s="18">
         <v>8.3727699999999992</v>
       </c>
-      <c r="F1960">
+      <c r="F1960" s="18">
         <v>48.990699999999997</v>
       </c>
-      <c r="G1960" t="s">
+      <c r="G1960" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="H1960">
+      <c r="H1960" s="18">
         <v>17</v>
       </c>
-      <c r="I1960" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1960">
+      <c r="I1960" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1960" s="18">
         <v>22</v>
       </c>
-      <c r="K1960">
+      <c r="K1960" s="18">
         <v>16</v>
       </c>
-      <c r="L1960">
-        <v>1</v>
-      </c>
-      <c r="M1960">
+      <c r="L1960" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1960" s="18">
         <v>544502</v>
       </c>
-    </row>
-    <row r="1961" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1961">
+      <c r="N1960" s="18"/>
+    </row>
+    <row r="1961" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1961" s="18">
         <v>1683</v>
       </c>
-      <c r="B1961">
+      <c r="B1961" s="18">
         <v>1516</v>
       </c>
-      <c r="C1961" t="s">
+      <c r="C1961" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="D1961">
+      <c r="D1961" s="18">
         <v>133524</v>
       </c>
-      <c r="E1961">
+      <c r="E1961" s="18">
         <v>8.37866</v>
       </c>
-      <c r="F1961">
+      <c r="F1961" s="18">
         <v>48.917169999999999</v>
       </c>
-      <c r="G1961" t="s">
+      <c r="G1961" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="H1961">
+      <c r="H1961" s="18">
         <v>17</v>
       </c>
-      <c r="I1961" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1961">
+      <c r="I1961" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1961" s="18">
         <v>22</v>
       </c>
-      <c r="K1961">
+      <c r="K1961" s="18">
         <v>16</v>
       </c>
-      <c r="L1961">
-        <v>1</v>
-      </c>
-      <c r="M1961">
+      <c r="L1961" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1961" s="18">
         <v>133524</v>
       </c>
-    </row>
-    <row r="1962" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1962">
+      <c r="N1961" s="18"/>
+    </row>
+    <row r="1962" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1962" s="18">
         <v>1688</v>
       </c>
-      <c r="B1962">
+      <c r="B1962" s="18">
         <v>1459</v>
       </c>
-      <c r="C1962" t="s">
+      <c r="C1962" s="19" t="s">
         <v>2193</v>
       </c>
-      <c r="D1962">
+      <c r="D1962" s="18">
         <v>544501</v>
       </c>
-      <c r="E1962">
+      <c r="E1962" s="18">
         <v>8.3824400000000008</v>
       </c>
-      <c r="F1962">
+      <c r="F1962" s="18">
         <v>48.986800000000002</v>
       </c>
-      <c r="G1962" t="s">
+      <c r="G1962" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="H1962">
+      <c r="H1962" s="18">
         <v>17</v>
       </c>
-      <c r="I1962" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1962">
+      <c r="I1962" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1962" s="18">
         <v>22</v>
       </c>
-      <c r="K1962">
+      <c r="K1962" s="18">
         <v>16</v>
       </c>
-      <c r="L1962">
-        <v>1</v>
-      </c>
-      <c r="M1962">
+      <c r="L1962" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1962" s="18">
         <v>544501</v>
       </c>
-    </row>
-    <row r="1963" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1963">
+      <c r="N1962" s="18"/>
+    </row>
+    <row r="1963" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1963" s="18">
         <v>1689</v>
       </c>
-      <c r="B1963">
+      <c r="B1963" s="18">
         <v>1469</v>
       </c>
-      <c r="C1963" t="s">
+      <c r="C1963" s="19" t="s">
         <v>2194</v>
       </c>
-      <c r="D1963">
+      <c r="D1963" s="18">
         <v>129278</v>
       </c>
-      <c r="E1963">
+      <c r="E1963" s="18">
         <v>8.3858899999999998</v>
       </c>
-      <c r="F1963">
+      <c r="F1963" s="18">
         <v>48.928870000000003</v>
       </c>
-      <c r="G1963" t="s">
+      <c r="G1963" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="H1963">
+      <c r="H1963" s="18">
         <v>17</v>
       </c>
-      <c r="I1963" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1963">
+      <c r="I1963" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1963" s="18">
         <v>22</v>
       </c>
-      <c r="K1963">
+      <c r="K1963" s="18">
         <v>16</v>
       </c>
-      <c r="L1963">
-        <v>1</v>
-      </c>
-      <c r="M1963">
+      <c r="L1963" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1963" s="18">
         <v>129278</v>
       </c>
-    </row>
-    <row r="1964" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1964">
+      <c r="N1963" s="18"/>
+    </row>
+    <row r="1964" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1964" s="18">
         <v>1704</v>
       </c>
-      <c r="B1964" t="s">
+      <c r="B1964" s="18" t="s">
         <v>2195</v>
       </c>
-      <c r="C1964" t="s">
+      <c r="C1964" s="19" t="s">
         <v>2196</v>
       </c>
-      <c r="D1964" t="s">
+      <c r="D1964" s="18" t="s">
         <v>2197</v>
       </c>
-      <c r="E1964">
+      <c r="E1964" s="18">
         <v>8.40245</v>
       </c>
-      <c r="F1964">
+      <c r="F1964" s="18">
         <v>48.94247</v>
       </c>
-      <c r="G1964" t="s">
+      <c r="G1964" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="H1964">
+      <c r="H1964" s="18">
         <v>17</v>
       </c>
-      <c r="I1964" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1964">
+      <c r="I1964" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1964" s="18">
         <v>22</v>
       </c>
-      <c r="K1964">
+      <c r="K1964" s="18">
         <v>16</v>
       </c>
-      <c r="L1964">
+      <c r="L1964" s="18">
         <v>2</v>
       </c>
-      <c r="M1964">
+      <c r="M1964" s="18">
         <v>129117</v>
       </c>
-    </row>
-    <row r="1965" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1965">
+      <c r="N1964" s="18"/>
+    </row>
+    <row r="1965" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1965" s="18">
         <v>1708</v>
       </c>
-      <c r="B1965">
+      <c r="B1965" s="18">
         <v>1460</v>
       </c>
-      <c r="C1965" t="s">
+      <c r="C1965" s="22" t="s">
         <v>2198</v>
       </c>
-      <c r="D1965">
+      <c r="D1965" s="18">
         <v>128878</v>
       </c>
-      <c r="E1965">
+      <c r="E1965" s="18">
         <v>8.4060000000000006</v>
       </c>
-      <c r="F1965">
+      <c r="F1965" s="18">
         <v>48.973939999999999</v>
       </c>
-      <c r="G1965" t="s">
+      <c r="G1965" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="H1965">
+      <c r="H1965" s="18">
         <v>17</v>
       </c>
-      <c r="I1965" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1965">
+      <c r="I1965" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1965" s="18">
         <v>22</v>
       </c>
-      <c r="K1965">
+      <c r="K1965" s="18">
         <v>16</v>
       </c>
-      <c r="L1965">
-        <v>1</v>
-      </c>
-      <c r="M1965">
+      <c r="L1965" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1965" s="18">
         <v>128878</v>
       </c>
-    </row>
-    <row r="1966" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1966">
+      <c r="N1965" s="18"/>
+    </row>
+    <row r="1966" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1966" s="18">
         <v>1740</v>
       </c>
-      <c r="B1966">
+      <c r="B1966" s="18">
         <v>1461</v>
       </c>
-      <c r="C1966" t="s">
+      <c r="C1966" s="18" t="s">
         <v>2199</v>
       </c>
-      <c r="D1966">
+      <c r="D1966" s="18">
         <v>133497</v>
       </c>
-      <c r="E1966">
+      <c r="E1966" s="18">
         <v>8.4521899999999999</v>
       </c>
-      <c r="F1966">
+      <c r="F1966" s="18">
         <v>48.974429999999998</v>
       </c>
-      <c r="G1966" t="s">
+      <c r="G1966" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="H1966">
+      <c r="H1966" s="18">
         <v>17</v>
       </c>
-      <c r="I1966" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1966">
+      <c r="I1966" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1966" s="18">
         <v>22</v>
       </c>
-      <c r="K1966">
+      <c r="K1966" s="18">
         <v>16</v>
       </c>
-      <c r="L1966">
-        <v>1</v>
-      </c>
-      <c r="M1966">
+      <c r="L1966" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1966" s="18">
         <v>133497</v>
       </c>
-    </row>
-    <row r="1967" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1967">
+      <c r="N1966" s="18"/>
+    </row>
+    <row r="1967" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1967" s="18">
         <v>1751</v>
       </c>
-      <c r="B1967">
+      <c r="B1967" s="18">
         <v>1462</v>
       </c>
-      <c r="C1967" t="s">
+      <c r="C1967" s="18" t="s">
         <v>2200</v>
       </c>
-      <c r="D1967">
+      <c r="D1967" s="18">
         <v>544503</v>
       </c>
-      <c r="E1967">
+      <c r="E1967" s="18">
         <v>8.4613800000000001</v>
       </c>
-      <c r="F1967">
+      <c r="F1967" s="18">
         <v>48.988100000000003</v>
       </c>
-      <c r="G1967" t="s">
+      <c r="G1967" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="H1967">
+      <c r="H1967" s="18">
         <v>17</v>
       </c>
-      <c r="I1967" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1967">
+      <c r="I1967" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1967" s="18">
         <v>22</v>
       </c>
-      <c r="K1967">
+      <c r="K1967" s="18">
         <v>16</v>
       </c>
-      <c r="L1967">
-        <v>1</v>
-      </c>
-      <c r="M1967">
+      <c r="L1967" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1967" s="18">
         <v>544503</v>
       </c>
-    </row>
-    <row r="1968" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1968">
+      <c r="N1967" s="18"/>
+    </row>
+    <row r="1968" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1968" s="18">
         <v>1752</v>
       </c>
-      <c r="B1968">
+      <c r="B1968" s="18">
         <v>1467</v>
       </c>
-      <c r="C1968" t="s">
+      <c r="C1968" s="18" t="s">
         <v>2201</v>
       </c>
-      <c r="D1968">
+      <c r="D1968" s="18">
         <v>130430</v>
       </c>
-      <c r="E1968">
+      <c r="E1968" s="18">
         <v>8.4623699999999999</v>
       </c>
-      <c r="F1968">
+      <c r="F1968" s="18">
         <v>48.931789999999999</v>
       </c>
-      <c r="G1968" t="s">
+      <c r="G1968" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="H1968">
+      <c r="H1968" s="18">
         <v>17</v>
       </c>
-      <c r="I1968" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1968">
+      <c r="I1968" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1968" s="18">
         <v>22</v>
       </c>
-      <c r="K1968">
+      <c r="K1968" s="18">
         <v>16</v>
       </c>
-      <c r="L1968">
-        <v>1</v>
-      </c>
-      <c r="M1968">
+      <c r="L1968" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1968" s="18">
         <v>130430</v>
       </c>
-    </row>
-    <row r="1969" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1969">
+      <c r="N1968" s="18"/>
+    </row>
+    <row r="1969" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1969" s="18">
         <v>1757</v>
       </c>
-      <c r="B1969">
+      <c r="B1969" s="18">
         <v>1465</v>
       </c>
-      <c r="C1969" t="s">
+      <c r="C1969" s="19" t="s">
         <v>2202</v>
       </c>
-      <c r="D1969">
+      <c r="D1969" s="18">
         <v>133069</v>
       </c>
-      <c r="E1969">
+      <c r="E1969" s="18">
         <v>8.4667100000000008</v>
       </c>
-      <c r="F1969">
+      <c r="F1969" s="18">
         <v>48.957839999999997</v>
       </c>
-      <c r="G1969" t="s">
+      <c r="G1969" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="H1969">
+      <c r="H1969" s="18">
         <v>17</v>
       </c>
-      <c r="I1969" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1969">
+      <c r="I1969" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1969" s="18">
         <v>22</v>
       </c>
-      <c r="K1969">
+      <c r="K1969" s="18">
         <v>16</v>
       </c>
-      <c r="L1969">
-        <v>1</v>
-      </c>
-      <c r="M1969">
+      <c r="L1969" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1969" s="18">
         <v>133069</v>
       </c>
-    </row>
-    <row r="1970" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1970">
+      <c r="N1969" s="18"/>
+    </row>
+    <row r="1970" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1970" s="18">
         <v>1764</v>
       </c>
-      <c r="B1970">
+      <c r="B1970" s="18">
         <v>1463</v>
       </c>
-      <c r="C1970" t="s">
+      <c r="C1970" s="22" t="s">
         <v>2203</v>
       </c>
-      <c r="D1970">
+      <c r="D1970" s="18">
         <v>132760</v>
       </c>
-      <c r="E1970">
+      <c r="E1970" s="18">
         <v>8.4703999999999997</v>
       </c>
-      <c r="F1970">
+      <c r="F1970" s="18">
         <v>48.99897</v>
       </c>
-      <c r="G1970" t="s">
+      <c r="G1970" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="H1970">
+      <c r="H1970" s="18">
         <v>17</v>
       </c>
-      <c r="I1970" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1970">
+      <c r="I1970" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1970" s="18">
         <v>22</v>
       </c>
-      <c r="K1970">
+      <c r="K1970" s="18">
         <v>16</v>
       </c>
-      <c r="L1970">
-        <v>1</v>
-      </c>
-      <c r="M1970">
+      <c r="L1970" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1970" s="18">
         <v>132760</v>
       </c>
-    </row>
-    <row r="1971" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1971">
+      <c r="N1970" s="18"/>
+    </row>
+    <row r="1971" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1971" s="18">
         <v>1771</v>
       </c>
-      <c r="B1971">
+      <c r="B1971" s="18">
         <v>1468</v>
       </c>
-      <c r="C1971" t="s">
+      <c r="C1971" s="19" t="s">
         <v>2204</v>
       </c>
-      <c r="D1971">
+      <c r="D1971" s="18">
         <v>127631</v>
       </c>
-      <c r="E1971">
+      <c r="E1971" s="18">
         <v>8.47546</v>
       </c>
-      <c r="F1971">
+      <c r="F1971" s="18">
         <v>48.923479999999998</v>
       </c>
-      <c r="G1971" t="s">
+      <c r="G1971" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="H1971">
+      <c r="H1971" s="18">
         <v>17</v>
       </c>
-      <c r="I1971" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1971">
+      <c r="I1971" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1971" s="18">
         <v>22</v>
       </c>
-      <c r="K1971">
+      <c r="K1971" s="18">
         <v>16</v>
       </c>
-      <c r="L1971">
-        <v>1</v>
-      </c>
-      <c r="M1971">
+      <c r="L1971" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1971" s="18">
         <v>127631</v>
       </c>
-    </row>
-    <row r="1972" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1972">
+      <c r="N1971" s="18"/>
+    </row>
+    <row r="1972" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1972" s="18">
         <v>1773</v>
       </c>
-      <c r="B1972">
+      <c r="B1972" s="18">
         <v>1464</v>
       </c>
-      <c r="C1972" t="s">
+      <c r="C1972" s="18" t="s">
         <v>2205</v>
       </c>
-      <c r="D1972">
+      <c r="D1972" s="18">
         <v>127640</v>
       </c>
-      <c r="E1972">
+      <c r="E1972" s="18">
         <v>8.4780800000000003</v>
       </c>
-      <c r="F1972">
+      <c r="F1972" s="18">
         <v>48.967129999999997</v>
       </c>
-      <c r="G1972" t="s">
+      <c r="G1972" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="H1972">
+      <c r="H1972" s="18">
         <v>17</v>
       </c>
-      <c r="I1972" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1972">
+      <c r="I1972" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1972" s="18">
         <v>22</v>
       </c>
-      <c r="K1972">
+      <c r="K1972" s="18">
         <v>16</v>
       </c>
-      <c r="L1972">
-        <v>1</v>
-      </c>
-      <c r="M1972">
+      <c r="L1972" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1972" s="18">
         <v>127640</v>
       </c>
-    </row>
-    <row r="1973" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1973">
+      <c r="N1972" s="18"/>
+    </row>
+    <row r="1973" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1973" s="18">
         <v>1776</v>
       </c>
-      <c r="B1973">
+      <c r="B1973" s="18">
         <v>1466</v>
       </c>
-      <c r="C1973" t="s">
+      <c r="C1973" s="19" t="s">
         <v>2206</v>
       </c>
-      <c r="D1973">
+      <c r="D1973" s="18">
         <v>131675</v>
       </c>
-      <c r="E1973">
+      <c r="E1973" s="18">
         <v>8.4826599999999992</v>
       </c>
-      <c r="F1973">
+      <c r="F1973" s="18">
         <v>48.946829999999999</v>
       </c>
-      <c r="G1973" t="s">
+      <c r="G1973" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="H1973">
+      <c r="H1973" s="18">
         <v>17</v>
       </c>
-      <c r="I1973" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1973">
+      <c r="I1973" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1973" s="18">
         <v>22</v>
       </c>
-      <c r="K1973">
+      <c r="K1973" s="18">
         <v>16</v>
       </c>
-      <c r="L1973">
-        <v>1</v>
-      </c>
-      <c r="M1973">
+      <c r="L1973" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1973" s="18">
         <v>131675</v>
       </c>
-    </row>
-    <row r="1974" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1974">
+      <c r="N1973" s="18"/>
+    </row>
+    <row r="1974" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1974" s="18">
         <v>1805</v>
       </c>
-      <c r="B1974">
+      <c r="B1974" s="18">
         <v>1479</v>
       </c>
-      <c r="C1974" t="s">
+      <c r="C1974" s="18" t="s">
         <v>2207</v>
       </c>
-      <c r="D1974">
+      <c r="D1974" s="18">
         <v>128645</v>
       </c>
-      <c r="E1974">
+      <c r="E1974" s="18">
         <v>8.51098</v>
       </c>
-      <c r="F1974">
+      <c r="F1974" s="18">
         <v>48.953960000000002</v>
       </c>
-      <c r="G1974" t="s">
+      <c r="G1974" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="H1974">
+      <c r="H1974" s="18">
         <v>18</v>
       </c>
-      <c r="I1974" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1974">
+      <c r="I1974" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1974" s="18">
         <v>22</v>
       </c>
-      <c r="K1974">
+      <c r="K1974" s="18">
         <v>13</v>
       </c>
-      <c r="L1974">
-        <v>1</v>
-      </c>
-      <c r="M1974">
+      <c r="L1974" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1974" s="18">
         <v>128645</v>
       </c>
-    </row>
-    <row r="1975" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1975">
+      <c r="N1974" s="18"/>
+    </row>
+    <row r="1975" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1975" s="18">
         <v>1824</v>
       </c>
-      <c r="B1975">
+      <c r="B1975" s="18">
         <v>1478</v>
       </c>
-      <c r="C1975" t="s">
+      <c r="C1975" s="19" t="s">
         <v>2208</v>
       </c>
-      <c r="D1975">
+      <c r="D1975" s="18">
         <v>129882</v>
       </c>
-      <c r="E1975">
+      <c r="E1975" s="18">
         <v>8.5342800000000008</v>
       </c>
-      <c r="F1975">
+      <c r="F1975" s="18">
         <v>48.944090000000003</v>
       </c>
-      <c r="G1975" t="s">
+      <c r="G1975" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="H1975">
+      <c r="H1975" s="18">
         <v>18</v>
       </c>
-      <c r="I1975" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1975">
+      <c r="I1975" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1975" s="18">
         <v>22</v>
       </c>
-      <c r="K1975">
+      <c r="K1975" s="18">
         <v>13</v>
       </c>
-      <c r="L1975">
-        <v>1</v>
-      </c>
-      <c r="M1975">
+      <c r="L1975" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1975" s="18">
         <v>129882</v>
       </c>
-    </row>
-    <row r="1976" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1976">
+      <c r="N1975" s="18"/>
+    </row>
+    <row r="1976" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1976" s="18">
         <v>1829</v>
       </c>
-      <c r="B1976">
+      <c r="B1976" s="18">
         <v>1473</v>
       </c>
-      <c r="C1976" t="s">
+      <c r="C1976" s="19" t="s">
         <v>639</v>
       </c>
-      <c r="D1976">
+      <c r="D1976" s="18">
         <v>131761</v>
       </c>
-      <c r="E1976">
+      <c r="E1976" s="18">
         <v>8.5425000000000004</v>
       </c>
-      <c r="F1976">
+      <c r="F1976" s="18">
         <v>48.986220000000003</v>
       </c>
-      <c r="G1976" t="s">
+      <c r="G1976" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="H1976">
+      <c r="H1976" s="18">
         <v>18</v>
       </c>
-      <c r="I1976" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1976">
+      <c r="I1976" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1976" s="18">
         <v>22</v>
       </c>
-      <c r="K1976">
+      <c r="K1976" s="18">
         <v>13</v>
       </c>
-      <c r="L1976">
-        <v>1</v>
-      </c>
-      <c r="M1976">
+      <c r="L1976" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1976" s="18">
         <v>131761</v>
       </c>
-    </row>
-    <row r="1977" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1977">
+      <c r="N1976" s="18"/>
+    </row>
+    <row r="1977" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1977" s="18">
         <v>1839</v>
       </c>
-      <c r="B1977">
+      <c r="B1977" s="18">
         <v>1474</v>
       </c>
-      <c r="C1977" t="s">
+      <c r="C1977" s="18" t="s">
         <v>2209</v>
       </c>
-      <c r="D1977">
+      <c r="D1977" s="18">
         <v>132806</v>
       </c>
-      <c r="E1977">
+      <c r="E1977" s="18">
         <v>8.5538299999999996</v>
       </c>
-      <c r="F1977">
+      <c r="F1977" s="18">
         <v>48.96613</v>
       </c>
-      <c r="G1977" t="s">
+      <c r="G1977" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="H1977">
+      <c r="H1977" s="18">
         <v>18</v>
       </c>
-      <c r="I1977" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1977">
+      <c r="I1977" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1977" s="18">
         <v>22</v>
       </c>
-      <c r="K1977">
+      <c r="K1977" s="18">
         <v>13</v>
       </c>
-      <c r="L1977">
-        <v>1</v>
-      </c>
-      <c r="M1977">
+      <c r="L1977" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1977" s="18">
         <v>132806</v>
       </c>
-    </row>
-    <row r="1978" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1978">
+      <c r="N1977" s="18"/>
+    </row>
+    <row r="1978" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1978" s="18">
         <v>1847</v>
       </c>
-      <c r="B1978">
+      <c r="B1978" s="18">
         <v>1419</v>
       </c>
-      <c r="C1978" t="s">
+      <c r="C1978" s="18" t="s">
         <v>2210</v>
       </c>
-      <c r="D1978">
+      <c r="D1978" s="18">
         <v>127934</v>
       </c>
-      <c r="E1978">
+      <c r="E1978" s="18">
         <v>8.5673700000000004</v>
       </c>
-      <c r="F1978">
+      <c r="F1978" s="18">
         <v>48.999479999999998</v>
       </c>
-      <c r="G1978" t="s">
+      <c r="G1978" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="H1978">
+      <c r="H1978" s="18">
         <v>18</v>
       </c>
-      <c r="I1978" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1978">
+      <c r="I1978" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1978" s="18">
         <v>22</v>
       </c>
-      <c r="K1978">
+      <c r="K1978" s="18">
         <v>13</v>
       </c>
-      <c r="L1978">
-        <v>1</v>
-      </c>
-      <c r="M1978">
+      <c r="L1978" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1978" s="18">
         <v>127934</v>
       </c>
-    </row>
-    <row r="1979" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1979">
+      <c r="N1978" s="18"/>
+    </row>
+    <row r="1979" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1979" s="18">
         <v>1848</v>
       </c>
-      <c r="B1979">
+      <c r="B1979" s="18">
         <v>1475</v>
       </c>
-      <c r="C1979" t="s">
+      <c r="C1979" s="19" t="s">
         <v>2211</v>
       </c>
-      <c r="D1979">
+      <c r="D1979" s="18">
         <v>133322</v>
       </c>
-      <c r="E1979">
+      <c r="E1979" s="18">
         <v>8.5680399999999999</v>
       </c>
-      <c r="F1979">
+      <c r="F1979" s="18">
         <v>48.957639999999998</v>
       </c>
-      <c r="G1979" t="s">
+      <c r="G1979" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="H1979">
+      <c r="H1979" s="18">
         <v>18</v>
       </c>
-      <c r="I1979" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1979">
+      <c r="I1979" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1979" s="18">
         <v>22</v>
       </c>
-      <c r="K1979">
+      <c r="K1979" s="18">
         <v>13</v>
       </c>
-      <c r="L1979">
-        <v>1</v>
-      </c>
-      <c r="M1979">
+      <c r="L1979" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1979" s="18">
         <v>133322</v>
       </c>
-    </row>
-    <row r="1980" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1980">
+      <c r="N1979" s="18"/>
+    </row>
+    <row r="1980" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1980" s="18">
         <v>1849</v>
       </c>
-      <c r="B1980">
+      <c r="B1980" s="18">
         <v>1477</v>
       </c>
-      <c r="C1980" t="s">
+      <c r="C1980" s="18" t="s">
         <v>2212</v>
       </c>
-      <c r="D1980">
+      <c r="D1980" s="18">
         <v>129264</v>
       </c>
-      <c r="E1980">
+      <c r="E1980" s="18">
         <v>8.5691600000000001</v>
       </c>
-      <c r="F1980">
+      <c r="F1980" s="18">
         <v>48.930079999999997</v>
       </c>
-      <c r="G1980" t="s">
+      <c r="G1980" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="H1980">
+      <c r="H1980" s="18">
         <v>18</v>
       </c>
-      <c r="I1980" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1980">
+      <c r="I1980" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1980" s="18">
         <v>22</v>
       </c>
-      <c r="K1980">
+      <c r="K1980" s="18">
         <v>13</v>
       </c>
-      <c r="L1980">
-        <v>1</v>
-      </c>
-      <c r="M1980">
+      <c r="L1980" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1980" s="18">
         <v>129264</v>
       </c>
-    </row>
-    <row r="1981" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1981">
+      <c r="N1980" s="18"/>
+    </row>
+    <row r="1981" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1981" s="18">
         <v>1854</v>
       </c>
-      <c r="B1981">
+      <c r="B1981" s="18">
         <v>1476</v>
       </c>
-      <c r="C1981" t="s">
+      <c r="C1981" s="19" t="s">
         <v>2213</v>
       </c>
-      <c r="D1981">
+      <c r="D1981" s="18">
         <v>127330</v>
       </c>
-      <c r="E1981">
+      <c r="E1981" s="18">
         <v>8.5728100000000005</v>
       </c>
-      <c r="F1981">
+      <c r="F1981" s="18">
         <v>48.948700000000002</v>
       </c>
-      <c r="G1981" t="s">
+      <c r="G1981" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="H1981">
+      <c r="H1981" s="18">
         <v>18</v>
       </c>
-      <c r="I1981" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1981">
+      <c r="I1981" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1981" s="18">
         <v>22</v>
       </c>
-      <c r="K1981">
+      <c r="K1981" s="18">
         <v>13</v>
       </c>
-      <c r="L1981">
-        <v>1</v>
-      </c>
-      <c r="M1981">
+      <c r="L1981" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1981" s="18">
         <v>127330</v>
       </c>
-    </row>
-    <row r="1982" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1982">
+      <c r="N1981" s="18"/>
+    </row>
+    <row r="1982" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1982" s="18">
         <v>1875</v>
       </c>
-      <c r="B1982" t="s">
+      <c r="B1982" s="18" t="s">
         <v>2214</v>
       </c>
-      <c r="C1982" t="s">
+      <c r="C1982" s="22" t="s">
         <v>2215</v>
       </c>
-      <c r="D1982" t="s">
+      <c r="D1982" s="18" t="s">
         <v>2216</v>
       </c>
-      <c r="E1982">
+      <c r="E1982" s="18">
         <v>8.6120699999999992</v>
       </c>
-      <c r="F1982">
+      <c r="F1982" s="18">
         <v>48.965150000000001</v>
       </c>
-      <c r="G1982" t="s">
+      <c r="G1982" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="H1982">
+      <c r="H1982" s="18">
         <v>18</v>
       </c>
-      <c r="I1982" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1982">
+      <c r="I1982" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1982" s="18">
         <v>22</v>
       </c>
-      <c r="K1982">
+      <c r="K1982" s="18">
         <v>13</v>
       </c>
-      <c r="L1982">
+      <c r="L1982" s="18">
         <v>2</v>
       </c>
-      <c r="M1982" t="s">
+      <c r="M1982" s="18" t="s">
         <v>2217</v>
       </c>
-    </row>
-    <row r="1983" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1983">
+      <c r="N1982" s="18"/>
+    </row>
+    <row r="1983" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1983" s="18">
         <v>1880</v>
       </c>
-      <c r="B1983">
+      <c r="B1983" s="18">
         <v>1482</v>
       </c>
-      <c r="C1983" t="s">
+      <c r="C1983" s="19" t="s">
         <v>2218</v>
       </c>
-      <c r="D1983">
+      <c r="D1983" s="18">
         <v>128140</v>
       </c>
-      <c r="E1983">
+      <c r="E1983" s="18">
         <v>8.6199600000000007</v>
       </c>
-      <c r="F1983">
+      <c r="F1983" s="18">
         <v>48.950270000000003</v>
       </c>
-      <c r="G1983" t="s">
+      <c r="G1983" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="H1983">
+      <c r="H1983" s="18">
         <v>18</v>
       </c>
-      <c r="I1983" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1983">
+      <c r="I1983" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1983" s="18">
         <v>22</v>
       </c>
-      <c r="K1983">
+      <c r="K1983" s="18">
         <v>13</v>
       </c>
-      <c r="L1983">
-        <v>1</v>
-      </c>
-      <c r="M1983">
+      <c r="L1983" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1983" s="18">
         <v>128140</v>
       </c>
-    </row>
-    <row r="1984" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1984">
+      <c r="N1983" s="18"/>
+    </row>
+    <row r="1984" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1984" s="18">
         <v>1887</v>
       </c>
-      <c r="B1984">
+      <c r="B1984" s="18">
         <v>1483</v>
       </c>
-      <c r="C1984" t="s">
+      <c r="C1984" s="19" t="s">
         <v>2219</v>
       </c>
-      <c r="D1984">
+      <c r="D1984" s="18">
         <v>129584</v>
       </c>
-      <c r="E1984">
+      <c r="E1984" s="18">
         <v>8.6349199999999993</v>
       </c>
-      <c r="F1984">
+      <c r="F1984" s="18">
         <v>48.933239999999998</v>
       </c>
-      <c r="G1984" t="s">
+      <c r="G1984" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="H1984">
+      <c r="H1984" s="18">
         <v>18</v>
       </c>
-      <c r="I1984" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1984">
+      <c r="I1984" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1984" s="18">
         <v>22</v>
       </c>
-      <c r="K1984">
+      <c r="K1984" s="18">
         <v>13</v>
       </c>
-      <c r="L1984">
-        <v>1</v>
-      </c>
-      <c r="M1984">
+      <c r="L1984" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1984" s="18">
         <v>129584</v>
       </c>
-    </row>
-    <row r="1985" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1985">
+      <c r="N1984" s="18"/>
+    </row>
+    <row r="1985" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1985" s="18">
         <v>1917</v>
       </c>
-      <c r="B1985">
+      <c r="B1985" s="18">
         <v>1487</v>
       </c>
-      <c r="C1985" t="s">
+      <c r="C1985" s="19" t="s">
         <v>2220</v>
       </c>
-      <c r="D1985">
+      <c r="D1985" s="18">
         <v>128481</v>
       </c>
-      <c r="E1985">
+      <c r="E1985" s="18">
         <v>8.6686499999999995</v>
       </c>
-      <c r="F1985">
+      <c r="F1985" s="18">
         <v>48.94773</v>
       </c>
-      <c r="G1985" t="s">
+      <c r="G1985" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="H1985">
+      <c r="H1985" s="18">
         <v>18</v>
       </c>
-      <c r="I1985" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1985">
+      <c r="I1985" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1985" s="18">
         <v>22</v>
       </c>
-      <c r="K1985">
+      <c r="K1985" s="18">
         <v>13</v>
       </c>
-      <c r="L1985">
-        <v>1</v>
-      </c>
-      <c r="M1985">
+      <c r="L1985" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1985" s="18">
         <v>128481</v>
       </c>
-    </row>
-    <row r="1986" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1986">
+      <c r="N1985" s="18"/>
+    </row>
+    <row r="1986" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1986" s="18">
         <v>1939</v>
       </c>
-      <c r="B1986">
+      <c r="B1986" s="18">
         <v>1484</v>
       </c>
-      <c r="C1986" t="s">
+      <c r="C1986" s="19" t="s">
         <v>2221</v>
       </c>
-      <c r="D1986">
+      <c r="D1986" s="18">
         <v>131125</v>
       </c>
-      <c r="E1986">
+      <c r="E1986" s="18">
         <v>8.6935300000000009</v>
       </c>
-      <c r="F1986">
+      <c r="F1986" s="18">
         <v>48.98977</v>
       </c>
-      <c r="G1986" t="s">
+      <c r="G1986" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="H1986">
+      <c r="H1986" s="18">
         <v>19</v>
       </c>
-      <c r="I1986" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1986">
+      <c r="I1986" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1986" s="18">
         <v>22</v>
       </c>
-      <c r="K1986">
+      <c r="K1986" s="18">
         <v>6</v>
       </c>
-      <c r="L1986">
-        <v>1</v>
-      </c>
-      <c r="M1986">
+      <c r="L1986" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1986" s="18">
         <v>131125</v>
       </c>
-    </row>
-    <row r="1987" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1987">
+      <c r="N1986" s="18"/>
+    </row>
+    <row r="1987" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1987" s="18">
         <v>1955</v>
       </c>
-      <c r="B1987">
+      <c r="B1987" s="18">
         <v>1486</v>
       </c>
-      <c r="C1987" t="s">
+      <c r="C1987" s="19" t="s">
         <v>2222</v>
       </c>
-      <c r="D1987">
+      <c r="D1987" s="18">
         <v>132956</v>
       </c>
-      <c r="E1987">
+      <c r="E1987" s="18">
         <v>8.7084799999999998</v>
       </c>
-      <c r="F1987">
+      <c r="F1987" s="18">
         <v>48.958080000000002</v>
       </c>
-      <c r="G1987" t="s">
+      <c r="G1987" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="H1987">
+      <c r="H1987" s="18">
         <v>19</v>
       </c>
-      <c r="I1987" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1987">
+      <c r="I1987" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1987" s="18">
         <v>22</v>
       </c>
-      <c r="K1987">
+      <c r="K1987" s="18">
         <v>6</v>
       </c>
-      <c r="L1987">
-        <v>1</v>
-      </c>
-      <c r="M1987">
+      <c r="L1987" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1987" s="18">
         <v>132956</v>
       </c>
-    </row>
-    <row r="1988" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1988">
+      <c r="N1987" s="18"/>
+    </row>
+    <row r="1988" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1988" s="18">
         <v>1971</v>
       </c>
-      <c r="B1988">
+      <c r="B1988" s="18">
         <v>1485</v>
       </c>
-      <c r="C1988" t="s">
+      <c r="C1988" s="19" t="s">
         <v>2223</v>
       </c>
-      <c r="D1988">
+      <c r="D1988" s="18">
         <v>133206</v>
       </c>
-      <c r="E1988">
+      <c r="E1988" s="18">
         <v>8.7278500000000001</v>
       </c>
-      <c r="F1988">
+      <c r="F1988" s="18">
         <v>48.970509999999997</v>
       </c>
-      <c r="G1988" t="s">
+      <c r="G1988" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="H1988">
+      <c r="H1988" s="18">
         <v>19</v>
       </c>
-      <c r="I1988" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1988">
+      <c r="I1988" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1988" s="18">
         <v>22</v>
       </c>
-      <c r="K1988">
+      <c r="K1988" s="18">
         <v>6</v>
       </c>
-      <c r="L1988">
-        <v>1</v>
-      </c>
-      <c r="M1988">
+      <c r="L1988" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1988" s="18">
         <v>133206</v>
       </c>
-    </row>
-    <row r="1989" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1989">
+      <c r="N1988" s="18"/>
+    </row>
+    <row r="1989" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1989" s="18">
         <v>1991</v>
       </c>
-      <c r="B1989">
+      <c r="B1989" s="18">
         <v>1489</v>
       </c>
-      <c r="C1989" t="s">
+      <c r="C1989" s="19" t="s">
         <v>2224</v>
       </c>
-      <c r="D1989">
+      <c r="D1989" s="18">
         <v>132736</v>
       </c>
-      <c r="E1989">
+      <c r="E1989" s="18">
         <v>8.7528699999999997</v>
       </c>
-      <c r="F1989">
+      <c r="F1989" s="18">
         <v>48.934530000000002</v>
       </c>
-      <c r="G1989" t="s">
+      <c r="G1989" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="H1989">
+      <c r="H1989" s="18">
         <v>19</v>
       </c>
-      <c r="I1989" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1989">
+      <c r="I1989" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1989" s="18">
         <v>22</v>
       </c>
-      <c r="K1989">
+      <c r="K1989" s="18">
         <v>6</v>
       </c>
-      <c r="L1989">
-        <v>1</v>
-      </c>
-      <c r="M1989">
+      <c r="L1989" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1989" s="18">
         <v>132736</v>
       </c>
-    </row>
-    <row r="1990" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1990">
+      <c r="N1989" s="18"/>
+    </row>
+    <row r="1990" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1990" s="18">
         <v>1997</v>
       </c>
-      <c r="B1990">
+      <c r="B1990" s="18">
         <v>1488</v>
       </c>
-      <c r="C1990" t="s">
+      <c r="C1990" s="19" t="s">
         <v>2225</v>
       </c>
-      <c r="D1990">
+      <c r="D1990" s="18">
         <v>133306</v>
       </c>
-      <c r="E1990">
+      <c r="E1990" s="18">
         <v>8.7561499999999999</v>
       </c>
-      <c r="F1990">
+      <c r="F1990" s="18">
         <v>48.956530000000001</v>
       </c>
-      <c r="G1990" t="s">
+      <c r="G1990" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="H1990">
+      <c r="H1990" s="18">
         <v>19</v>
       </c>
-      <c r="I1990" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1990">
+      <c r="I1990" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1990" s="18">
         <v>22</v>
       </c>
-      <c r="K1990">
+      <c r="K1990" s="18">
         <v>6</v>
       </c>
-      <c r="L1990">
-        <v>1</v>
-      </c>
-      <c r="M1990">
+      <c r="L1990" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1990" s="18">
         <v>133306</v>
       </c>
-    </row>
-    <row r="1991" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1991">
+      <c r="N1990" s="18"/>
+    </row>
+    <row r="1991" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1991" s="18">
         <v>2014</v>
       </c>
-      <c r="B1991">
+      <c r="B1991" s="18">
         <v>1490</v>
       </c>
-      <c r="C1991" t="s">
+      <c r="C1991" s="18" t="s">
         <v>2226</v>
       </c>
-      <c r="D1991">
+      <c r="D1991" s="18">
         <v>130987</v>
       </c>
-      <c r="E1991">
+      <c r="E1991" s="18">
         <v>8.7760099999999994</v>
       </c>
-      <c r="F1991">
+      <c r="F1991" s="18">
         <v>48.91977</v>
       </c>
-      <c r="G1991" t="s">
+      <c r="G1991" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="H1991">
+      <c r="H1991" s="18">
         <v>19</v>
       </c>
-      <c r="I1991" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1991">
+      <c r="I1991" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1991" s="18">
         <v>22</v>
       </c>
-      <c r="K1991">
+      <c r="K1991" s="18">
         <v>6</v>
       </c>
-      <c r="L1991">
-        <v>1</v>
-      </c>
-      <c r="M1991">
+      <c r="L1991" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1991" s="18">
         <v>130987</v>
       </c>
-    </row>
-    <row r="1992" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1992">
+      <c r="N1991" s="18"/>
+    </row>
+    <row r="1992" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1992" s="18">
         <v>1692</v>
       </c>
-      <c r="B1992">
+      <c r="B1992" s="18">
         <v>1525</v>
       </c>
-      <c r="C1992" t="s">
+      <c r="C1992" s="18" t="s">
         <v>2227</v>
       </c>
-      <c r="D1992">
+      <c r="D1992" s="18">
         <v>132860</v>
       </c>
-      <c r="E1992">
+      <c r="E1992" s="18">
         <v>8.3884899999999991</v>
       </c>
-      <c r="F1992">
+      <c r="F1992" s="18">
         <v>48.836379999999998</v>
       </c>
-      <c r="G1992" t="s">
+      <c r="G1992" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="H1992">
+      <c r="H1992" s="18">
         <v>17</v>
       </c>
-      <c r="I1992" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1992">
+      <c r="I1992" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1992" s="18">
         <v>23</v>
       </c>
-      <c r="K1992">
+      <c r="K1992" s="18">
         <v>13</v>
       </c>
-      <c r="L1992">
-        <v>1</v>
-      </c>
-      <c r="M1992">
+      <c r="L1992" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1992" s="18">
         <v>132860</v>
       </c>
-    </row>
-    <row r="1993" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1993">
+      <c r="N1992" s="18"/>
+    </row>
+    <row r="1993" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1993" s="18">
         <v>1700</v>
       </c>
-      <c r="B1993">
+      <c r="B1993" s="18">
         <v>1526</v>
       </c>
-      <c r="C1993" t="s">
+      <c r="C1993" s="19" t="s">
         <v>2228</v>
       </c>
-      <c r="D1993">
+      <c r="D1993" s="18">
         <v>129697</v>
       </c>
-      <c r="E1993">
+      <c r="E1993" s="18">
         <v>8.3964400000000001</v>
       </c>
-      <c r="F1993">
+      <c r="F1993" s="18">
         <v>48.870100000000001</v>
       </c>
-      <c r="G1993" t="s">
+      <c r="G1993" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="H1993">
+      <c r="H1993" s="18">
         <v>17</v>
       </c>
-      <c r="I1993" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1993">
+      <c r="I1993" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1993" s="18">
         <v>23</v>
       </c>
-      <c r="K1993">
+      <c r="K1993" s="18">
         <v>13</v>
       </c>
-      <c r="L1993">
-        <v>1</v>
-      </c>
-      <c r="M1993">
+      <c r="L1993" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1993" s="18">
         <v>129697</v>
       </c>
-    </row>
-    <row r="1994" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1994">
+      <c r="N1993" s="18"/>
+    </row>
+    <row r="1994" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1994" s="18">
         <v>1702</v>
       </c>
-      <c r="B1994">
+      <c r="B1994" s="18">
         <v>1517</v>
       </c>
-      <c r="C1994" t="s">
+      <c r="C1994" s="19" t="s">
         <v>2229</v>
       </c>
-      <c r="D1994">
+      <c r="D1994" s="18">
         <v>133659</v>
       </c>
-      <c r="E1994">
+      <c r="E1994" s="18">
         <v>8.4002199999999991</v>
       </c>
-      <c r="F1994">
+      <c r="F1994" s="18">
         <v>48.898850000000003</v>
       </c>
-      <c r="G1994" t="s">
+      <c r="G1994" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="H1994">
+      <c r="H1994" s="18">
         <v>17</v>
       </c>
-      <c r="I1994" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1994">
+      <c r="I1994" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1994" s="18">
         <v>23</v>
       </c>
-      <c r="K1994">
+      <c r="K1994" s="18">
         <v>13</v>
       </c>
-      <c r="L1994">
-        <v>1</v>
-      </c>
-      <c r="M1994">
+      <c r="L1994" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1994" s="18">
         <v>133659</v>
       </c>
-    </row>
-    <row r="1995" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1995">
+      <c r="N1994" s="18"/>
+    </row>
+    <row r="1995" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1995" s="18">
         <v>1720</v>
       </c>
-      <c r="B1995">
+      <c r="B1995" s="18">
         <v>1518</v>
       </c>
-      <c r="C1995" t="s">
+      <c r="C1995" s="18" t="s">
         <v>2230</v>
       </c>
-      <c r="D1995">
+      <c r="D1995" s="18">
         <v>134051</v>
       </c>
-      <c r="E1995">
+      <c r="E1995" s="18">
         <v>8.4217899999999997</v>
       </c>
-      <c r="F1995">
+      <c r="F1995" s="18">
         <v>48.898919999999997</v>
       </c>
-      <c r="G1995" t="s">
+      <c r="G1995" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="H1995">
+      <c r="H1995" s="18">
         <v>17</v>
       </c>
-      <c r="I1995" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1995">
+      <c r="I1995" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1995" s="18">
         <v>23</v>
       </c>
-      <c r="K1995">
+      <c r="K1995" s="18">
         <v>13</v>
       </c>
-      <c r="L1995">
-        <v>1</v>
-      </c>
-      <c r="M1995">
+      <c r="L1995" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1995" s="18">
         <v>134051</v>
       </c>
-    </row>
-    <row r="1996" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1996">
+      <c r="N1995" s="18"/>
+    </row>
+    <row r="1996" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1996" s="18">
         <v>1726</v>
       </c>
-      <c r="B1996">
+      <c r="B1996" s="18">
         <v>1519</v>
       </c>
-      <c r="C1996" t="s">
+      <c r="C1996" s="18" t="s">
         <v>2231</v>
       </c>
-      <c r="D1996">
+      <c r="D1996" s="18">
         <v>131487</v>
       </c>
-      <c r="E1996">
+      <c r="E1996" s="18">
         <v>8.4299199999999992</v>
       </c>
-      <c r="F1996">
+      <c r="F1996" s="18">
         <v>48.91189</v>
       </c>
-      <c r="G1996" t="s">
+      <c r="G1996" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="H1996">
+      <c r="H1996" s="18">
         <v>17</v>
       </c>
-      <c r="I1996" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1996">
+      <c r="I1996" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1996" s="18">
         <v>23</v>
       </c>
-      <c r="K1996">
+      <c r="K1996" s="18">
         <v>13</v>
       </c>
-      <c r="L1996">
-        <v>1</v>
-      </c>
-      <c r="M1996">
+      <c r="L1996" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1996" s="18">
         <v>131487</v>
       </c>
-    </row>
-    <row r="1997" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1997">
+      <c r="N1996" s="18"/>
+    </row>
+    <row r="1997" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1997" s="18">
         <v>1729</v>
       </c>
-      <c r="B1997">
+      <c r="B1997" s="18">
         <v>1522</v>
       </c>
-      <c r="C1997" t="s">
+      <c r="C1997" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="D1997">
+      <c r="D1997" s="18">
         <v>131236</v>
       </c>
-      <c r="E1997">
+      <c r="E1997" s="18">
         <v>8.4385300000000001</v>
       </c>
-      <c r="F1997">
+      <c r="F1997" s="18">
         <v>48.870370000000001</v>
       </c>
-      <c r="G1997" t="s">
+      <c r="G1997" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="H1997">
+      <c r="H1997" s="18">
         <v>17</v>
       </c>
-      <c r="I1997" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1997">
+      <c r="I1997" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1997" s="18">
         <v>23</v>
       </c>
-      <c r="K1997">
+      <c r="K1997" s="18">
         <v>13</v>
       </c>
-      <c r="L1997">
-        <v>1</v>
-      </c>
-      <c r="M1997">
+      <c r="L1997" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1997" s="18">
         <v>131236</v>
       </c>
-    </row>
-    <row r="1998" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1998">
+      <c r="N1997" s="18"/>
+    </row>
+    <row r="1998" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1998" s="18">
         <v>1738</v>
       </c>
-      <c r="B1998">
+      <c r="B1998" s="18">
         <v>1524</v>
       </c>
-      <c r="C1998" t="s">
+      <c r="C1998" s="19" t="s">
         <v>2232</v>
       </c>
-      <c r="D1998">
+      <c r="D1998" s="18">
         <v>132889</v>
       </c>
-      <c r="E1998">
+      <c r="E1998" s="18">
         <v>8.4494500000000006</v>
       </c>
-      <c r="F1998">
+      <c r="F1998" s="18">
         <v>48.843110000000003</v>
       </c>
-      <c r="G1998" t="s">
+      <c r="G1998" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="H1998">
+      <c r="H1998" s="18">
         <v>17</v>
       </c>
-      <c r="I1998" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1998">
+      <c r="I1998" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1998" s="18">
         <v>23</v>
       </c>
-      <c r="K1998">
+      <c r="K1998" s="18">
         <v>13</v>
       </c>
-      <c r="L1998">
-        <v>1</v>
-      </c>
-      <c r="M1998">
+      <c r="L1998" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1998" s="18">
         <v>132889</v>
       </c>
-    </row>
-    <row r="1999" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1999">
+      <c r="N1998" s="18"/>
+    </row>
+    <row r="1999" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1999" s="18">
         <v>1747</v>
       </c>
-      <c r="B1999">
+      <c r="B1999" s="18">
         <v>1523</v>
       </c>
-      <c r="C1999" t="s">
+      <c r="C1999" s="18" t="s">
         <v>2233</v>
       </c>
-      <c r="D1999">
+      <c r="D1999" s="18">
         <v>132665</v>
       </c>
-      <c r="E1999">
+      <c r="E1999" s="18">
         <v>8.4586100000000002</v>
       </c>
-      <c r="F1999">
+      <c r="F1999" s="18">
         <v>48.860750000000003</v>
       </c>
-      <c r="G1999" t="s">
+      <c r="G1999" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="H1999">
+      <c r="H1999" s="18">
         <v>17</v>
       </c>
-      <c r="I1999" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1999">
+      <c r="I1999" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1999" s="18">
         <v>23</v>
       </c>
-      <c r="K1999">
+      <c r="K1999" s="18">
         <v>13</v>
       </c>
-      <c r="L1999">
-        <v>1</v>
-      </c>
-      <c r="M1999">
+      <c r="L1999" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1999" s="18">
         <v>132665</v>
       </c>
-    </row>
-    <row r="2000" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2000">
+      <c r="N1999" s="18"/>
+    </row>
+    <row r="2000" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2000" s="18">
         <v>1756</v>
       </c>
-      <c r="B2000">
+      <c r="B2000" s="18">
         <v>1520</v>
       </c>
-      <c r="C2000" t="s">
+      <c r="C2000" s="19" t="s">
         <v>2234</v>
       </c>
-      <c r="D2000">
+      <c r="D2000" s="18">
         <v>133030</v>
       </c>
-      <c r="E2000">
+      <c r="E2000" s="18">
         <v>8.4646500000000007</v>
       </c>
-      <c r="F2000">
+      <c r="F2000" s="18">
         <v>48.909680000000002</v>
       </c>
-      <c r="G2000" t="s">
+      <c r="G2000" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="H2000">
+      <c r="H2000" s="18">
         <v>17</v>
       </c>
-      <c r="I2000" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2000">
+      <c r="I2000" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2000" s="18">
         <v>23</v>
       </c>
-      <c r="K2000">
+      <c r="K2000" s="18">
         <v>13</v>
       </c>
-      <c r="L2000">
-        <v>1</v>
-      </c>
-      <c r="M2000">
+      <c r="L2000" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2000" s="18">
         <v>133030</v>
       </c>
-    </row>
-    <row r="2001" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2001">
+      <c r="N2000" s="18"/>
+    </row>
+    <row r="2001" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2001" s="18">
         <v>1765</v>
       </c>
-      <c r="B2001">
+      <c r="B2001" s="18">
         <v>1521</v>
       </c>
-      <c r="C2001" t="s">
+      <c r="C2001" s="19" t="s">
         <v>2235</v>
       </c>
-      <c r="D2001">
+      <c r="D2001" s="18">
         <v>134070</v>
       </c>
-      <c r="E2001">
+      <c r="E2001" s="18">
         <v>8.4704499999999996</v>
       </c>
-      <c r="F2001">
+      <c r="F2001" s="18">
         <v>48.897579999999998</v>
       </c>
-      <c r="G2001" t="s">
+      <c r="G2001" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="H2001">
+      <c r="H2001" s="18">
         <v>17</v>
       </c>
-      <c r="I2001" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2001">
+      <c r="I2001" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2001" s="18">
         <v>23</v>
       </c>
-      <c r="K2001">
+      <c r="K2001" s="18">
         <v>13</v>
       </c>
-      <c r="L2001">
-        <v>1</v>
-      </c>
-      <c r="M2001">
+      <c r="L2001" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2001" s="18">
         <v>134070</v>
       </c>
-    </row>
-    <row r="2002" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2002">
+      <c r="N2001" s="18"/>
+    </row>
+    <row r="2002" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2002" s="18">
         <v>1797</v>
       </c>
-      <c r="B2002">
+      <c r="B2002" s="18">
         <v>1534</v>
       </c>
-      <c r="C2002" t="s">
+      <c r="C2002" s="19" t="s">
         <v>2236</v>
       </c>
-      <c r="D2002">
+      <c r="D2002" s="18">
         <v>132540</v>
       </c>
-      <c r="E2002">
+      <c r="E2002" s="18">
         <v>8.5010399999999997</v>
       </c>
-      <c r="F2002">
+      <c r="F2002" s="18">
         <v>48.84402</v>
       </c>
-      <c r="G2002" t="s">
+      <c r="G2002" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="H2002">
+      <c r="H2002" s="18">
         <v>17</v>
       </c>
-      <c r="I2002" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2002">
+      <c r="I2002" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2002" s="18">
         <v>23</v>
       </c>
-      <c r="K2002">
+      <c r="K2002" s="18">
         <v>13</v>
       </c>
-      <c r="L2002">
-        <v>1</v>
-      </c>
-      <c r="M2002">
+      <c r="L2002" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2002" s="18">
         <v>132540</v>
       </c>
-    </row>
-    <row r="2003" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2003">
+      <c r="N2002" s="18"/>
+    </row>
+    <row r="2003" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2003" s="18">
         <v>1800</v>
       </c>
-      <c r="B2003">
+      <c r="B2003" s="18">
         <v>1527</v>
       </c>
-      <c r="C2003" t="s">
+      <c r="C2003" s="18" t="s">
         <v>2237</v>
       </c>
-      <c r="D2003">
+      <c r="D2003" s="18">
         <v>544504</v>
       </c>
-      <c r="E2003">
+      <c r="E2003" s="18">
         <v>8.5063800000000001</v>
       </c>
-      <c r="F2003">
+      <c r="F2003" s="18">
         <v>48.914999999999999</v>
       </c>
-      <c r="G2003" t="s">
+      <c r="G2003" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="H2003">
+      <c r="H2003" s="18">
         <v>17</v>
       </c>
-      <c r="I2003" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2003">
+      <c r="I2003" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2003" s="18">
         <v>23</v>
       </c>
-      <c r="K2003">
+      <c r="K2003" s="18">
         <v>13</v>
       </c>
-      <c r="L2003">
-        <v>1</v>
-      </c>
-      <c r="M2003">
+      <c r="L2003" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2003" s="18">
         <v>544504</v>
       </c>
-    </row>
-    <row r="2004" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2004">
+      <c r="N2003" s="18"/>
+    </row>
+    <row r="2004" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2004" s="18">
         <v>1801</v>
       </c>
-      <c r="B2004">
+      <c r="B2004" s="18">
         <v>1533</v>
       </c>
-      <c r="C2004" t="s">
+      <c r="C2004" s="18" t="s">
         <v>2238</v>
       </c>
-      <c r="D2004">
+      <c r="D2004" s="18">
         <v>129331</v>
       </c>
-      <c r="E2004">
+      <c r="E2004" s="18">
         <v>8.5068400000000004</v>
       </c>
-      <c r="F2004">
+      <c r="F2004" s="18">
         <v>48.866379999999999</v>
       </c>
-      <c r="G2004" t="s">
+      <c r="G2004" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="H2004">
+      <c r="H2004" s="18">
         <v>17</v>
       </c>
-      <c r="I2004" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2004">
+      <c r="I2004" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2004" s="18">
         <v>23</v>
       </c>
-      <c r="K2004">
+      <c r="K2004" s="18">
         <v>13</v>
       </c>
-      <c r="L2004">
-        <v>1</v>
-      </c>
-      <c r="M2004">
+      <c r="L2004" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2004" s="18">
         <v>129331</v>
       </c>
-    </row>
-    <row r="2005" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2005">
+      <c r="N2004" s="18"/>
+    </row>
+    <row r="2005" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2005" s="18">
         <v>1820</v>
       </c>
-      <c r="B2005">
+      <c r="B2005" s="18">
         <v>1528</v>
       </c>
-      <c r="C2005" t="s">
+      <c r="C2005" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="D2005">
+      <c r="D2005" s="18">
         <v>131705</v>
       </c>
-      <c r="E2005">
+      <c r="E2005" s="18">
         <v>8.5316299999999998</v>
       </c>
-      <c r="F2005">
+      <c r="F2005" s="18">
         <v>48.913789999999999</v>
       </c>
-      <c r="G2005" t="s">
+      <c r="G2005" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="H2005">
+      <c r="H2005" s="18">
         <v>18</v>
       </c>
-      <c r="I2005" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2005">
+      <c r="I2005" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2005" s="18">
         <v>23</v>
       </c>
-      <c r="K2005">
+      <c r="K2005" s="18">
         <v>8</v>
       </c>
-      <c r="L2005">
-        <v>1</v>
-      </c>
-      <c r="M2005">
+      <c r="L2005" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2005" s="18">
         <v>131705</v>
       </c>
-    </row>
-    <row r="2006" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2006">
+      <c r="N2005" s="18"/>
+    </row>
+    <row r="2006" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2006" s="18">
         <v>1830</v>
       </c>
-      <c r="B2006">
+      <c r="B2006" s="18">
         <v>1532</v>
       </c>
-      <c r="C2006" t="s">
+      <c r="C2006" s="19" t="s">
         <v>2239</v>
       </c>
-      <c r="D2006">
+      <c r="D2006" s="18">
         <v>129768</v>
       </c>
-      <c r="E2006">
+      <c r="E2006" s="18">
         <v>8.5432600000000001</v>
       </c>
-      <c r="F2006">
+      <c r="F2006" s="18">
         <v>48.883699999999997</v>
       </c>
-      <c r="G2006" t="s">
+      <c r="G2006" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="H2006">
+      <c r="H2006" s="18">
         <v>18</v>
       </c>
-      <c r="I2006" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2006">
+      <c r="I2006" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2006" s="18">
         <v>23</v>
       </c>
-      <c r="K2006">
+      <c r="K2006" s="18">
         <v>8</v>
       </c>
-      <c r="L2006">
-        <v>1</v>
-      </c>
-      <c r="M2006">
+      <c r="L2006" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2006" s="18">
         <v>129768</v>
       </c>
-    </row>
-    <row r="2007" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2007">
+      <c r="N2006" s="18"/>
+    </row>
+    <row r="2007" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2007" s="18">
         <v>1843</v>
       </c>
-      <c r="B2007">
+      <c r="B2007" s="18">
         <v>1529</v>
       </c>
-      <c r="C2007" t="s">
+      <c r="C2007" s="18" t="s">
         <v>2240</v>
       </c>
-      <c r="D2007">
+      <c r="D2007" s="18">
         <v>132251</v>
       </c>
-      <c r="E2007">
+      <c r="E2007" s="18">
         <v>8.5600299999999994</v>
       </c>
-      <c r="F2007">
+      <c r="F2007" s="18">
         <v>48.91574</v>
       </c>
-      <c r="G2007" t="s">
+      <c r="G2007" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="H2007">
+      <c r="H2007" s="18">
         <v>18</v>
       </c>
-      <c r="I2007" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2007">
+      <c r="I2007" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2007" s="18">
         <v>23</v>
       </c>
-      <c r="K2007">
+      <c r="K2007" s="18">
         <v>8</v>
       </c>
-      <c r="L2007">
-        <v>1</v>
-      </c>
-      <c r="M2007">
+      <c r="L2007" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2007" s="18">
         <v>132251</v>
       </c>
-    </row>
-    <row r="2008" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2008">
+      <c r="N2007" s="18"/>
+    </row>
+    <row r="2008" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2008" s="18">
         <v>1858</v>
       </c>
-      <c r="B2008">
+      <c r="B2008" s="18">
         <v>1530</v>
       </c>
-      <c r="C2008" t="s">
+      <c r="C2008" s="19" t="s">
         <v>2241</v>
       </c>
-      <c r="D2008">
+      <c r="D2008" s="18">
         <v>130404</v>
       </c>
-      <c r="E2008">
+      <c r="E2008" s="18">
         <v>8.5761000000000003</v>
       </c>
-      <c r="F2008">
+      <c r="F2008" s="18">
         <v>48.901310000000002</v>
       </c>
-      <c r="G2008" t="s">
+      <c r="G2008" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="H2008">
+      <c r="H2008" s="18">
         <v>18</v>
       </c>
-      <c r="I2008" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2008">
+      <c r="I2008" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2008" s="18">
         <v>23</v>
       </c>
-      <c r="K2008">
+      <c r="K2008" s="18">
         <v>8</v>
       </c>
-      <c r="L2008">
-        <v>1</v>
-      </c>
-      <c r="M2008">
+      <c r="L2008" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2008" s="18">
         <v>130404</v>
       </c>
-    </row>
-    <row r="2009" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2009">
+      <c r="N2008" s="18"/>
+    </row>
+    <row r="2009" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2009" s="18">
         <v>1863</v>
       </c>
-      <c r="B2009">
+      <c r="B2009" s="18">
         <v>1531</v>
       </c>
-      <c r="C2009" t="s">
+      <c r="C2009" s="19" t="s">
         <v>1802</v>
       </c>
-      <c r="D2009">
+      <c r="D2009" s="18">
         <v>133604</v>
       </c>
-      <c r="E2009">
+      <c r="E2009" s="18">
         <v>8.60093</v>
       </c>
-      <c r="F2009">
+      <c r="F2009" s="18">
         <v>48.896540000000002</v>
       </c>
-      <c r="G2009" t="s">
+      <c r="G2009" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="H2009">
+      <c r="H2009" s="18">
         <v>18</v>
       </c>
-      <c r="I2009" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2009">
+      <c r="I2009" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2009" s="18">
         <v>23</v>
       </c>
-      <c r="K2009">
+      <c r="K2009" s="18">
         <v>8</v>
       </c>
-      <c r="L2009">
-        <v>1</v>
-      </c>
-      <c r="M2009">
+      <c r="L2009" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2009" s="18">
         <v>133604</v>
       </c>
-    </row>
-    <row r="2010" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2010">
+      <c r="N2009" s="18"/>
+    </row>
+    <row r="2010" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2010" s="18">
         <v>1908</v>
       </c>
-      <c r="B2010">
+      <c r="B2010" s="18">
         <v>1535</v>
       </c>
-      <c r="C2010" t="s">
+      <c r="C2010" s="19" t="s">
         <v>2242</v>
       </c>
-      <c r="D2010">
+      <c r="D2010" s="18">
         <v>132379</v>
       </c>
-      <c r="E2010">
+      <c r="E2010" s="18">
         <v>8.6633499999999994</v>
       </c>
-      <c r="F2010">
+      <c r="F2010" s="18">
         <v>48.855580000000003</v>
       </c>
-      <c r="G2010" t="s">
+      <c r="G2010" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="H2010">
+      <c r="H2010" s="18">
         <v>18</v>
       </c>
-      <c r="I2010" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2010">
+      <c r="I2010" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2010" s="18">
         <v>23</v>
       </c>
-      <c r="K2010">
+      <c r="K2010" s="18">
         <v>8</v>
       </c>
-      <c r="L2010">
-        <v>1</v>
-      </c>
-      <c r="M2010">
+      <c r="L2010" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2010" s="18">
         <v>132379</v>
       </c>
-    </row>
-    <row r="2011" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2011">
+      <c r="N2010" s="18"/>
+    </row>
+    <row r="2011" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2011" s="18">
         <v>1912</v>
       </c>
-      <c r="B2011">
+      <c r="B2011" s="18">
         <v>1536</v>
       </c>
-      <c r="C2011" t="s">
+      <c r="C2011" s="18" t="s">
         <v>2243</v>
       </c>
-      <c r="D2011">
+      <c r="D2011" s="18">
         <v>131978</v>
       </c>
-      <c r="E2011">
+      <c r="E2011" s="18">
         <v>8.6676400000000005</v>
       </c>
-      <c r="F2011">
+      <c r="F2011" s="18">
         <v>48.916550000000001</v>
       </c>
-      <c r="G2011" t="s">
+      <c r="G2011" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="H2011">
+      <c r="H2011" s="18">
         <v>18</v>
       </c>
-      <c r="I2011" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2011">
+      <c r="I2011" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2011" s="18">
         <v>23</v>
       </c>
-      <c r="K2011">
+      <c r="K2011" s="18">
         <v>8</v>
       </c>
-      <c r="L2011">
-        <v>1</v>
-      </c>
-      <c r="M2011">
+      <c r="L2011" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2011" s="18">
         <v>131978</v>
       </c>
-    </row>
-    <row r="2012" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2012">
+      <c r="N2011" s="18"/>
+    </row>
+    <row r="2012" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2012" s="18">
         <v>1915</v>
       </c>
-      <c r="B2012">
+      <c r="B2012" s="18">
         <v>1537</v>
       </c>
-      <c r="C2012" t="s">
+      <c r="C2012" s="22" t="s">
         <v>2244</v>
       </c>
-      <c r="D2012">
+      <c r="D2012" s="18">
         <v>544496</v>
       </c>
-      <c r="E2012">
+      <c r="E2012" s="18">
         <v>8.6679899999999996</v>
       </c>
-      <c r="F2012">
+      <c r="F2012" s="18">
         <v>48.889000000000003</v>
       </c>
-      <c r="G2012" t="s">
+      <c r="G2012" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="H2012">
+      <c r="H2012" s="18">
         <v>18</v>
       </c>
-      <c r="I2012" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2012">
+      <c r="I2012" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2012" s="18">
         <v>23</v>
       </c>
-      <c r="K2012">
+      <c r="K2012" s="18">
         <v>8</v>
       </c>
-      <c r="L2012">
-        <v>1</v>
-      </c>
-      <c r="M2012">
+      <c r="L2012" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2012" s="18">
         <v>544496</v>
       </c>
-    </row>
-    <row r="2013" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2013">
+      <c r="N2012" s="18"/>
+    </row>
+    <row r="2013" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2013" s="18">
         <v>1940</v>
       </c>
-      <c r="B2013">
+      <c r="B2013" s="18">
         <v>1545</v>
       </c>
-      <c r="C2013" t="s">
+      <c r="C2013" s="19" t="s">
         <v>2245</v>
       </c>
-      <c r="D2013">
+      <c r="D2013" s="18">
         <v>132798</v>
       </c>
-      <c r="E2013">
+      <c r="E2013" s="18">
         <v>8.6957400000000007</v>
       </c>
-      <c r="F2013">
+      <c r="F2013" s="18">
         <v>48.85613</v>
       </c>
-      <c r="G2013" t="s">
+      <c r="G2013" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="H2013">
+      <c r="H2013" s="18">
         <v>19</v>
       </c>
-      <c r="I2013" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2013">
+      <c r="I2013" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2013" s="18">
         <v>23</v>
       </c>
-      <c r="K2013">
+      <c r="K2013" s="18">
         <v>8</v>
       </c>
-      <c r="L2013">
-        <v>1</v>
-      </c>
-      <c r="M2013">
+      <c r="L2013" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2013" s="18">
         <v>132798</v>
       </c>
-    </row>
-    <row r="2014" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2014">
+      <c r="N2013" s="18"/>
+    </row>
+    <row r="2014" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2014" s="18">
         <v>1943</v>
       </c>
-      <c r="B2014" t="s">
+      <c r="B2014" s="18" t="s">
         <v>2246</v>
       </c>
-      <c r="C2014" t="s">
+      <c r="C2014" s="19" t="s">
         <v>2247</v>
       </c>
-      <c r="D2014" t="s">
+      <c r="D2014" s="18" t="s">
         <v>2248</v>
       </c>
-      <c r="E2014">
+      <c r="E2014" s="18">
         <v>8.7002500000000005</v>
       </c>
-      <c r="F2014">
+      <c r="F2014" s="18">
         <v>48.890129999999999</v>
       </c>
-      <c r="G2014" t="s">
+      <c r="G2014" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="H2014">
+      <c r="H2014" s="18">
         <v>19</v>
       </c>
-      <c r="I2014" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2014">
+      <c r="I2014" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2014" s="18">
         <v>23</v>
       </c>
-      <c r="K2014">
+      <c r="K2014" s="18">
         <v>8</v>
       </c>
-      <c r="L2014">
+      <c r="L2014" s="18">
         <v>4</v>
       </c>
-      <c r="M2014">
+      <c r="M2014" s="18">
         <v>131632</v>
       </c>
-    </row>
-    <row r="2015" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2015">
+      <c r="N2014" s="18"/>
+    </row>
+    <row r="2015" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2015" s="18">
         <v>1977</v>
       </c>
-      <c r="B2015">
+      <c r="B2015" s="18">
         <v>1546</v>
       </c>
-      <c r="C2015" t="s">
+      <c r="C2015" s="19" t="s">
         <v>2249</v>
       </c>
-      <c r="D2015">
+      <c r="D2015" s="18">
         <v>128782</v>
       </c>
-      <c r="E2015">
+      <c r="E2015" s="18">
         <v>8.7364099999999993</v>
       </c>
-      <c r="F2015">
+      <c r="F2015" s="18">
         <v>48.860410000000002</v>
       </c>
-      <c r="G2015" t="s">
+      <c r="G2015" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="H2015">
+      <c r="H2015" s="18">
         <v>19</v>
       </c>
-      <c r="I2015" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2015">
+      <c r="I2015" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2015" s="18">
         <v>23</v>
       </c>
-      <c r="K2015">
+      <c r="K2015" s="18">
         <v>8</v>
       </c>
-      <c r="L2015">
-        <v>1</v>
-      </c>
-      <c r="M2015">
+      <c r="L2015" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2015" s="18">
         <v>128782</v>
       </c>
-    </row>
-    <row r="2016" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2016">
+      <c r="N2015" s="18"/>
+    </row>
+    <row r="2016" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2016" s="18">
         <v>1987</v>
       </c>
-      <c r="B2016">
+      <c r="B2016" s="18">
         <v>1542</v>
       </c>
-      <c r="C2016" t="s">
+      <c r="C2016" s="18" t="s">
         <v>2250</v>
       </c>
-      <c r="D2016">
+      <c r="D2016" s="18">
         <v>127457</v>
       </c>
-      <c r="E2016">
+      <c r="E2016" s="18">
         <v>8.7457399999999996</v>
       </c>
-      <c r="F2016">
+      <c r="F2016" s="18">
         <v>48.910690000000002</v>
       </c>
-      <c r="G2016" t="s">
+      <c r="G2016" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="H2016">
+      <c r="H2016" s="18">
         <v>19</v>
       </c>
-      <c r="I2016" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2016">
+      <c r="I2016" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2016" s="18">
         <v>23</v>
       </c>
-      <c r="K2016">
+      <c r="K2016" s="18">
         <v>8</v>
       </c>
-      <c r="L2016">
-        <v>1</v>
-      </c>
-      <c r="M2016">
+      <c r="L2016" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2016" s="18">
         <v>127457</v>
       </c>
-    </row>
-    <row r="2017" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2017">
+      <c r="N2016" s="18"/>
+    </row>
+    <row r="2017" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2017" s="18">
         <v>2042</v>
       </c>
-      <c r="B2017">
+      <c r="B2017" s="18">
         <v>1543</v>
       </c>
-      <c r="C2017" t="s">
+      <c r="C2017" s="19" t="s">
         <v>2251</v>
       </c>
-      <c r="D2017">
+      <c r="D2017" s="18">
         <v>132528</v>
       </c>
-      <c r="E2017">
+      <c r="E2017" s="18">
         <v>8.8141499999999997</v>
       </c>
-      <c r="F2017">
+      <c r="F2017" s="18">
         <v>48.905990000000003</v>
       </c>
-      <c r="G2017" t="s">
+      <c r="G2017" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="H2017">
+      <c r="H2017" s="18">
         <v>19</v>
       </c>
-      <c r="I2017" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2017">
+      <c r="I2017" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2017" s="18">
         <v>23</v>
       </c>
-      <c r="K2017">
+      <c r="K2017" s="18">
         <v>8</v>
       </c>
-      <c r="L2017">
-        <v>1</v>
-      </c>
-      <c r="M2017">
+      <c r="L2017" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2017" s="18">
         <v>132528</v>
       </c>
-    </row>
-    <row r="2018" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N2017" s="18"/>
+    </row>
+    <row r="2018" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2018">
         <v>1643</v>
       </c>
@@ -91846,7 +92052,7 @@
         <v>131786</v>
       </c>
     </row>
-    <row r="2019" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2019" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2019">
         <v>1653</v>
       </c>
@@ -91887,7 +92093,7 @@
         <v>130232</v>
       </c>
     </row>
-    <row r="2020" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2020" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2020">
         <v>1661</v>
       </c>
@@ -91928,7 +92134,7 @@
         <v>127427</v>
       </c>
     </row>
-    <row r="2021" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2021" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2021">
         <v>1673</v>
       </c>
@@ -91969,7 +92175,7 @@
         <v>133814</v>
       </c>
     </row>
-    <row r="2022" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2022" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2022">
         <v>1974</v>
       </c>
@@ -92010,7 +92216,7 @@
         <v>133315</v>
       </c>
     </row>
-    <row r="2023" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2023" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2023">
         <v>1983</v>
       </c>
@@ -92051,7 +92257,7 @@
         <v>130597</v>
       </c>
     </row>
-    <row r="2024" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2024" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2024">
         <v>2009</v>
       </c>
@@ -92092,7 +92298,7 @@
         <v>129954</v>
       </c>
     </row>
-    <row r="2025" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2025" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2025">
         <v>2017</v>
       </c>
@@ -92133,7 +92339,7 @@
         <v>132686</v>
       </c>
     </row>
-    <row r="2026" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2026" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2026">
         <v>2027</v>
       </c>
@@ -92174,7 +92380,7 @@
         <v>130494</v>
       </c>
     </row>
-    <row r="2027" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2027" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2027">
         <v>2032</v>
       </c>
@@ -92215,7 +92421,7 @@
         <v>132338</v>
       </c>
     </row>
-    <row r="2028" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2028" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2028">
         <v>2044</v>
       </c>
@@ -92256,7 +92462,7 @@
         <v>129060</v>
       </c>
     </row>
-    <row r="2029" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2029" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2029">
         <v>2048</v>
       </c>
@@ -92297,7 +92503,7 @@
         <v>130736</v>
       </c>
     </row>
-    <row r="2030" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2030" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2030">
         <v>2339</v>
       </c>
@@ -92338,7 +92544,7 @@
         <v>134061</v>
       </c>
     </row>
-    <row r="2031" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2031" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2031">
         <v>2470</v>
       </c>
@@ -92379,7 +92585,7 @@
         <v>128345</v>
       </c>
     </row>
-    <row r="2032" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2032" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2032">
         <v>1647</v>
       </c>

--- a/GeoRef/Data_Places/DWA_places_JH.xlsx
+++ b/GeoRef/Data_Places/DWA_places_JH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DWA\GeoRef\Data_Places\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE98AFB6-B810-45A5-B50E-5E09757EB877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73947FD2-7FF9-412E-9E08-F2C1EFDC8517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10810" yWindow="770" windowWidth="14400" windowHeight="7250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8180" yWindow="2220" windowWidth="14400" windowHeight="7250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DWA_places_study_area" sheetId="1" r:id="rId1"/>
@@ -8732,8 +8732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T2340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1993" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2016" activeCellId="1" sqref="AP2012 C2016"/>
+    <sheetView tabSelected="1" topLeftCell="A2031" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H2014" sqref="H2014"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -92012,906 +92012,928 @@
       <c r="N2017" s="18"/>
     </row>
     <row r="2018" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2018">
+      <c r="A2018" s="18">
         <v>1643</v>
       </c>
-      <c r="B2018">
+      <c r="B2018" s="18">
         <v>1581</v>
       </c>
-      <c r="C2018" t="s">
+      <c r="C2018" s="18" t="s">
         <v>2252</v>
       </c>
-      <c r="D2018">
+      <c r="D2018" s="18">
         <v>131786</v>
       </c>
-      <c r="E2018">
+      <c r="E2018" s="18">
         <v>8.3431300000000004</v>
       </c>
-      <c r="F2018">
+      <c r="F2018" s="18">
         <v>48.780459999999998</v>
       </c>
-      <c r="G2018" t="s">
+      <c r="G2018" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="H2018">
+      <c r="H2018" s="18">
         <v>17</v>
       </c>
-      <c r="I2018" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2018">
+      <c r="I2018" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2018" s="18">
         <v>24</v>
       </c>
-      <c r="K2018">
+      <c r="K2018" s="18">
         <v>5</v>
       </c>
-      <c r="L2018">
-        <v>1</v>
-      </c>
-      <c r="M2018">
+      <c r="L2018" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2018" s="18">
         <v>131786</v>
       </c>
+      <c r="N2018" s="18"/>
     </row>
     <row r="2019" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2019">
+      <c r="A2019" s="18">
         <v>1653</v>
       </c>
-      <c r="B2019">
+      <c r="B2019" s="18">
         <v>1579</v>
       </c>
-      <c r="C2019" t="s">
+      <c r="C2019" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="D2019">
+      <c r="D2019" s="18">
         <v>130232</v>
       </c>
-      <c r="E2019">
+      <c r="E2019" s="18">
         <v>8.3506199999999993</v>
       </c>
-      <c r="F2019">
+      <c r="F2019" s="18">
         <v>48.818600000000004</v>
       </c>
-      <c r="G2019" t="s">
+      <c r="G2019" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="H2019">
+      <c r="H2019" s="18">
         <v>17</v>
       </c>
-      <c r="I2019" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2019">
+      <c r="I2019" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2019" s="18">
         <v>24</v>
       </c>
-      <c r="K2019">
+      <c r="K2019" s="18">
         <v>5</v>
       </c>
-      <c r="L2019">
-        <v>1</v>
-      </c>
-      <c r="M2019">
+      <c r="L2019" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2019" s="18">
         <v>130232</v>
       </c>
+      <c r="N2019" s="18"/>
     </row>
     <row r="2020" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2020">
+      <c r="A2020" s="18">
         <v>1661</v>
       </c>
-      <c r="B2020" t="s">
+      <c r="B2020" s="18" t="s">
         <v>2253</v>
       </c>
-      <c r="C2020" t="s">
+      <c r="C2020" s="19" t="s">
         <v>2254</v>
       </c>
-      <c r="D2020" t="s">
+      <c r="D2020" s="18" t="s">
         <v>2255</v>
       </c>
-      <c r="E2020">
+      <c r="E2020" s="18">
         <v>8.3579100000000004</v>
       </c>
-      <c r="F2020">
+      <c r="F2020" s="18">
         <v>48.805959999999999</v>
       </c>
-      <c r="G2020" t="s">
+      <c r="G2020" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="H2020">
+      <c r="H2020" s="18">
         <v>17</v>
       </c>
-      <c r="I2020" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2020">
+      <c r="I2020" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2020" s="18">
         <v>24</v>
       </c>
-      <c r="K2020">
+      <c r="K2020" s="18">
         <v>5</v>
       </c>
-      <c r="L2020">
+      <c r="L2020" s="18">
         <v>2</v>
       </c>
-      <c r="M2020">
+      <c r="M2020" s="18">
         <v>127427</v>
       </c>
+      <c r="N2020" s="18"/>
     </row>
     <row r="2021" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2021">
+      <c r="A2021" s="18">
         <v>1673</v>
       </c>
-      <c r="B2021">
+      <c r="B2021" s="18">
         <v>1583</v>
       </c>
-      <c r="C2021" t="s">
+      <c r="C2021" s="18" t="s">
         <v>2256</v>
       </c>
-      <c r="D2021">
+      <c r="D2021" s="18">
         <v>133814</v>
       </c>
-      <c r="E2021">
+      <c r="E2021" s="18">
         <v>8.3706800000000001</v>
       </c>
-      <c r="F2021">
+      <c r="F2021" s="18">
         <v>48.756140000000002</v>
       </c>
-      <c r="G2021" t="s">
+      <c r="G2021" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="H2021">
+      <c r="H2021" s="18">
         <v>17</v>
       </c>
-      <c r="I2021" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2021">
+      <c r="I2021" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2021" s="18">
         <v>24</v>
       </c>
-      <c r="K2021">
+      <c r="K2021" s="18">
         <v>5</v>
       </c>
-      <c r="L2021">
-        <v>1</v>
-      </c>
-      <c r="M2021">
+      <c r="L2021" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2021" s="18">
         <v>133814</v>
       </c>
+      <c r="N2021" s="18"/>
     </row>
     <row r="2022" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2022">
+      <c r="A2022" s="18">
         <v>1974</v>
       </c>
-      <c r="B2022">
+      <c r="B2022" s="18">
         <v>1544</v>
       </c>
-      <c r="C2022" t="s">
+      <c r="C2022" s="18" t="s">
         <v>2257</v>
       </c>
-      <c r="D2022">
+      <c r="D2022" s="18">
         <v>133315</v>
       </c>
-      <c r="E2022">
+      <c r="E2022" s="18">
         <v>8.7305399999999995</v>
       </c>
-      <c r="F2022">
+      <c r="F2022" s="18">
         <v>48.832439999999998</v>
       </c>
-      <c r="G2022" t="s">
+      <c r="G2022" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="H2022">
+      <c r="H2022" s="18">
         <v>19</v>
       </c>
-      <c r="I2022" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2022">
+      <c r="I2022" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2022" s="18">
         <v>24</v>
       </c>
-      <c r="K2022">
+      <c r="K2022" s="18">
         <v>8</v>
       </c>
-      <c r="L2022">
-        <v>1</v>
-      </c>
-      <c r="M2022">
+      <c r="L2022" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2022" s="18">
         <v>133315</v>
       </c>
+      <c r="N2022" s="18"/>
     </row>
     <row r="2023" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2023">
+      <c r="A2023" s="18">
         <v>1983</v>
       </c>
-      <c r="B2023">
+      <c r="B2023" s="18">
         <v>1585</v>
       </c>
-      <c r="C2023" t="s">
+      <c r="C2023" s="19" t="s">
         <v>2258</v>
       </c>
-      <c r="D2023">
+      <c r="D2023" s="18">
         <v>130597</v>
       </c>
-      <c r="E2023">
+      <c r="E2023" s="18">
         <v>8.7422199999999997</v>
       </c>
-      <c r="F2023">
+      <c r="F2023" s="18">
         <v>48.81738</v>
       </c>
-      <c r="G2023" t="s">
+      <c r="G2023" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="H2023">
+      <c r="H2023" s="18">
         <v>19</v>
       </c>
-      <c r="I2023" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2023">
+      <c r="I2023" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2023" s="18">
         <v>24</v>
       </c>
-      <c r="K2023">
+      <c r="K2023" s="18">
         <v>8</v>
       </c>
-      <c r="L2023">
-        <v>1</v>
-      </c>
-      <c r="M2023">
+      <c r="L2023" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2023" s="18">
         <v>130597</v>
       </c>
+      <c r="N2023" s="18"/>
     </row>
     <row r="2024" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2024">
+      <c r="A2024" s="18">
         <v>2009</v>
       </c>
-      <c r="B2024">
+      <c r="B2024" s="18">
         <v>1586</v>
       </c>
-      <c r="C2024" t="s">
+      <c r="C2024" s="19" t="s">
         <v>2259</v>
       </c>
-      <c r="D2024">
+      <c r="D2024" s="18">
         <v>129954</v>
       </c>
-      <c r="E2024">
+      <c r="E2024" s="18">
         <v>8.7692399999999999</v>
       </c>
-      <c r="F2024">
+      <c r="F2024" s="18">
         <v>48.818330000000003</v>
       </c>
-      <c r="G2024" t="s">
+      <c r="G2024" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="H2024">
+      <c r="H2024" s="18">
         <v>19</v>
       </c>
-      <c r="I2024" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2024">
+      <c r="I2024" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2024" s="18">
         <v>24</v>
       </c>
-      <c r="K2024">
+      <c r="K2024" s="18">
         <v>8</v>
       </c>
-      <c r="L2024">
-        <v>1</v>
-      </c>
-      <c r="M2024">
+      <c r="L2024" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2024" s="18">
         <v>129954</v>
       </c>
+      <c r="N2024" s="18"/>
     </row>
     <row r="2025" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2025">
+      <c r="A2025" s="18">
         <v>2017</v>
       </c>
-      <c r="B2025">
+      <c r="B2025" s="18">
         <v>1591</v>
       </c>
-      <c r="C2025" t="s">
+      <c r="C2025" s="19" t="s">
         <v>2260</v>
       </c>
-      <c r="D2025">
+      <c r="D2025" s="18">
         <v>132686</v>
       </c>
-      <c r="E2025">
+      <c r="E2025" s="18">
         <v>8.7788799999999991</v>
       </c>
-      <c r="F2025">
+      <c r="F2025" s="18">
         <v>48.792560000000002</v>
       </c>
-      <c r="G2025" t="s">
+      <c r="G2025" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="H2025">
+      <c r="H2025" s="18">
         <v>19</v>
       </c>
-      <c r="I2025" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2025">
+      <c r="I2025" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2025" s="18">
         <v>24</v>
       </c>
-      <c r="K2025">
+      <c r="K2025" s="18">
         <v>8</v>
       </c>
-      <c r="L2025">
-        <v>1</v>
-      </c>
-      <c r="M2025">
+      <c r="L2025" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2025" s="18">
         <v>132686</v>
       </c>
+      <c r="N2025" s="18"/>
     </row>
     <row r="2026" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2026">
+      <c r="A2026" s="18">
         <v>2027</v>
       </c>
-      <c r="B2026">
+      <c r="B2026" s="18">
         <v>1588</v>
       </c>
-      <c r="C2026" t="s">
+      <c r="C2026" s="19" t="s">
         <v>2261</v>
       </c>
-      <c r="D2026">
+      <c r="D2026" s="18">
         <v>130494</v>
       </c>
-      <c r="E2026">
+      <c r="E2026" s="18">
         <v>8.7909100000000002</v>
       </c>
-      <c r="F2026">
+      <c r="F2026" s="18">
         <v>48.813490000000002</v>
       </c>
-      <c r="G2026" t="s">
+      <c r="G2026" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="H2026">
+      <c r="H2026" s="18">
         <v>19</v>
       </c>
-      <c r="I2026" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2026">
+      <c r="I2026" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2026" s="18">
         <v>24</v>
       </c>
-      <c r="K2026">
+      <c r="K2026" s="18">
         <v>8</v>
       </c>
-      <c r="L2026">
-        <v>1</v>
-      </c>
-      <c r="M2026">
+      <c r="L2026" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2026" s="18">
         <v>130494</v>
       </c>
+      <c r="N2026" s="18"/>
     </row>
     <row r="2027" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2027">
+      <c r="A2027" s="18">
         <v>2032</v>
       </c>
-      <c r="B2027">
+      <c r="B2027" s="18">
         <v>1587</v>
       </c>
-      <c r="C2027" t="s">
+      <c r="C2027" s="19" t="s">
         <v>2262</v>
       </c>
-      <c r="D2027">
+      <c r="D2027" s="18">
         <v>132338</v>
       </c>
-      <c r="E2027">
+      <c r="E2027" s="18">
         <v>8.8032900000000005</v>
       </c>
-      <c r="F2027">
+      <c r="F2027" s="18">
         <v>48.825209999999998</v>
       </c>
-      <c r="G2027" t="s">
+      <c r="G2027" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="H2027">
+      <c r="H2027" s="18">
         <v>19</v>
       </c>
-      <c r="I2027" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2027">
+      <c r="I2027" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2027" s="18">
         <v>24</v>
       </c>
-      <c r="K2027">
+      <c r="K2027" s="18">
         <v>8</v>
       </c>
-      <c r="L2027">
-        <v>1</v>
-      </c>
-      <c r="M2027">
+      <c r="L2027" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2027" s="18">
         <v>132338</v>
       </c>
+      <c r="N2027" s="18"/>
     </row>
     <row r="2028" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2028">
+      <c r="A2028" s="18">
         <v>2044</v>
       </c>
-      <c r="B2028">
+      <c r="B2028" s="18">
         <v>1590</v>
       </c>
-      <c r="C2028" t="s">
+      <c r="C2028" s="19" t="s">
         <v>2263</v>
       </c>
-      <c r="D2028">
+      <c r="D2028" s="18">
         <v>129060</v>
       </c>
-      <c r="E2028">
+      <c r="E2028" s="18">
         <v>8.8163900000000002</v>
       </c>
-      <c r="F2028">
+      <c r="F2028" s="18">
         <v>48.79486</v>
       </c>
-      <c r="G2028" t="s">
+      <c r="G2028" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="H2028">
+      <c r="H2028" s="18">
         <v>19</v>
       </c>
-      <c r="I2028" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2028">
+      <c r="I2028" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2028" s="18">
         <v>24</v>
       </c>
-      <c r="K2028">
+      <c r="K2028" s="18">
         <v>8</v>
       </c>
-      <c r="L2028">
-        <v>1</v>
-      </c>
-      <c r="M2028">
+      <c r="L2028" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2028" s="18">
         <v>129060</v>
       </c>
+      <c r="N2028" s="18"/>
     </row>
     <row r="2029" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2029">
+      <c r="A2029" s="18">
         <v>2048</v>
       </c>
-      <c r="B2029">
+      <c r="B2029" s="18">
         <v>1589</v>
       </c>
-      <c r="C2029" t="s">
+      <c r="C2029" s="19" t="s">
         <v>497</v>
       </c>
-      <c r="D2029">
+      <c r="D2029" s="18">
         <v>130736</v>
       </c>
-      <c r="E2029">
+      <c r="E2029" s="18">
         <v>8.8220100000000006</v>
       </c>
-      <c r="F2029">
+      <c r="F2029" s="18">
         <v>48.806069999999998</v>
       </c>
-      <c r="G2029" t="s">
+      <c r="G2029" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="H2029">
+      <c r="H2029" s="18">
         <v>19</v>
       </c>
-      <c r="I2029" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2029">
+      <c r="I2029" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2029" s="18">
         <v>24</v>
       </c>
-      <c r="K2029">
+      <c r="K2029" s="18">
         <v>8</v>
       </c>
-      <c r="L2029">
-        <v>1</v>
-      </c>
-      <c r="M2029">
+      <c r="L2029" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2029" s="18">
         <v>130736</v>
       </c>
+      <c r="N2029" s="18"/>
     </row>
     <row r="2030" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2030">
+      <c r="A2030" s="18">
         <v>2339</v>
       </c>
-      <c r="B2030">
+      <c r="B2030" s="18">
         <v>1958</v>
       </c>
-      <c r="C2030" t="s">
+      <c r="C2030" s="18" t="s">
         <v>2264</v>
       </c>
-      <c r="D2030">
+      <c r="D2030" s="18">
         <v>134061</v>
       </c>
-      <c r="E2030">
+      <c r="E2030" s="18">
         <v>9.3404500000000006</v>
       </c>
-      <c r="F2030">
+      <c r="F2030" s="18">
         <v>48.792850000000001</v>
       </c>
-      <c r="G2030" t="s">
+      <c r="G2030" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="H2030">
+      <c r="H2030" s="18">
         <v>22</v>
       </c>
-      <c r="I2030" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2030">
+      <c r="I2030" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2030" s="18">
         <v>24</v>
       </c>
-      <c r="K2030">
-        <v>1</v>
-      </c>
-      <c r="L2030">
-        <v>1</v>
-      </c>
-      <c r="M2030">
+      <c r="K2030" s="18">
+        <v>1</v>
+      </c>
+      <c r="L2030" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2030" s="18">
         <v>134061</v>
       </c>
+      <c r="N2030" s="18"/>
     </row>
     <row r="2031" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2031">
+      <c r="A2031" s="18">
         <v>2470</v>
       </c>
-      <c r="B2031">
+      <c r="B2031" s="18">
         <v>1959</v>
       </c>
-      <c r="C2031" t="s">
+      <c r="C2031" s="19" t="s">
         <v>2265</v>
       </c>
-      <c r="D2031">
+      <c r="D2031" s="18">
         <v>128345</v>
       </c>
-      <c r="E2031">
+      <c r="E2031" s="18">
         <v>9.6869499999999995</v>
       </c>
-      <c r="F2031">
+      <c r="F2031" s="18">
         <v>48.759839999999997</v>
       </c>
-      <c r="G2031" t="s">
+      <c r="G2031" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="H2031">
+      <c r="H2031" s="18">
         <v>25</v>
       </c>
-      <c r="I2031" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2031">
+      <c r="I2031" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2031" s="18">
         <v>24</v>
       </c>
-      <c r="K2031">
-        <v>1</v>
-      </c>
-      <c r="L2031">
-        <v>1</v>
-      </c>
-      <c r="M2031">
+      <c r="K2031" s="18">
+        <v>1</v>
+      </c>
+      <c r="L2031" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2031" s="18">
         <v>128345</v>
       </c>
+      <c r="N2031" s="18"/>
     </row>
     <row r="2032" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2032">
+      <c r="A2032" s="18">
         <v>1647</v>
       </c>
-      <c r="B2032">
+      <c r="B2032" s="18">
         <v>1988</v>
       </c>
-      <c r="C2032" t="s">
+      <c r="C2032" s="22" t="s">
         <v>2266</v>
       </c>
-      <c r="D2032">
+      <c r="D2032" s="18">
         <v>133578</v>
       </c>
-      <c r="E2032">
+      <c r="E2032" s="18">
         <v>8.34633</v>
       </c>
-      <c r="F2032">
+      <c r="F2032" s="18">
         <v>48.743029999999997</v>
       </c>
-      <c r="G2032" t="s">
+      <c r="G2032" s="18" t="s">
         <v>665</v>
       </c>
-      <c r="H2032">
+      <c r="H2032" s="18">
         <v>17</v>
       </c>
-      <c r="I2032" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2032">
+      <c r="I2032" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2032" s="18">
         <v>25</v>
       </c>
-      <c r="K2032">
+      <c r="K2032" s="18">
         <v>6</v>
       </c>
-      <c r="L2032">
-        <v>1</v>
-      </c>
-      <c r="M2032">
+      <c r="L2032" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2032" s="18">
         <v>133578</v>
       </c>
+      <c r="N2032" s="18"/>
     </row>
     <row r="2033" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2033">
+      <c r="A2033" s="18">
         <v>1657</v>
       </c>
-      <c r="B2033">
+      <c r="B2033" s="18">
         <v>1989</v>
       </c>
-      <c r="C2033" t="s">
+      <c r="C2033" s="18" t="s">
         <v>2267</v>
       </c>
-      <c r="D2033">
+      <c r="D2033" s="18">
         <v>133235</v>
       </c>
-      <c r="E2033">
+      <c r="E2033" s="18">
         <v>8.3539700000000003</v>
       </c>
-      <c r="F2033">
+      <c r="F2033" s="18">
         <v>48.728270000000002</v>
       </c>
-      <c r="G2033" t="s">
+      <c r="G2033" s="18" t="s">
         <v>665</v>
       </c>
-      <c r="H2033">
+      <c r="H2033" s="18">
         <v>17</v>
       </c>
-      <c r="I2033" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2033">
+      <c r="I2033" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2033" s="18">
         <v>25</v>
       </c>
-      <c r="K2033">
+      <c r="K2033" s="18">
         <v>6</v>
       </c>
-      <c r="L2033">
-        <v>1</v>
-      </c>
-      <c r="M2033">
+      <c r="L2033" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2033" s="18">
         <v>133235</v>
       </c>
+      <c r="N2033" s="18"/>
     </row>
     <row r="2034" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2034">
+      <c r="A2034" s="18">
         <v>1663</v>
       </c>
-      <c r="B2034">
+      <c r="B2034" s="18">
         <v>1995</v>
       </c>
-      <c r="C2034" t="s">
+      <c r="C2034" s="19" t="s">
         <v>2268</v>
       </c>
-      <c r="D2034">
+      <c r="D2034" s="18">
         <v>133978</v>
       </c>
-      <c r="E2034">
+      <c r="E2034" s="18">
         <v>8.3589000000000002</v>
       </c>
-      <c r="F2034">
+      <c r="F2034" s="18">
         <v>48.678570000000001</v>
       </c>
-      <c r="G2034" t="s">
+      <c r="G2034" s="18" t="s">
         <v>665</v>
       </c>
-      <c r="H2034">
+      <c r="H2034" s="18">
         <v>17</v>
       </c>
-      <c r="I2034" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2034">
+      <c r="I2034" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2034" s="18">
         <v>25</v>
       </c>
-      <c r="K2034">
+      <c r="K2034" s="18">
         <v>6</v>
       </c>
-      <c r="L2034">
-        <v>1</v>
-      </c>
-      <c r="M2034">
+      <c r="L2034" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2034" s="18">
         <v>133978</v>
       </c>
+      <c r="N2034" s="18"/>
     </row>
     <row r="2035" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2035">
+      <c r="A2035" s="18">
         <v>1665</v>
       </c>
-      <c r="B2035">
+      <c r="B2035" s="18">
         <v>1994</v>
       </c>
-      <c r="C2035" t="s">
+      <c r="C2035" s="18" t="s">
         <v>2269</v>
       </c>
-      <c r="D2035">
+      <c r="D2035" s="18">
         <v>131005</v>
       </c>
-      <c r="E2035">
+      <c r="E2035" s="18">
         <v>8.3606700000000007</v>
       </c>
-      <c r="F2035">
+      <c r="F2035" s="18">
         <v>48.684049999999999</v>
       </c>
-      <c r="G2035" t="s">
+      <c r="G2035" s="18" t="s">
         <v>665</v>
       </c>
-      <c r="H2035">
+      <c r="H2035" s="18">
         <v>17</v>
       </c>
-      <c r="I2035" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2035">
+      <c r="I2035" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2035" s="18">
         <v>25</v>
       </c>
-      <c r="K2035">
+      <c r="K2035" s="18">
         <v>6</v>
       </c>
-      <c r="L2035">
-        <v>1</v>
-      </c>
-      <c r="M2035">
+      <c r="L2035" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2035" s="18">
         <v>131005</v>
       </c>
+      <c r="N2035" s="18"/>
     </row>
     <row r="2036" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2036">
+      <c r="A2036" s="18">
         <v>1668</v>
       </c>
-      <c r="B2036">
+      <c r="B2036" s="18">
         <v>1992</v>
       </c>
-      <c r="C2036" t="s">
+      <c r="C2036" s="19" t="s">
         <v>2270</v>
       </c>
-      <c r="D2036">
+      <c r="D2036" s="18">
         <v>131442</v>
       </c>
-      <c r="E2036">
+      <c r="E2036" s="18">
         <v>8.3633400000000009</v>
       </c>
-      <c r="F2036">
+      <c r="F2036" s="18">
         <v>48.704410000000003</v>
       </c>
-      <c r="G2036" t="s">
+      <c r="G2036" s="18" t="s">
         <v>665</v>
       </c>
-      <c r="H2036">
+      <c r="H2036" s="18">
         <v>17</v>
       </c>
-      <c r="I2036" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2036">
+      <c r="I2036" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2036" s="18">
         <v>25</v>
       </c>
-      <c r="K2036">
+      <c r="K2036" s="18">
         <v>6</v>
       </c>
-      <c r="L2036">
-        <v>1</v>
-      </c>
-      <c r="M2036">
+      <c r="L2036" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2036" s="18">
         <v>131442</v>
       </c>
+      <c r="N2036" s="18"/>
     </row>
     <row r="2037" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2037">
+      <c r="A2037" s="18">
         <v>1694</v>
       </c>
-      <c r="B2037">
+      <c r="B2037" s="18">
         <v>1990</v>
       </c>
-      <c r="C2037" t="s">
+      <c r="C2037" s="19" t="s">
         <v>2271</v>
       </c>
-      <c r="D2037">
+      <c r="D2037" s="18">
         <v>131920</v>
       </c>
-      <c r="E2037">
+      <c r="E2037" s="18">
         <v>8.3910099999999996</v>
       </c>
-      <c r="F2037">
+      <c r="F2037" s="18">
         <v>48.729559999999999</v>
       </c>
-      <c r="G2037" t="s">
+      <c r="G2037" s="18" t="s">
         <v>665</v>
       </c>
-      <c r="H2037">
+      <c r="H2037" s="18">
         <v>17</v>
       </c>
-      <c r="I2037" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2037">
+      <c r="I2037" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2037" s="18">
         <v>25</v>
       </c>
-      <c r="K2037">
+      <c r="K2037" s="18">
         <v>6</v>
       </c>
-      <c r="L2037">
-        <v>1</v>
-      </c>
-      <c r="M2037">
+      <c r="L2037" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2037" s="18">
         <v>131920</v>
       </c>
+      <c r="N2037" s="18"/>
     </row>
     <row r="2038" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2038">
+      <c r="A2038" s="18">
         <v>2096</v>
       </c>
-      <c r="B2038">
+      <c r="B2038" s="18">
         <v>1996</v>
       </c>
-      <c r="C2038" t="s">
+      <c r="C2038" s="19" t="s">
         <v>2272</v>
       </c>
-      <c r="D2038">
+      <c r="D2038" s="18">
         <v>544475</v>
       </c>
-      <c r="E2038">
+      <c r="E2038" s="18">
         <v>8.9138300000000008</v>
       </c>
-      <c r="F2038">
+      <c r="F2038" s="18">
         <v>48.710599999999999</v>
       </c>
-      <c r="G2038" t="s">
+      <c r="G2038" s="18" t="s">
         <v>665</v>
       </c>
-      <c r="H2038">
+      <c r="H2038" s="18">
         <v>20</v>
       </c>
-      <c r="I2038" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2038">
+      <c r="I2038" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2038" s="18">
         <v>25</v>
       </c>
-      <c r="K2038">
+      <c r="K2038" s="18">
         <v>2</v>
       </c>
-      <c r="L2038">
-        <v>1</v>
-      </c>
-      <c r="M2038">
+      <c r="L2038" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2038" s="18">
         <v>544475</v>
       </c>
+      <c r="N2038" s="18"/>
     </row>
     <row r="2039" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2039">
+      <c r="A2039" s="18">
         <v>2160</v>
       </c>
-      <c r="B2039">
+      <c r="B2039" s="18">
         <v>1997</v>
       </c>
-      <c r="C2039" t="s">
+      <c r="C2039" s="19" t="s">
         <v>2273</v>
       </c>
-      <c r="D2039">
+      <c r="D2039" s="18">
         <v>133574</v>
       </c>
-      <c r="E2039">
+      <c r="E2039" s="18">
         <v>9.0019399999999994</v>
       </c>
-      <c r="F2039">
+      <c r="F2039" s="18">
         <v>48.707970000000003</v>
       </c>
-      <c r="G2039" t="s">
+      <c r="G2039" s="18" t="s">
         <v>665</v>
       </c>
-      <c r="H2039">
+      <c r="H2039" s="18">
         <v>20</v>
       </c>
-      <c r="I2039" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2039">
+      <c r="I2039" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2039" s="18">
         <v>25</v>
       </c>
-      <c r="K2039">
+      <c r="K2039" s="18">
         <v>2</v>
       </c>
-      <c r="L2039">
-        <v>1</v>
-      </c>
-      <c r="M2039">
+      <c r="L2039" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2039" s="18">
         <v>133574</v>
       </c>
+      <c r="N2039" s="18"/>
     </row>
     <row r="2040" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2040" s="18">
@@ -92958,375 +92980,384 @@
       </c>
     </row>
     <row r="2041" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2041">
+      <c r="A2041" s="18">
         <v>1980</v>
       </c>
-      <c r="B2041">
+      <c r="B2041" s="18">
         <v>2017</v>
       </c>
-      <c r="C2041" t="s">
+      <c r="C2041" s="19" t="s">
         <v>2275</v>
       </c>
-      <c r="D2041">
+      <c r="D2041" s="18">
         <v>130330</v>
       </c>
-      <c r="E2041">
+      <c r="E2041" s="18">
         <v>8.7392400000000006</v>
       </c>
-      <c r="F2041">
+      <c r="F2041" s="18">
         <v>48.622509999999998</v>
       </c>
-      <c r="G2041" t="s">
+      <c r="G2041" s="18" t="s">
         <v>766</v>
       </c>
-      <c r="H2041">
+      <c r="H2041" s="18">
         <v>19</v>
       </c>
-      <c r="I2041" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2041">
+      <c r="I2041" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2041" s="18">
         <v>26</v>
       </c>
-      <c r="K2041">
-        <v>1</v>
-      </c>
-      <c r="L2041">
-        <v>1</v>
-      </c>
-      <c r="M2041">
+      <c r="K2041" s="18">
+        <v>1</v>
+      </c>
+      <c r="L2041" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2041" s="18">
         <v>130330</v>
       </c>
+      <c r="N2041" s="18"/>
     </row>
     <row r="2042" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2042">
+      <c r="A2042" s="18">
         <v>2341</v>
       </c>
-      <c r="B2042">
+      <c r="B2042" s="18">
         <v>1960</v>
       </c>
-      <c r="C2042" t="s">
+      <c r="C2042" s="18" t="s">
         <v>2276</v>
       </c>
-      <c r="D2042">
+      <c r="D2042" s="18">
         <v>133211</v>
       </c>
-      <c r="E2042">
+      <c r="E2042" s="18">
         <v>9.34192</v>
       </c>
-      <c r="F2042">
+      <c r="F2042" s="18">
         <v>48.626629999999999</v>
       </c>
-      <c r="G2042" t="s">
+      <c r="G2042" s="18" t="s">
         <v>766</v>
       </c>
-      <c r="H2042">
+      <c r="H2042" s="18">
         <v>22</v>
       </c>
-      <c r="I2042" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2042">
+      <c r="I2042" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2042" s="18">
         <v>26</v>
       </c>
-      <c r="K2042">
-        <v>1</v>
-      </c>
-      <c r="L2042">
-        <v>1</v>
-      </c>
-      <c r="M2042">
+      <c r="K2042" s="18">
+        <v>1</v>
+      </c>
+      <c r="L2042" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2042" s="18">
         <v>133211</v>
       </c>
+      <c r="N2042" s="18"/>
     </row>
     <row r="2043" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2043">
+      <c r="A2043" s="18">
         <v>2399</v>
       </c>
-      <c r="B2043">
+      <c r="B2043" s="18">
         <v>1961</v>
       </c>
-      <c r="C2043" t="s">
+      <c r="C2043" s="19" t="s">
         <v>2277</v>
       </c>
-      <c r="D2043">
+      <c r="D2043" s="18">
         <v>132519</v>
       </c>
-      <c r="E2043">
+      <c r="E2043" s="18">
         <v>9.4912799999999997</v>
       </c>
-      <c r="F2043">
+      <c r="F2043" s="18">
         <v>48.600239999999999</v>
       </c>
-      <c r="G2043" t="s">
+      <c r="G2043" s="18" t="s">
         <v>766</v>
       </c>
-      <c r="H2043">
+      <c r="H2043" s="18">
         <v>23</v>
       </c>
-      <c r="I2043" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2043">
+      <c r="I2043" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2043" s="18">
         <v>26</v>
       </c>
-      <c r="K2043">
-        <v>1</v>
-      </c>
-      <c r="L2043">
-        <v>1</v>
-      </c>
-      <c r="M2043">
+      <c r="K2043" s="18">
+        <v>1</v>
+      </c>
+      <c r="L2043" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2043" s="18">
         <v>132519</v>
       </c>
+      <c r="N2043" s="18"/>
     </row>
     <row r="2044" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2044">
+      <c r="A2044" s="18">
         <v>1656</v>
       </c>
-      <c r="B2044">
+      <c r="B2044" s="18">
         <v>2068</v>
       </c>
-      <c r="C2044" t="s">
+      <c r="C2044" s="19" t="s">
         <v>2278</v>
       </c>
-      <c r="D2044">
+      <c r="D2044" s="18">
         <v>131979</v>
       </c>
-      <c r="E2044">
+      <c r="E2044" s="18">
         <v>8.3524600000000007</v>
       </c>
-      <c r="F2044">
+      <c r="F2044" s="18">
         <v>48.346209999999999</v>
       </c>
-      <c r="G2044" t="s">
+      <c r="G2044" s="18" t="s">
         <v>1021</v>
       </c>
-      <c r="H2044">
+      <c r="H2044" s="18">
         <v>17</v>
       </c>
-      <c r="I2044" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2044">
+      <c r="I2044" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2044" s="18">
         <v>29</v>
       </c>
-      <c r="K2044">
-        <v>1</v>
-      </c>
-      <c r="L2044">
-        <v>1</v>
-      </c>
-      <c r="M2044">
+      <c r="K2044" s="18">
+        <v>1</v>
+      </c>
+      <c r="L2044" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2044" s="18">
         <v>131979</v>
       </c>
+      <c r="N2044" s="18"/>
     </row>
     <row r="2045" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2045">
+      <c r="A2045" s="18">
         <v>1642</v>
       </c>
-      <c r="B2045">
+      <c r="B2045" s="18">
         <v>2091</v>
       </c>
-      <c r="C2045" t="s">
+      <c r="C2045" s="19" t="s">
         <v>2279</v>
       </c>
-      <c r="D2045">
+      <c r="D2045" s="18">
         <v>131969</v>
       </c>
-      <c r="E2045">
+      <c r="E2045" s="18">
         <v>8.3425899999999995</v>
       </c>
-      <c r="F2045">
+      <c r="F2045" s="18">
         <v>48.290329999999997</v>
       </c>
-      <c r="G2045" t="s">
+      <c r="G2045" s="18" t="s">
         <v>1100</v>
       </c>
-      <c r="H2045">
+      <c r="H2045" s="18">
         <v>17</v>
       </c>
-      <c r="I2045" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2045">
+      <c r="I2045" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2045" s="18">
         <v>30</v>
       </c>
-      <c r="K2045">
+      <c r="K2045" s="18">
         <v>3</v>
       </c>
-      <c r="L2045">
-        <v>1</v>
-      </c>
-      <c r="M2045">
+      <c r="L2045" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2045" s="18">
         <v>131969</v>
       </c>
+      <c r="N2045" s="18"/>
     </row>
     <row r="2046" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2046">
+      <c r="A2046" s="18">
         <v>1669</v>
       </c>
-      <c r="B2046">
+      <c r="B2046" s="18">
         <v>2092</v>
       </c>
-      <c r="C2046" t="s">
+      <c r="C2046" s="18" t="s">
         <v>2280</v>
       </c>
-      <c r="D2046">
+      <c r="D2046" s="18">
         <v>132570</v>
       </c>
-      <c r="E2046">
+      <c r="E2046" s="18">
         <v>8.3654100000000007</v>
       </c>
-      <c r="F2046">
+      <c r="F2046" s="18">
         <v>48.267339999999997</v>
       </c>
-      <c r="G2046" t="s">
+      <c r="G2046" s="18" t="s">
         <v>1100</v>
       </c>
-      <c r="H2046">
+      <c r="H2046" s="18">
         <v>17</v>
       </c>
-      <c r="I2046" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2046">
+      <c r="I2046" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2046" s="18">
         <v>30</v>
       </c>
-      <c r="K2046">
+      <c r="K2046" s="18">
         <v>3</v>
       </c>
-      <c r="L2046">
-        <v>1</v>
-      </c>
-      <c r="M2046">
+      <c r="L2046" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2046" s="18">
         <v>132570</v>
       </c>
+      <c r="N2046" s="18"/>
     </row>
     <row r="2047" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2047">
+      <c r="A2047" s="18">
         <v>1676</v>
       </c>
-      <c r="B2047">
+      <c r="B2047" s="18">
         <v>2090</v>
       </c>
-      <c r="C2047" t="s">
+      <c r="C2047" s="19" t="s">
         <v>2281</v>
       </c>
-      <c r="D2047">
+      <c r="D2047" s="18">
         <v>129571</v>
       </c>
-      <c r="E2047">
+      <c r="E2047" s="18">
         <v>8.3725299999999994</v>
       </c>
-      <c r="F2047">
+      <c r="F2047" s="18">
         <v>48.311050000000002</v>
       </c>
-      <c r="G2047" t="s">
+      <c r="G2047" s="18" t="s">
         <v>1100</v>
       </c>
-      <c r="H2047">
+      <c r="H2047" s="18">
         <v>17</v>
       </c>
-      <c r="I2047" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2047">
+      <c r="I2047" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2047" s="18">
         <v>30</v>
       </c>
-      <c r="K2047">
+      <c r="K2047" s="18">
         <v>3</v>
       </c>
-      <c r="L2047">
-        <v>1</v>
-      </c>
-      <c r="M2047">
+      <c r="L2047" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2047" s="18">
         <v>129571</v>
       </c>
+      <c r="N2047" s="18"/>
     </row>
     <row r="2048" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2048">
+      <c r="A2048" s="18">
         <v>1649</v>
       </c>
-      <c r="B2048">
+      <c r="B2048" s="18">
         <v>2104</v>
       </c>
-      <c r="C2048" t="s">
+      <c r="C2048" s="19" t="s">
         <v>2282</v>
       </c>
-      <c r="D2048">
+      <c r="D2048" s="18">
         <v>129057</v>
       </c>
-      <c r="E2048">
+      <c r="E2048" s="18">
         <v>8.3468800000000005</v>
       </c>
-      <c r="F2048">
+      <c r="F2048" s="18">
         <v>48.188699999999997</v>
       </c>
-      <c r="G2048" t="s">
+      <c r="G2048" s="18" t="s">
         <v>1181</v>
       </c>
-      <c r="H2048">
+      <c r="H2048" s="18">
         <v>17</v>
       </c>
-      <c r="I2048" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2048">
+      <c r="I2048" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2048" s="18">
         <v>31</v>
       </c>
-      <c r="K2048">
+      <c r="K2048" s="18">
         <v>2</v>
       </c>
-      <c r="L2048">
-        <v>1</v>
-      </c>
-      <c r="M2048">
+      <c r="L2048" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2048" s="18">
         <v>129057</v>
       </c>
-    </row>
-    <row r="2049" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2049">
+      <c r="N2048" s="18"/>
+    </row>
+    <row r="2049" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2049" s="18">
         <v>1750</v>
       </c>
-      <c r="B2049">
+      <c r="B2049" s="18">
         <v>2105</v>
       </c>
-      <c r="C2049" t="s">
+      <c r="C2049" s="18" t="s">
         <v>2283</v>
       </c>
-      <c r="D2049">
+      <c r="D2049" s="18">
         <v>131093</v>
       </c>
-      <c r="E2049">
+      <c r="E2049" s="18">
         <v>8.4604300000000006</v>
       </c>
-      <c r="F2049">
+      <c r="F2049" s="18">
         <v>48.172269999999997</v>
       </c>
-      <c r="G2049" t="s">
+      <c r="G2049" s="18" t="s">
         <v>1181</v>
       </c>
-      <c r="H2049">
+      <c r="H2049" s="18">
         <v>17</v>
       </c>
-      <c r="I2049" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2049">
+      <c r="I2049" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2049" s="18">
         <v>31</v>
       </c>
-      <c r="K2049">
+      <c r="K2049" s="18">
         <v>2</v>
       </c>
-      <c r="L2049">
-        <v>1</v>
-      </c>
-      <c r="M2049">
+      <c r="L2049" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2049" s="18">
         <v>131093</v>
       </c>
-    </row>
-    <row r="2050" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N2049" s="18"/>
+    </row>
+    <row r="2050" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2050">
         <v>1678</v>
       </c>
@@ -93367,7 +93398,7 @@
         <v>129089</v>
       </c>
     </row>
-    <row r="2051" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2051" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2051">
         <v>1680</v>
       </c>
@@ -93408,7 +93439,7 @@
         <v>132924</v>
       </c>
     </row>
-    <row r="2052" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2052" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2052">
         <v>1725</v>
       </c>
@@ -93449,7 +93480,7 @@
         <v>130738</v>
       </c>
     </row>
-    <row r="2053" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2053" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2053">
         <v>1749</v>
       </c>
@@ -93490,7 +93521,7 @@
         <v>132589</v>
       </c>
     </row>
-    <row r="2054" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2054" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2054">
         <v>1761</v>
       </c>
@@ -93531,7 +93562,7 @@
         <v>129244</v>
       </c>
     </row>
-    <row r="2055" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2055" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2055">
         <v>1786</v>
       </c>
@@ -93572,7 +93603,7 @@
         <v>134032</v>
       </c>
     </row>
-    <row r="2056" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2056" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2056">
         <v>1787</v>
       </c>
@@ -93613,7 +93644,7 @@
         <v>130211</v>
       </c>
     </row>
-    <row r="2057" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2057" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2057">
         <v>1796</v>
       </c>
@@ -93654,7 +93685,7 @@
         <v>128546</v>
       </c>
     </row>
-    <row r="2058" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2058" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2058">
         <v>1799</v>
       </c>
@@ -93695,7 +93726,7 @@
         <v>131096</v>
       </c>
     </row>
-    <row r="2059" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2059" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2059">
         <v>1815</v>
       </c>
@@ -93736,7 +93767,7 @@
         <v>128821</v>
       </c>
     </row>
-    <row r="2060" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2060" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2060">
         <v>1836</v>
       </c>
@@ -93777,7 +93808,7 @@
         <v>128405</v>
       </c>
     </row>
-    <row r="2061" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2061" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2061">
         <v>2110</v>
       </c>
@@ -93818,7 +93849,7 @@
         <v>128729</v>
       </c>
     </row>
-    <row r="2062" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2062" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2062">
         <v>2124</v>
       </c>
@@ -93859,7 +93890,7 @@
         <v>127426</v>
       </c>
     </row>
-    <row r="2063" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2063" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2063">
         <v>2152</v>
       </c>
@@ -93900,7 +93931,7 @@
         <v>133595</v>
       </c>
     </row>
-    <row r="2064" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2064" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2064">
         <v>2183</v>
       </c>
